--- a/sample12.xlsx
+++ b/sample12.xlsx
@@ -26,12 +26,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="18">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ADD8E6"/>
+        <bgColor rgb="00ADD8E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003BA59E"/>
+        <bgColor rgb="003BA59E"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -41,8 +53,80 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ADD8E6"/>
-        <bgColor rgb="00ADD8E6"/>
+        <fgColor rgb="00FFAD77"/>
+        <bgColor rgb="00FFAD77"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00678384"/>
+        <bgColor rgb="00678384"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="005329FA"/>
+        <bgColor rgb="005329FA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BAD843"/>
+        <bgColor rgb="00BAD843"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="001EE601"/>
+        <bgColor rgb="001EE601"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00897FD1"/>
+        <bgColor rgb="00897FD1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00607CB9"/>
+        <bgColor rgb="00607CB9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DAB944"/>
+        <bgColor rgb="00DAB944"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B8FF8D"/>
+        <bgColor rgb="00B8FF8D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0041BBD0"/>
+        <bgColor rgb="0041BBD0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A7387B"/>
+        <bgColor rgb="00A7387B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BFC15B"/>
+        <bgColor rgb="00BFC15B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="009775E7"/>
+        <bgColor rgb="009775E7"/>
       </patternFill>
     </fill>
   </fills>
@@ -58,10 +142,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -427,7 +525,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W93"/>
+  <dimension ref="A1:W189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,12 +534,14 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="n">
-        <v>1</v>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
@@ -463,37 +563,37 @@
     <row r="2">
       <c r="B2" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>Service(นฤชิต)</t>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>Programmer(รณยุทธ)</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(ปรมะ)</t>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
+          <t>24:00-8:00</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -503,17 +603,17 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
+          <t>24:00-8:00</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -523,17 +623,17 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
+          <t>24:00-8:00</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -545,25 +645,25 @@
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>Service(นฤชิต)</t>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>Programmer(รณยุทธ)</t>
+          <t>สุเมธร์</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>Programmer(ปรมะ)</t>
-        </is>
-      </c>
-      <c r="G3" s="2" t="inlineStr">
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
         <is>
           <t>ภูวเนตร</t>
         </is>
@@ -580,7 +680,7 @@
       <c r="K3" t="n">
         <v>6</v>
       </c>
-      <c r="M3" s="2" t="inlineStr">
+      <c r="M3" s="1" t="inlineStr">
         <is>
           <t>ภูวเนตร</t>
         </is>
@@ -597,7 +697,7 @@
       <c r="Q3" t="n">
         <v>4</v>
       </c>
-      <c r="S3" s="2" t="inlineStr">
+      <c r="S3" s="1" t="inlineStr">
         <is>
           <t>ภูวเนตร</t>
         </is>
@@ -616,30 +716,32 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2*</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Programmer(ภูวเนตร)</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>Service(นที)</t>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>Programmer(ภูวเนตร)</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
         <is>
           <t>ราเชนทร์</t>
         </is>
@@ -656,16 +758,16 @@
       <c r="K4" t="n">
         <v>6</v>
       </c>
-      <c r="M4" s="2" t="inlineStr">
+      <c r="M4" s="1" t="inlineStr">
         <is>
           <t>ราเชนทร์</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
@@ -673,16 +775,16 @@
       <c r="Q4" t="n">
         <v>4</v>
       </c>
-      <c r="S4" s="2" t="inlineStr">
+      <c r="S4" s="1" t="inlineStr">
         <is>
           <t>ราเชนทร์</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V4" t="n">
         <v>4</v>
@@ -694,25 +796,25 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>Programmer(ราเชนทร์)</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>Service(สุเมธร์)</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(สัญญา)</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
         <is>
           <t>พลกฤต</t>
         </is>
@@ -729,7 +831,7 @@
       <c r="K5" t="n">
         <v>6</v>
       </c>
-      <c r="M5" s="2" t="inlineStr">
+      <c r="M5" s="1" t="inlineStr">
         <is>
           <t>พลกฤต</t>
         </is>
@@ -746,7 +848,7 @@
       <c r="Q5" t="n">
         <v>4</v>
       </c>
-      <c r="S5" s="2" t="inlineStr">
+      <c r="S5" s="1" t="inlineStr">
         <is>
           <t>พลกฤต</t>
         </is>
@@ -767,25 +869,25 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(ราเชนทร์)</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>Service(สุเมธร์)</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(สัญญา)</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
         <is>
           <t>ชานนท์</t>
         </is>
@@ -802,66 +904,68 @@
       <c r="K6" t="n">
         <v>6</v>
       </c>
-      <c r="M6" s="2" t="inlineStr">
+      <c r="M6" s="1" t="inlineStr">
         <is>
           <t>ชานนท์</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P6" t="n">
         <v>2</v>
       </c>
       <c r="Q6" t="n">
-        <v>4</v>
-      </c>
-      <c r="S6" s="2" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="S6" s="1" t="inlineStr">
         <is>
           <t>ชานนท์</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V6" t="n">
         <v>5</v>
       </c>
       <c r="W6" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>3</v>
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>3*</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>Service(ราเชน)</t>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>Programmer(วินัย)</t>
+          <t>ราเชน</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>Service(ราเชน)</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
         <is>
           <t>ปรมะ</t>
         </is>
@@ -878,63 +982,63 @@
       <c r="K7" t="n">
         <v>6</v>
       </c>
-      <c r="M7" s="2" t="inlineStr">
+      <c r="M7" s="1" t="inlineStr">
         <is>
           <t>ปรมะ</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O7" t="n">
         <v>1</v>
       </c>
       <c r="P7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q7" t="n">
-        <v>3</v>
-      </c>
-      <c r="S7" s="2" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="S7" s="1" t="inlineStr">
         <is>
           <t>ปรมะ</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U7" t="n">
         <v>4</v>
       </c>
       <c r="V7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(ชานนท์)</t>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>Service(จีรวัฒน์)</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(พลกฤต)</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
         <is>
           <t>สัญญา</t>
         </is>
@@ -951,7 +1055,7 @@
       <c r="K8" t="n">
         <v>6</v>
       </c>
-      <c r="M8" s="2" t="inlineStr">
+      <c r="M8" s="1" t="inlineStr">
         <is>
           <t>สัญญา</t>
         </is>
@@ -960,15 +1064,15 @@
         <v>2</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P8" t="n">
         <v>1</v>
       </c>
       <c r="Q8" t="n">
-        <v>4</v>
-      </c>
-      <c r="S8" s="2" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="S8" s="1" t="inlineStr">
         <is>
           <t>สัญญา</t>
         </is>
@@ -977,37 +1081,37 @@
         <v>2</v>
       </c>
       <c r="U8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V8" t="n">
         <v>4</v>
       </c>
       <c r="W8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
+          <t>24:00-8:00</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>Programmer(ชานนท์)</t>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
-        <is>
-          <t>Service(จีรวัฒน์)</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(พลกฤต)</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E9" s="1" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="G9" s="1" t="inlineStr">
         <is>
           <t>วินัย</t>
         </is>
@@ -1024,7 +1128,7 @@
       <c r="K9" t="n">
         <v>6</v>
       </c>
-      <c r="M9" s="2" t="inlineStr">
+      <c r="M9" s="1" t="inlineStr">
         <is>
           <t>วินัย</t>
         </is>
@@ -1033,15 +1137,15 @@
         <v>2</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P9" t="n">
         <v>1</v>
       </c>
       <c r="Q9" t="n">
-        <v>4</v>
-      </c>
-      <c r="S9" s="2" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="S9" s="1" t="inlineStr">
         <is>
           <t>วินัย</t>
         </is>
@@ -1050,25 +1154,27 @@
         <v>2</v>
       </c>
       <c r="U9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V9" t="n">
         <v>4</v>
       </c>
       <c r="W9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>4</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="G10" s="1" t="inlineStr">
         <is>
           <t>รณยุทธ</t>
         </is>
@@ -1085,7 +1191,7 @@
       <c r="K10" t="n">
         <v>6</v>
       </c>
-      <c r="M10" s="2" t="inlineStr">
+      <c r="M10" s="1" t="inlineStr">
         <is>
           <t>รณยุทธ</t>
         </is>
@@ -1097,12 +1203,12 @@
         <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q10" t="n">
-        <v>3</v>
-      </c>
-      <c r="S10" s="2" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="S10" s="1" t="inlineStr">
         <is>
           <t>รณยุทธ</t>
         </is>
@@ -1114,34 +1220,34 @@
         <v>4</v>
       </c>
       <c r="V10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>Programmer(ปรมะ)</t>
-        </is>
-      </c>
-      <c r="D11" s="1" t="inlineStr">
-        <is>
-          <t>Service(วัฒพงษ์)</t>
-        </is>
-      </c>
-      <c r="E11" s="1" t="inlineStr">
-        <is>
-          <t>Service(นฤชิต)</t>
-        </is>
-      </c>
-      <c r="G11" s="1" t="inlineStr">
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
         <is>
           <t>วัฒพงษ์</t>
         </is>
@@ -1158,7 +1264,7 @@
       <c r="K11" t="n">
         <v>6</v>
       </c>
-      <c r="M11" s="1" t="inlineStr">
+      <c r="M11" s="2" t="inlineStr">
         <is>
           <t>วัฒพงษ์</t>
         </is>
@@ -1167,15 +1273,15 @@
         <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
-        <v>5</v>
-      </c>
-      <c r="S11" s="1" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
         <is>
           <t>วัฒพงษ์</t>
         </is>
@@ -1184,37 +1290,37 @@
         <v>1</v>
       </c>
       <c r="U11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W11" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
+          <t>24:00-8:00</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>Programmer(ปรมะ)</t>
-        </is>
-      </c>
-      <c r="D12" s="1" t="inlineStr">
-        <is>
-          <t>Service(วัฒพงษ์)</t>
-        </is>
-      </c>
-      <c r="E12" s="1" t="inlineStr">
-        <is>
-          <t>Service(นฤชิต)</t>
-        </is>
-      </c>
-      <c r="G12" s="1" t="inlineStr">
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>ราเชน</t>
         </is>
@@ -1231,13 +1337,13 @@
       <c r="K12" t="n">
         <v>6</v>
       </c>
-      <c r="M12" s="1" t="inlineStr">
+      <c r="M12" s="2" t="inlineStr">
         <is>
           <t>ราเชน</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O12" t="n">
         <v>1</v>
@@ -1246,15 +1352,15 @@
         <v>1</v>
       </c>
       <c r="Q12" t="n">
-        <v>4</v>
-      </c>
-      <c r="S12" s="1" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
         <is>
           <t>ราเชน</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U12" t="n">
         <v>4</v>
@@ -1263,19 +1369,21 @@
         <v>4</v>
       </c>
       <c r="W12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>5</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
-        </is>
-      </c>
-      <c r="G13" s="1" t="inlineStr">
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
         <is>
           <t>นฤชิต</t>
         </is>
@@ -1292,63 +1400,63 @@
       <c r="K13" t="n">
         <v>6</v>
       </c>
-      <c r="M13" s="1" t="inlineStr">
+      <c r="M13" s="2" t="inlineStr">
         <is>
           <t>นฤชิต</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="T13" t="n">
+        <v>1</v>
+      </c>
+      <c r="U13" t="n">
         <v>5</v>
       </c>
-      <c r="S13" s="1" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="T13" t="n">
-        <v>2</v>
-      </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>4</v>
       </c>
-      <c r="V13" t="n">
-        <v>5</v>
-      </c>
       <c r="W13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(ราเชนทร์)</t>
-        </is>
-      </c>
-      <c r="D14" s="1" t="inlineStr">
-        <is>
-          <t>Service(สุเมธร์)</t>
-        </is>
-      </c>
-      <c r="E14" s="1" t="inlineStr">
-        <is>
-          <t>Service(นที)</t>
-        </is>
-      </c>
-      <c r="G14" s="1" t="inlineStr">
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>จีรวัฒน์</t>
         </is>
@@ -1365,13 +1473,13 @@
       <c r="K14" t="n">
         <v>6</v>
       </c>
-      <c r="M14" s="1" t="inlineStr">
+      <c r="M14" s="2" t="inlineStr">
         <is>
           <t>จีรวัฒน์</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
         <v>2</v>
@@ -1380,15 +1488,15 @@
         <v>1</v>
       </c>
       <c r="Q14" t="n">
-        <v>5</v>
-      </c>
-      <c r="S14" s="1" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
         <is>
           <t>จีรวัฒน์</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U14" t="n">
         <v>5</v>
@@ -1397,31 +1505,31 @@
         <v>4</v>
       </c>
       <c r="W14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(ราเชนทร์)</t>
-        </is>
-      </c>
-      <c r="D15" s="1" t="inlineStr">
-        <is>
-          <t>Service(สุเมธร์)</t>
-        </is>
-      </c>
-      <c r="E15" s="1" t="inlineStr">
-        <is>
-          <t>Service(นที)</t>
-        </is>
-      </c>
-      <c r="G15" s="1" t="inlineStr">
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
         <is>
           <t>สุเมธร์</t>
         </is>
@@ -1438,51 +1546,53 @@
       <c r="K15" t="n">
         <v>6</v>
       </c>
-      <c r="M15" s="1" t="inlineStr">
+      <c r="M15" s="2" t="inlineStr">
         <is>
           <t>สุเมธร์</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>2</v>
       </c>
       <c r="Q15" t="n">
-        <v>6</v>
-      </c>
-      <c r="S15" s="1" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
         <is>
           <t>สุเมธร์</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V15" t="n">
         <v>5</v>
       </c>
       <c r="W15" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>6</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
-        </is>
-      </c>
-      <c r="G16" s="1" t="inlineStr">
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>นที</t>
         </is>
@@ -1499,16 +1609,16 @@
       <c r="K16" t="n">
         <v>6</v>
       </c>
-      <c r="M16" s="1" t="inlineStr">
+      <c r="M16" s="2" t="inlineStr">
         <is>
           <t>นที</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
         <v>2</v>
@@ -1516,16 +1626,16 @@
       <c r="Q16" t="n">
         <v>5</v>
       </c>
-      <c r="S16" s="1" t="inlineStr">
+      <c r="S16" s="2" t="inlineStr">
         <is>
           <t>นที</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V16" t="n">
         <v>5</v>
@@ -1537,76 +1647,78 @@
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>Programmer(วินัย)</t>
-        </is>
-      </c>
-      <c r="D17" s="1" t="inlineStr">
-        <is>
-          <t>Service(จีรวัฒน์)</t>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>Programmer(สัญญา)</t>
+          <t>สุเมธร์</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
+          <t>24:00-8:00</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>Programmer(วินัย)</t>
-        </is>
-      </c>
-      <c r="D18" s="1" t="inlineStr">
-        <is>
-          <t>Service(จีรวัฒน์)</t>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>Programmer(สัญญา)</t>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>7</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(ชานนท์)</t>
-        </is>
-      </c>
-      <c r="D20" s="1" t="inlineStr">
-        <is>
-          <t>Service(นฤชิต)</t>
-        </is>
-      </c>
-      <c r="E20" s="1" t="inlineStr">
-        <is>
-          <t>Service(วัฒพงษ์)</t>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1628,37 +1740,37 @@
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
+          <t>24:00-8:00</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>Programmer(ชานนท์)</t>
-        </is>
-      </c>
-      <c r="D21" s="1" t="inlineStr">
-        <is>
-          <t>Service(นฤชิต)</t>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
         </is>
       </c>
       <c r="E21" s="1" t="inlineStr">
         <is>
-          <t>Service(วัฒพงษ์)</t>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
+          <t>24:00-8:00</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1668,17 +1780,17 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
+          <t>24:00-8:00</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
@@ -1688,17 +1800,17 @@
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
+          <t>24:00-8:00</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
@@ -1708,15 +1820,17 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>8</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="G22" s="1" t="inlineStr">
         <is>
           <t>ภูวเนตร</t>
         </is>
@@ -1733,7 +1847,7 @@
       <c r="K22" t="n">
         <v>3</v>
       </c>
-      <c r="M22" s="2" t="inlineStr">
+      <c r="M22" s="1" t="inlineStr">
         <is>
           <t>ภูวเนตร</t>
         </is>
@@ -1750,7 +1864,7 @@
       <c r="Q22" t="n">
         <v>3</v>
       </c>
-      <c r="S22" s="2" t="inlineStr">
+      <c r="S22" s="1" t="inlineStr">
         <is>
           <t>ภูวเนตร</t>
         </is>
@@ -1771,25 +1885,25 @@
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="inlineStr">
-        <is>
-          <t>Service(ราเชน)</t>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>Programmer(รณยุทธ)</t>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
       <c r="E23" s="1" t="inlineStr">
         <is>
-          <t>Service(สุเมธร์)</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="G23" s="1" t="inlineStr">
         <is>
           <t>ราเชนทร์</t>
         </is>
@@ -1798,15 +1912,15 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
         <v>3</v>
       </c>
-      <c r="M23" s="2" t="inlineStr">
+      <c r="M23" s="1" t="inlineStr">
         <is>
           <t>ราเชนทร์</t>
         </is>
@@ -1815,15 +1929,15 @@
         <v>1</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" t="n">
         <v>1</v>
       </c>
       <c r="Q23" t="n">
-        <v>2</v>
-      </c>
-      <c r="S23" s="2" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="S23" s="1" t="inlineStr">
         <is>
           <t>ราเชนทร์</t>
         </is>
@@ -1832,37 +1946,37 @@
         <v>1</v>
       </c>
       <c r="U23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
-        </is>
-      </c>
-      <c r="C24" s="1" t="inlineStr">
-        <is>
-          <t>Service(ราเชน)</t>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>นที</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>Programmer(รณยุทธ)</t>
-        </is>
-      </c>
-      <c r="E24" s="1" t="inlineStr">
-        <is>
-          <t>Service(สุเมธร์)</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="G24" s="1" t="inlineStr">
         <is>
           <t>พลกฤต</t>
         </is>
@@ -1871,74 +1985,76 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K24" t="n">
         <v>3</v>
       </c>
-      <c r="M24" s="2" t="inlineStr">
+      <c r="M24" s="1" t="inlineStr">
         <is>
           <t>พลกฤต</t>
         </is>
       </c>
       <c r="N24" t="n">
+        <v>1</v>
+      </c>
+      <c r="O24" t="n">
         <v>0</v>
       </c>
-      <c r="O24" t="n">
-        <v>1</v>
-      </c>
       <c r="P24" t="n">
         <v>1</v>
       </c>
       <c r="Q24" t="n">
         <v>2</v>
       </c>
-      <c r="S24" s="2" t="inlineStr">
+      <c r="S24" s="1" t="inlineStr">
         <is>
           <t>พลกฤต</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W24" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>9</v>
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>9*</t>
+        </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
       <c r="C25" s="1" t="inlineStr">
         <is>
-          <t>Service(จีรวัฒน์)</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(สัญญา)</t>
-        </is>
-      </c>
-      <c r="E25" s="1" t="inlineStr">
-        <is>
-          <t>Service(จีรวัฒน์)</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D25" s="1" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="G25" s="1" t="inlineStr">
         <is>
           <t>ชานนท์</t>
         </is>
@@ -1947,15 +2063,15 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K25" t="n">
         <v>3</v>
       </c>
-      <c r="M25" s="2" t="inlineStr">
+      <c r="M25" s="1" t="inlineStr">
         <is>
           <t>ชานนท์</t>
         </is>
@@ -1967,12 +2083,12 @@
         <v>1</v>
       </c>
       <c r="P25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>2</v>
-      </c>
-      <c r="S25" s="2" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="S25" s="1" t="inlineStr">
         <is>
           <t>ชานนท์</t>
         </is>
@@ -1981,37 +2097,37 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>Programmer(พลกฤต)</t>
-        </is>
-      </c>
-      <c r="D26" s="1" t="inlineStr">
-        <is>
-          <t>Service(นที)</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(ปรมะ)</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E26" s="1" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="G26" s="1" t="inlineStr">
         <is>
           <t>ปรมะ</t>
         </is>
@@ -2020,21 +2136,21 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K26" t="n">
         <v>3</v>
       </c>
-      <c r="M26" s="2" t="inlineStr">
+      <c r="M26" s="1" t="inlineStr">
         <is>
           <t>ปรมะ</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>1</v>
@@ -2043,48 +2159,48 @@
         <v>1</v>
       </c>
       <c r="Q26" t="n">
-        <v>3</v>
-      </c>
-      <c r="S26" s="2" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="S26" s="1" t="inlineStr">
         <is>
           <t>ปรมะ</t>
         </is>
       </c>
       <c r="T26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(พลกฤต)</t>
-        </is>
-      </c>
-      <c r="D27" s="1" t="inlineStr">
-        <is>
-          <t>Service(นที)</t>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C27" s="1" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>Programmer(ปรมะ)</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="G27" s="1" t="inlineStr">
         <is>
           <t>สัญญา</t>
         </is>
@@ -2093,15 +2209,15 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K27" t="n">
         <v>3</v>
       </c>
-      <c r="M27" s="2" t="inlineStr">
+      <c r="M27" s="1" t="inlineStr">
         <is>
           <t>สัญญา</t>
         </is>
@@ -2113,12 +2229,12 @@
         <v>1</v>
       </c>
       <c r="P27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>3</v>
-      </c>
-      <c r="S27" s="2" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="S27" s="1" t="inlineStr">
         <is>
           <t>สัญญา</t>
         </is>
@@ -2127,40 +2243,42 @@
         <v>1</v>
       </c>
       <c r="U27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V27" t="n">
         <v>2</v>
       </c>
       <c r="W27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>10</v>
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>10*</t>
+        </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
-        </is>
-      </c>
-      <c r="C28" s="1" t="inlineStr">
-        <is>
-          <t>Service(นฤชิต)</t>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>นที</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>Programmer(ชานนท์)</t>
-        </is>
-      </c>
-      <c r="E28" s="1" t="inlineStr">
-        <is>
-          <t>Service(นฤชิต)</t>
-        </is>
-      </c>
-      <c r="G28" s="2" t="inlineStr">
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="G28" s="1" t="inlineStr">
         <is>
           <t>วินัย</t>
         </is>
@@ -2177,7 +2295,7 @@
       <c r="K28" t="n">
         <v>3</v>
       </c>
-      <c r="M28" s="2" t="inlineStr">
+      <c r="M28" s="1" t="inlineStr">
         <is>
           <t>วินัย</t>
         </is>
@@ -2186,15 +2304,15 @@
         <v>1</v>
       </c>
       <c r="O28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>1</v>
       </c>
       <c r="Q28" t="n">
-        <v>3</v>
-      </c>
-      <c r="S28" s="2" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="S28" s="1" t="inlineStr">
         <is>
           <t>วินัย</t>
         </is>
@@ -2203,37 +2321,37 @@
         <v>1</v>
       </c>
       <c r="U28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V28" t="n">
         <v>2</v>
       </c>
       <c r="W28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="C29" s="1" t="inlineStr">
         <is>
-          <t>Service(วัฒพงษ์)</t>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>Programmer(ภูวเนตร)</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(วินัย)</t>
-        </is>
-      </c>
-      <c r="G29" s="2" t="inlineStr">
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E29" s="1" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="G29" s="1" t="inlineStr">
         <is>
           <t>รณยุทธ</t>
         </is>
@@ -2250,7 +2368,7 @@
       <c r="K29" t="n">
         <v>3</v>
       </c>
-      <c r="M29" s="2" t="inlineStr">
+      <c r="M29" s="1" t="inlineStr">
         <is>
           <t>รณยุทธ</t>
         </is>
@@ -2262,12 +2380,12 @@
         <v>1</v>
       </c>
       <c r="P29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>3</v>
-      </c>
-      <c r="S29" s="2" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="S29" s="1" t="inlineStr">
         <is>
           <t>รณยุทธ</t>
         </is>
@@ -2279,34 +2397,34 @@
         <v>3</v>
       </c>
       <c r="V29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
+          <t>24:00-8:00</t>
         </is>
       </c>
       <c r="C30" s="1" t="inlineStr">
         <is>
-          <t>Service(วัฒพงษ์)</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(ภูวเนตร)</t>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="D30" s="1" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>Programmer(วินัย)</t>
-        </is>
-      </c>
-      <c r="G30" s="1" t="inlineStr">
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
         <is>
           <t>วัฒพงษ์</t>
         </is>
@@ -2315,15 +2433,15 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K30" t="n">
         <v>3</v>
       </c>
-      <c r="M30" s="1" t="inlineStr">
+      <c r="M30" s="2" t="inlineStr">
         <is>
           <t>วัฒพงษ์</t>
         </is>
@@ -2335,12 +2453,12 @@
         <v>1</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30" t="n">
-        <v>2</v>
-      </c>
-      <c r="S30" s="1" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="S30" s="2" t="inlineStr">
         <is>
           <t>วัฒพงษ์</t>
         </is>
@@ -2349,25 +2467,27 @@
         <v>1</v>
       </c>
       <c r="U30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V30" t="n">
         <v>2</v>
       </c>
       <c r="W30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>11</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
-        </is>
-      </c>
-      <c r="G31" s="1" t="inlineStr">
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
         <is>
           <t>ราเชน</t>
         </is>
@@ -2376,15 +2496,15 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K31" t="n">
         <v>3</v>
       </c>
-      <c r="M31" s="1" t="inlineStr">
+      <c r="M31" s="2" t="inlineStr">
         <is>
           <t>ราเชน</t>
         </is>
@@ -2401,7 +2521,7 @@
       <c r="Q31" t="n">
         <v>3</v>
       </c>
-      <c r="S31" s="1" t="inlineStr">
+      <c r="S31" s="2" t="inlineStr">
         <is>
           <t>ราเชน</t>
         </is>
@@ -2410,10 +2530,10 @@
         <v>1</v>
       </c>
       <c r="U31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W31" t="n">
         <v>6</v>
@@ -2422,25 +2542,25 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>Programmer(ราเชนทร์)</t>
-        </is>
-      </c>
-      <c r="D32" s="1" t="inlineStr">
-        <is>
-          <t>Service(สุเมธร์)</t>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
         </is>
       </c>
       <c r="E32" s="1" t="inlineStr">
         <is>
-          <t>Service(ราเชน)</t>
-        </is>
-      </c>
-      <c r="G32" s="1" t="inlineStr">
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
         <is>
           <t>นฤชิต</t>
         </is>
@@ -2457,63 +2577,63 @@
       <c r="K32" t="n">
         <v>3</v>
       </c>
-      <c r="M32" s="1" t="inlineStr">
+      <c r="M32" s="2" t="inlineStr">
         <is>
           <t>นฤชิต</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
+        <v>1</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2</v>
+      </c>
+      <c r="S32" s="2" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="T32" t="n">
         <v>0</v>
       </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>1</v>
-      </c>
-      <c r="S32" s="1" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="T32" t="n">
-        <v>1</v>
-      </c>
       <c r="U32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
-        </is>
-      </c>
-      <c r="C33" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(ราเชนทร์)</t>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C33" s="1" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
         </is>
       </c>
       <c r="D33" s="1" t="inlineStr">
         <is>
-          <t>Service(สุเมธร์)</t>
+          <t>ชานนท์</t>
         </is>
       </c>
       <c r="E33" s="1" t="inlineStr">
         <is>
-          <t>Service(ราเชน)</t>
-        </is>
-      </c>
-      <c r="G33" s="1" t="inlineStr">
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
         <is>
           <t>จีรวัฒน์</t>
         </is>
@@ -2530,7 +2650,7 @@
       <c r="K33" t="n">
         <v>3</v>
       </c>
-      <c r="M33" s="1" t="inlineStr">
+      <c r="M33" s="2" t="inlineStr">
         <is>
           <t>จีรวัฒน์</t>
         </is>
@@ -2542,12 +2662,12 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33" t="n">
-        <v>1</v>
-      </c>
-      <c r="S33" s="1" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="S33" s="2" t="inlineStr">
         <is>
           <t>จีรวัฒน์</t>
         </is>
@@ -2559,22 +2679,24 @@
         <v>2</v>
       </c>
       <c r="V33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
-        <v>12</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
-        </is>
-      </c>
-      <c r="G34" s="1" t="inlineStr">
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
         <is>
           <t>สุเมธร์</t>
         </is>
@@ -2591,7 +2713,7 @@
       <c r="K34" t="n">
         <v>3</v>
       </c>
-      <c r="M34" s="1" t="inlineStr">
+      <c r="M34" s="2" t="inlineStr">
         <is>
           <t>สุเมธร์</t>
         </is>
@@ -2603,12 +2725,12 @@
         <v>1</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34" t="n">
-        <v>1</v>
-      </c>
-      <c r="S34" s="1" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="S34" s="2" t="inlineStr">
         <is>
           <t>สุเมธร์</t>
         </is>
@@ -2620,34 +2742,34 @@
         <v>2</v>
       </c>
       <c r="V34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="C35" s="1" t="inlineStr">
         <is>
-          <t>Service(นที)</t>
+          <t>วินัย</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>Programmer(พลกฤต)</t>
-        </is>
-      </c>
-      <c r="E35" s="1" t="inlineStr">
-        <is>
-          <t>Service(จีรวัฒน์)</t>
-        </is>
-      </c>
-      <c r="G35" s="1" t="inlineStr">
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>นที</t>
         </is>
@@ -2656,44 +2778,44 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K35" t="n">
         <v>3</v>
       </c>
-      <c r="M35" s="1" t="inlineStr">
+      <c r="M35" s="2" t="inlineStr">
         <is>
           <t>นที</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>1</v>
       </c>
-      <c r="S35" s="1" t="inlineStr">
+      <c r="S35" s="2" t="inlineStr">
         <is>
           <t>นที</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W35" t="n">
         <v>4</v>
@@ -2702,32 +2824,34 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
+          <t>24:00-8:00</t>
         </is>
       </c>
       <c r="C36" s="1" t="inlineStr">
         <is>
-          <t>Service(นที)</t>
+          <t>ปรมะ</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>Programmer(พลกฤต)</t>
+          <t>ราเชน</t>
         </is>
       </c>
       <c r="E36" s="1" t="inlineStr">
         <is>
-          <t>Service(จีรวัฒน์)</t>
+          <t>ราเชนทร์</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>13</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2739,67 +2863,47 @@
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
-        </is>
-      </c>
-      <c r="C38" s="1" t="inlineStr">
-        <is>
-          <t>Service(วัฒพงษ์)</t>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>Programmer(สัญญา)</t>
-        </is>
-      </c>
-      <c r="E38" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(ภูวเนตร)</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>วันหยุดชดเชย</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>วันหยุด</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>วันทำการ</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>รวม</t>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E38" s="1" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
+          <t>24:00-8:00</t>
         </is>
       </c>
       <c r="C39" s="1" t="inlineStr">
         <is>
-          <t>Service(วัฒพงษ์)</t>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>Programmer(สัญญา)</t>
-        </is>
-      </c>
-      <c r="E39" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(ภูวเนตร)</t>
-        </is>
-      </c>
-      <c r="G39" s="2" t="inlineStr">
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E39" s="1" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="G39" s="1" t="inlineStr">
         <is>
           <t>ภูวเนตร</t>
         </is>
@@ -2818,15 +2922,17 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
-        <v>14</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
-        </is>
-      </c>
-      <c r="G40" s="2" t="inlineStr">
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="G40" s="1" t="inlineStr">
         <is>
           <t>ราเชนทร์</t>
         </is>
@@ -2835,37 +2941,37 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J40" t="n">
         <v>9</v>
       </c>
       <c r="K40" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
-        </is>
-      </c>
-      <c r="C41" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(วินัย)</t>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C41" s="1" t="inlineStr">
+        <is>
+          <t>วินัย</t>
         </is>
       </c>
       <c r="D41" s="1" t="inlineStr">
         <is>
-          <t>Service(สุเมธร์)</t>
-        </is>
-      </c>
-      <c r="E41" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(ราเชนทร์)</t>
-        </is>
-      </c>
-      <c r="G41" s="2" t="inlineStr">
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="E41" s="1" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="G41" s="1" t="inlineStr">
         <is>
           <t>พลกฤต</t>
         </is>
@@ -2886,25 +2992,25 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
-        </is>
-      </c>
-      <c r="C42" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(วินัย)</t>
-        </is>
-      </c>
-      <c r="D42" s="1" t="inlineStr">
-        <is>
-          <t>Service(สุเมธร์)</t>
-        </is>
-      </c>
-      <c r="E42" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(ราเชนทร์)</t>
-        </is>
-      </c>
-      <c r="G42" s="2" t="inlineStr">
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C42" s="1" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E42" s="1" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="G42" s="1" t="inlineStr">
         <is>
           <t>ชานนท์</t>
         </is>
@@ -2913,25 +3019,27 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J42" t="n">
         <v>9</v>
       </c>
       <c r="K42" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
-        <v>15</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
-        </is>
-      </c>
-      <c r="G43" s="2" t="inlineStr">
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="G43" s="1" t="inlineStr">
         <is>
           <t>ปรมะ</t>
         </is>
@@ -2940,37 +3048,37 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J43" t="n">
         <v>9</v>
       </c>
       <c r="K43" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
-        </is>
-      </c>
-      <c r="C44" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(ชานนท์)</t>
-        </is>
-      </c>
-      <c r="D44" s="1" t="inlineStr">
-        <is>
-          <t>Service(จีรวัฒน์)</t>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C44" s="1" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>Programmer(พลกฤต)</t>
-        </is>
-      </c>
-      <c r="G44" s="2" t="inlineStr">
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="G44" s="1" t="inlineStr">
         <is>
           <t>สัญญา</t>
         </is>
@@ -2991,25 +3099,25 @@
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
-        </is>
-      </c>
-      <c r="C45" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(ชานนท์)</t>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C45" s="1" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
         </is>
       </c>
       <c r="D45" s="1" t="inlineStr">
         <is>
-          <t>Service(จีรวัฒน์)</t>
+          <t>ราเชนทร์</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>Programmer(พลกฤต)</t>
-        </is>
-      </c>
-      <c r="G45" s="2" t="inlineStr">
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="G45" s="1" t="inlineStr">
         <is>
           <t>วินัย</t>
         </is>
@@ -3028,30 +3136,32 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
-        <v>16</v>
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>16*</t>
+        </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
-        </is>
-      </c>
-      <c r="C46" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(สัญญา)</t>
-        </is>
-      </c>
-      <c r="D46" s="1" t="inlineStr">
-        <is>
-          <t>Service(ราเชน)</t>
-        </is>
-      </c>
-      <c r="E46" s="1" t="inlineStr">
-        <is>
-          <t>Service(วัฒพงษ์)</t>
-        </is>
-      </c>
-      <c r="G46" s="2" t="inlineStr">
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="C46" s="1" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="G46" s="1" t="inlineStr">
         <is>
           <t>รณยุทธ</t>
         </is>
@@ -3072,25 +3182,25 @@
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
-        </is>
-      </c>
-      <c r="C47" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(รณยุทธ)</t>
-        </is>
-      </c>
-      <c r="D47" s="1" t="inlineStr">
-        <is>
-          <t>Service(นที)</t>
-        </is>
-      </c>
-      <c r="E47" s="1" t="inlineStr">
-        <is>
-          <t>Service(ราเชน)</t>
-        </is>
-      </c>
-      <c r="G47" s="1" t="inlineStr">
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C47" s="1" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
         <is>
           <t>วัฒพงษ์</t>
         </is>
@@ -3099,37 +3209,37 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J47" t="n">
         <v>9</v>
       </c>
       <c r="K47" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
+          <t>24:00-8:00</t>
         </is>
       </c>
       <c r="C48" s="1" t="inlineStr">
         <is>
-          <t>Service(นฤชิต)</t>
-        </is>
-      </c>
-      <c r="D48" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(ปรมะ)</t>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="D48" s="1" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>Programmer(ภูวเนตร)</t>
-        </is>
-      </c>
-      <c r="G48" s="1" t="inlineStr">
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
         <is>
           <t>ราเชน</t>
         </is>
@@ -3138,40 +3248,42 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J48" t="n">
         <v>9</v>
       </c>
       <c r="K48" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
-        <v>17</v>
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>17*</t>
+        </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
       <c r="C49" s="1" t="inlineStr">
         <is>
-          <t>Service(นฤชิต)</t>
-        </is>
-      </c>
-      <c r="D49" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(วินัย)</t>
-        </is>
-      </c>
-      <c r="E49" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(สัญญา)</t>
-        </is>
-      </c>
-      <c r="G49" s="1" t="inlineStr">
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="D49" s="1" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="E49" s="1" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
         <is>
           <t>นฤชิต</t>
         </is>
@@ -3192,25 +3304,25 @@
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="C50" s="1" t="inlineStr">
         <is>
-          <t>Service(สุเมธร์)</t>
+          <t>ภูวเนตร</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>Programmer(ราเชนทร์)</t>
-        </is>
-      </c>
-      <c r="E50" s="1" t="inlineStr">
-        <is>
-          <t>Service(วัฒพงษ์)</t>
-        </is>
-      </c>
-      <c r="G50" s="1" t="inlineStr">
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
         <is>
           <t>จีรวัฒน์</t>
         </is>
@@ -3231,25 +3343,25 @@
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
-        </is>
-      </c>
-      <c r="C51" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(ภูวเนตร)</t>
-        </is>
-      </c>
-      <c r="D51" s="1" t="inlineStr">
-        <is>
-          <t>Service(สุเมธร์)</t>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C51" s="1" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t>Programmer(ราเชนทร์)</t>
-        </is>
-      </c>
-      <c r="G51" s="1" t="inlineStr">
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
         <is>
           <t>สุเมธร์</t>
         </is>
@@ -3258,25 +3370,27 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J51" t="n">
         <v>9</v>
       </c>
       <c r="K51" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
-        <v>18</v>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
-        </is>
-      </c>
-      <c r="G52" s="1" t="inlineStr">
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
         <is>
           <t>นที</t>
         </is>
@@ -3297,806 +3411,3761 @@
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="C53" s="1" t="inlineStr">
         <is>
-          <t>Service(จีรวัฒน์)</t>
-        </is>
-      </c>
-      <c r="D53" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(รณยุทธ)</t>
-        </is>
-      </c>
-      <c r="E53" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(วินัย)</t>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D53" s="1" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="E53" s="1" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
-        </is>
-      </c>
-      <c r="C54" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(ปรมะ)</t>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C54" s="1" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
         </is>
       </c>
       <c r="D54" s="1" t="inlineStr">
         <is>
-          <t>Service(นที)</t>
-        </is>
-      </c>
-      <c r="E54" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(ชานนท์)</t>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="E54" s="1" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
-        <v>19</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="C56" s="1" t="inlineStr">
         <is>
-          <t>Service(ราเชน)</t>
+          <t>ปรมะ</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>Programmer(พลกฤต)</t>
-        </is>
-      </c>
-      <c r="E56" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(ชานนท์)</t>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E56" s="1" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
-        </is>
-      </c>
-      <c r="C57" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(สัญญา)</t>
-        </is>
-      </c>
-      <c r="D57" s="1" t="inlineStr">
-        <is>
-          <t>Service(ราเชน)</t>
-        </is>
-      </c>
-      <c r="E57" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(ภูวเนตร)</t>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C57" s="1" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E57" s="1" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
-        <v>20</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
-        </is>
-      </c>
-      <c r="C59" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(ภูวเนตร)</t>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C59" s="1" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
         </is>
       </c>
       <c r="D59" s="1" t="inlineStr">
         <is>
-          <t>Service(นที)</t>
-        </is>
-      </c>
-      <c r="E59" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(รณยุทธ)</t>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="E59" s="1" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
+          <t>24:00-8:00</t>
         </is>
       </c>
       <c r="C60" s="1" t="inlineStr">
         <is>
-          <t>Service(จีรวัฒน์)</t>
-        </is>
-      </c>
-      <c r="D60" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(พลกฤต)</t>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="D60" s="1" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
         </is>
       </c>
       <c r="E60" s="1" t="inlineStr">
         <is>
-          <t>Service(นฤชิต)</t>
+          <t>ภูวเนตร</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
-        <v>21</v>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="C62" s="1" t="inlineStr">
         <is>
-          <t>Service(วัฒพงษ์)</t>
-        </is>
-      </c>
-      <c r="D62" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(ปรมะ)</t>
-        </is>
-      </c>
-      <c r="E62" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(วินัย)</t>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="D62" s="1" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="E62" s="1" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
-        </is>
-      </c>
-      <c r="C63" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(ราเชนทร์)</t>
-        </is>
-      </c>
-      <c r="D63" s="1" t="inlineStr">
-        <is>
-          <t>Service(นที)</t>
-        </is>
-      </c>
-      <c r="E63" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(วินัย)</t>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C63" s="1" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E63" s="1" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="n">
-        <v>22</v>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
-        </is>
-      </c>
-      <c r="C65" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(ภูวเนตร)</t>
-        </is>
-      </c>
-      <c r="D65" s="1" t="inlineStr">
-        <is>
-          <t>Service(ราเชน)</t>
-        </is>
-      </c>
-      <c r="E65" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(พลกฤต)</t>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C65" s="1" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E65" s="1" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="B66" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
-        </is>
-      </c>
-      <c r="C66" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(สัญญา)</t>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C66" s="1" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
         </is>
       </c>
       <c r="D66" s="1" t="inlineStr">
         <is>
-          <t>Service(นฤชิต)</t>
+          <t>วินัย</t>
         </is>
       </c>
       <c r="E66" s="2" t="inlineStr">
         <is>
-          <t>Programmer(รณยุทธ)</t>
+          <t>สุเมธร์</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="n">
-        <v>23</v>
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>23*</t>
+        </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
       <c r="C67" s="1" t="inlineStr">
         <is>
-          <t>Service(จีรวัฒน์)</t>
-        </is>
-      </c>
-      <c r="D67" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(พลกฤต)</t>
-        </is>
-      </c>
-      <c r="E67" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(ราเชนทร์)</t>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="D67" s="1" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="E67" s="1" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
-        </is>
-      </c>
-      <c r="C68" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(ปรมะ)</t>
-        </is>
-      </c>
-      <c r="D68" s="1" t="inlineStr">
-        <is>
-          <t>Service(จีรวัฒน์)</t>
-        </is>
-      </c>
-      <c r="E68" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(ภูวเนตร)</t>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C68" s="1" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E68" s="1" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
+          <t>24:00-8:00</t>
         </is>
       </c>
       <c r="C69" s="1" t="inlineStr">
         <is>
-          <t>Service(นที)</t>
-        </is>
-      </c>
-      <c r="D69" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(รณยุทธ)</t>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="D69" s="1" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
         </is>
       </c>
       <c r="E69" s="1" t="inlineStr">
         <is>
-          <t>Service(ราเชน)</t>
+          <t>พลกฤต</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="n">
-        <v>24</v>
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>24*</t>
+        </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
-        </is>
-      </c>
-      <c r="C70" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(ราเชนทร์)</t>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="C70" s="1" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
         </is>
       </c>
       <c r="D70" s="1" t="inlineStr">
         <is>
-          <t>Service(สุเมธร์)</t>
-        </is>
-      </c>
-      <c r="E70" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(วินัย)</t>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="E70" s="1" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="C71" s="1" t="inlineStr">
         <is>
-          <t>Service(วัฒพงษ์)</t>
-        </is>
-      </c>
-      <c r="D71" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(วินัย)</t>
-        </is>
-      </c>
-      <c r="E71" s="1" t="inlineStr">
-        <is>
-          <t>Service(สุเมธร์)</t>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="D71" s="1" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
+          <t>24:00-8:00</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>Programmer(ชานนท์)</t>
-        </is>
-      </c>
-      <c r="D72" s="1" t="inlineStr">
-        <is>
-          <t>Service(นฤชิต)</t>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
         </is>
       </c>
       <c r="E72" s="1" t="inlineStr">
         <is>
-          <t>Service(นที)</t>
+          <t>ปรมะ</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="n">
-        <v>25</v>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="B74" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
-        </is>
-      </c>
-      <c r="C74" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(สัญญา)</t>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C74" s="1" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
         </is>
       </c>
       <c r="D74" s="1" t="inlineStr">
         <is>
-          <t>Service(นฤชิต)</t>
-        </is>
-      </c>
-      <c r="E74" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(ปรมะ)</t>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="E74" s="1" t="inlineStr">
+        <is>
+          <t>วินัย</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="B75" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
-        </is>
-      </c>
-      <c r="C75" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(รณยุทธ)</t>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C75" s="1" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
         </is>
       </c>
       <c r="D75" s="1" t="inlineStr">
         <is>
-          <t>Service(วัฒพงษ์)</t>
+          <t>ชานนท์</t>
         </is>
       </c>
       <c r="E75" s="2" t="inlineStr">
         <is>
-          <t>Programmer(ชานนท์)</t>
+          <t>นฤชิต</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="n">
-        <v>26</v>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="C77" s="1" t="inlineStr">
         <is>
-          <t>Service(นที)</t>
-        </is>
-      </c>
-      <c r="D77" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(ภูวเนตร)</t>
-        </is>
-      </c>
-      <c r="E77" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(สัญญา)</t>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="D77" s="1" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="E77" s="1" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
+          <t>24:00-8:00</t>
         </is>
       </c>
       <c r="C78" s="1" t="inlineStr">
         <is>
-          <t>Service(ราเชน)</t>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="D78" s="2" t="inlineStr">
         <is>
-          <t>Programmer(ภูวเนตร)</t>
-        </is>
-      </c>
-      <c r="E78" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(ราเชนทร์)</t>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E78" s="1" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n">
-        <v>27</v>
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
-        </is>
-      </c>
-      <c r="C80" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(พลกฤต)</t>
-        </is>
-      </c>
-      <c r="D80" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(วินัย)</t>
-        </is>
-      </c>
-      <c r="E80" s="1" t="inlineStr">
-        <is>
-          <t>Service(ราเชน)</t>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C80" s="1" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="D80" s="1" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="B81" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
-        </is>
-      </c>
-      <c r="C81" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(พลกฤต)</t>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C81" s="1" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
         </is>
       </c>
       <c r="D81" s="2" t="inlineStr">
         <is>
-          <t>Programmer(ชานนท์)</t>
+          <t>นฤชิต</t>
         </is>
       </c>
       <c r="E81" s="1" t="inlineStr">
         <is>
-          <t>Service(สุเมธร์)</t>
+          <t>ชานนท์</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="n">
-        <v>28</v>
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
-        </is>
-      </c>
-      <c r="C83" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(ชานนท์)</t>
-        </is>
-      </c>
-      <c r="D83" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(ปรมะ)</t>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C83" s="1" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D83" s="1" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
         </is>
       </c>
       <c r="E83" s="2" t="inlineStr">
         <is>
-          <t>Programmer(รณยุทธ)</t>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
-        </is>
-      </c>
-      <c r="C84" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(ปรมะ)</t>
-        </is>
-      </c>
-      <c r="D84" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(วินัย)</t>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C84" s="1" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="D84" s="1" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="E84" s="1" t="inlineStr">
         <is>
-          <t>Service(วัฒพงษ์)</t>
+          <t>สัญญา</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="n">
-        <v>29</v>
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
-        </is>
-      </c>
-      <c r="C86" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(ราเชนทร์)</t>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C86" s="1" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
         </is>
       </c>
       <c r="D86" s="2" t="inlineStr">
         <is>
-          <t>Programmer(สัญญา)</t>
-        </is>
-      </c>
-      <c r="E86" s="1" t="inlineStr">
-        <is>
-          <t>Service(จีรวัฒน์)</t>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
-        </is>
-      </c>
-      <c r="C87" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(ภูวเนตร)</t>
-        </is>
-      </c>
-      <c r="D87" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(ภูวเนตร)</t>
-        </is>
-      </c>
-      <c r="E87" s="1" t="inlineStr">
-        <is>
-          <t>Service(นที)</t>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C87" s="1" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="D87" s="1" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="n">
-        <v>30</v>
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>30*</t>
+        </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
+          <t>08:00-16:00</t>
         </is>
       </c>
       <c r="C88" s="1" t="inlineStr">
         <is>
-          <t>Service(วัฒพงษ์)</t>
-        </is>
-      </c>
-      <c r="D88" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(รณยุทธ)</t>
-        </is>
-      </c>
-      <c r="E88" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(ปรมะ)</t>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="D88" s="1" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="E88" s="1" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="C89" s="1" t="inlineStr">
         <is>
-          <t>Service(ราเชน)</t>
-        </is>
-      </c>
-      <c r="D89" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(สัญญา)</t>
-        </is>
-      </c>
-      <c r="E89" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(ชานนท์)</t>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="D89" s="1" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="E89" s="1" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="B90" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
-        </is>
-      </c>
-      <c r="C90" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(สัญญา)</t>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C90" s="1" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
         </is>
       </c>
       <c r="D90" s="1" t="inlineStr">
         <is>
-          <t>Service(ราเชน)</t>
-        </is>
-      </c>
-      <c r="E90" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(รณยุทธ)</t>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="E90" s="1" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="n">
-        <v>31</v>
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>31*</t>
+        </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>เช้า (08.00 - 16.00)</t>
-        </is>
-      </c>
-      <c r="C91" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(ปรมะ)</t>
-        </is>
-      </c>
-      <c r="D91" s="1" t="inlineStr">
-        <is>
-          <t>Service(สุเมธร์)</t>
-        </is>
-      </c>
-      <c r="E91" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(รณยุทธ)</t>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="C91" s="1" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D91" s="2" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E91" s="1" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="B92" t="inlineStr">
         <is>
-          <t>บ่าย (16.00-24.00)</t>
-        </is>
-      </c>
-      <c r="C92" s="2" t="inlineStr">
-        <is>
-          <t>Programmer(พลกฤต)</t>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C92" s="1" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
         </is>
       </c>
       <c r="D92" s="1" t="inlineStr">
         <is>
-          <t>Service(นฤชิต)</t>
+          <t>ปรมะ</t>
         </is>
       </c>
       <c r="E92" s="2" t="inlineStr">
         <is>
-          <t>Programmer(รณยุทธ)</t>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="B93" t="inlineStr">
         <is>
-          <t>ดึก (24.00-8.00)</t>
+          <t>24:00-8:00</t>
         </is>
       </c>
       <c r="C93" s="1" t="inlineStr">
         <is>
-          <t>Service(วัฒพงษ์)</t>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="D93" s="2" t="inlineStr">
         <is>
-          <t>Programmer(วินัย)</t>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
       <c r="E93" s="2" t="inlineStr">
         <is>
-          <t>Programmer(ชานนท์)</t>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C98" s="3" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="D98" s="4" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E98" s="5" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>วันทำการ</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>วันหยุด</t>
+        </is>
+      </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>รวมโรงพยาบาลหลัก</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C99" s="6" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="D99" s="4" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E99" s="7" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>รวม</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>รวม</t>
+        </is>
+      </c>
+      <c r="T99" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="W99" t="inlineStr">
+        <is>
+          <t>รวม</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>2*</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="C100" s="6" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="D100" s="8" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E100" s="9" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="G100" s="1" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>3</v>
+      </c>
+      <c r="J100" t="n">
+        <v>3</v>
+      </c>
+      <c r="M100" s="1" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>1</v>
+      </c>
+      <c r="O100" t="n">
+        <v>1</v>
+      </c>
+      <c r="P100" t="n">
+        <v>2</v>
+      </c>
+      <c r="S100" s="1" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="T100" t="n">
+        <v>1</v>
+      </c>
+      <c r="U100" t="n">
+        <v>4</v>
+      </c>
+      <c r="V100" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C101" s="10" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="D101" s="7" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E101" s="11" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="G101" s="1" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>3</v>
+      </c>
+      <c r="J101" t="n">
+        <v>3</v>
+      </c>
+      <c r="M101" s="1" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>2</v>
+      </c>
+      <c r="O101" t="n">
+        <v>1</v>
+      </c>
+      <c r="P101" t="n">
+        <v>1</v>
+      </c>
+      <c r="S101" s="1" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="T101" t="n">
+        <v>2</v>
+      </c>
+      <c r="U101" t="n">
+        <v>4</v>
+      </c>
+      <c r="V101" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C102" s="12" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="D102" s="9" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E102" s="13" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="G102" s="1" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>3</v>
+      </c>
+      <c r="J102" t="n">
+        <v>3</v>
+      </c>
+      <c r="M102" s="1" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
+        <v>1</v>
+      </c>
+      <c r="O102" t="n">
+        <v>2</v>
+      </c>
+      <c r="P102" t="n">
+        <v>1</v>
+      </c>
+      <c r="S102" s="1" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="T102" t="n">
+        <v>1</v>
+      </c>
+      <c r="U102" t="n">
+        <v>5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>3*</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="C103" s="5" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="D103" s="7" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E103" s="14" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="G103" s="1" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>3</v>
+      </c>
+      <c r="J103" t="n">
+        <v>3</v>
+      </c>
+      <c r="M103" s="1" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
+        <v>2</v>
+      </c>
+      <c r="O103" t="n">
+        <v>2</v>
+      </c>
+      <c r="P103" t="n">
+        <v>2</v>
+      </c>
+      <c r="S103" s="1" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="T103" t="n">
+        <v>2</v>
+      </c>
+      <c r="U103" t="n">
+        <v>5</v>
+      </c>
+      <c r="V103" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C104" s="5" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="D104" s="14" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="E104" s="15" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="G104" s="1" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>3</v>
+      </c>
+      <c r="J104" t="n">
+        <v>3</v>
+      </c>
+      <c r="M104" s="1" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
+        <v>2</v>
+      </c>
+      <c r="O104" t="n">
+        <v>1</v>
+      </c>
+      <c r="P104" t="n">
+        <v>2</v>
+      </c>
+      <c r="S104" s="1" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="T104" t="n">
+        <v>2</v>
+      </c>
+      <c r="U104" t="n">
+        <v>4</v>
+      </c>
+      <c r="V104" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C105" s="8" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="D105" s="10" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E105" s="12" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="G105" s="1" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>3</v>
+      </c>
+      <c r="J105" t="n">
+        <v>3</v>
+      </c>
+      <c r="M105" s="1" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
+        <v>2</v>
+      </c>
+      <c r="O105" t="n">
+        <v>2</v>
+      </c>
+      <c r="P105" t="n">
+        <v>1</v>
+      </c>
+      <c r="S105" s="1" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="T105" t="n">
+        <v>2</v>
+      </c>
+      <c r="U105" t="n">
+        <v>5</v>
+      </c>
+      <c r="V105" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="G106" s="1" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>3</v>
+      </c>
+      <c r="J106" t="n">
+        <v>3</v>
+      </c>
+      <c r="M106" s="1" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
+        <v>2</v>
+      </c>
+      <c r="O106" t="n">
+        <v>2</v>
+      </c>
+      <c r="P106" t="n">
+        <v>1</v>
+      </c>
+      <c r="S106" s="1" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="T106" t="n">
+        <v>2</v>
+      </c>
+      <c r="U106" t="n">
+        <v>5</v>
+      </c>
+      <c r="V106" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C107" s="6" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="D107" s="4" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E107" s="7" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="G107" s="1" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>3</v>
+      </c>
+      <c r="J107" t="n">
+        <v>3</v>
+      </c>
+      <c r="M107" s="1" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
+        <v>1</v>
+      </c>
+      <c r="O107" t="n">
+        <v>1</v>
+      </c>
+      <c r="P107" t="n">
+        <v>2</v>
+      </c>
+      <c r="S107" s="1" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="T107" t="n">
+        <v>1</v>
+      </c>
+      <c r="U107" t="n">
+        <v>4</v>
+      </c>
+      <c r="V107" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C108" s="6" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="D108" s="4" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E108" s="9" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="G108" s="2" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>3</v>
+      </c>
+      <c r="J108" t="n">
+        <v>3</v>
+      </c>
+      <c r="M108" s="2" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
+        <v>1</v>
+      </c>
+      <c r="O108" t="n">
+        <v>1</v>
+      </c>
+      <c r="P108" t="n">
+        <v>1</v>
+      </c>
+      <c r="S108" s="2" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="T108" t="n">
+        <v>1</v>
+      </c>
+      <c r="U108" t="n">
+        <v>4</v>
+      </c>
+      <c r="V108" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="G109" s="2" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>3</v>
+      </c>
+      <c r="J109" t="n">
+        <v>3</v>
+      </c>
+      <c r="M109" s="2" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
+        <v>1</v>
+      </c>
+      <c r="O109" t="n">
+        <v>1</v>
+      </c>
+      <c r="P109" t="n">
+        <v>1</v>
+      </c>
+      <c r="S109" s="2" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="T109" t="n">
+        <v>1</v>
+      </c>
+      <c r="U109" t="n">
+        <v>4</v>
+      </c>
+      <c r="V109" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C110" s="3" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="D110" s="10" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E110" s="9" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="G110" s="2" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>3</v>
+      </c>
+      <c r="J110" t="n">
+        <v>3</v>
+      </c>
+      <c r="M110" s="2" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
+        <v>1</v>
+      </c>
+      <c r="O110" t="n">
+        <v>2</v>
+      </c>
+      <c r="P110" t="n">
+        <v>1</v>
+      </c>
+      <c r="S110" s="2" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="T110" t="n">
+        <v>1</v>
+      </c>
+      <c r="U110" t="n">
+        <v>5</v>
+      </c>
+      <c r="V110" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C111" s="13" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="D111" s="10" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E111" s="8" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="G111" s="2" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>3</v>
+      </c>
+      <c r="J111" t="n">
+        <v>3</v>
+      </c>
+      <c r="M111" s="2" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
+        <v>1</v>
+      </c>
+      <c r="O111" t="n">
+        <v>2</v>
+      </c>
+      <c r="P111" t="n">
+        <v>1</v>
+      </c>
+      <c r="S111" s="2" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="T111" t="n">
+        <v>1</v>
+      </c>
+      <c r="U111" t="n">
+        <v>5</v>
+      </c>
+      <c r="V111" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="G112" s="2" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>3</v>
+      </c>
+      <c r="J112" t="n">
+        <v>3</v>
+      </c>
+      <c r="M112" s="2" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
+        <v>1</v>
+      </c>
+      <c r="O112" t="n">
+        <v>1</v>
+      </c>
+      <c r="P112" t="n">
+        <v>2</v>
+      </c>
+      <c r="S112" s="2" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="T112" t="n">
+        <v>1</v>
+      </c>
+      <c r="U112" t="n">
+        <v>4</v>
+      </c>
+      <c r="V112" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C113" s="9" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="D113" s="6" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E113" s="4" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="G113" s="2" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>3</v>
+      </c>
+      <c r="J113" t="n">
+        <v>3</v>
+      </c>
+      <c r="M113" s="2" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
+        <v>2</v>
+      </c>
+      <c r="O113" t="n">
+        <v>1</v>
+      </c>
+      <c r="P113" t="n">
+        <v>2</v>
+      </c>
+      <c r="S113" s="2" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="T113" t="n">
+        <v>2</v>
+      </c>
+      <c r="U113" t="n">
+        <v>4</v>
+      </c>
+      <c r="V113" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C114" s="7" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="D114" s="4" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E114" s="6" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C116" s="5" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="D116" s="8" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E116" s="10" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C117" s="9" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="D117" s="7" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E117" s="5" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>วันทำการ โรงพยาบาลเด็ก</t>
+        </is>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>วันหยุด โรงพยาบาลเด็ก</t>
+        </is>
+      </c>
+      <c r="U117" t="inlineStr">
+        <is>
+          <t>รวมโรงพยาบาลเด็ก</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>รวม</t>
+        </is>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>รวม</t>
+        </is>
+      </c>
+      <c r="T118" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="V118" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="W118" t="inlineStr">
+        <is>
+          <t>รวม</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C119" s="4" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="D119" s="6" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E119" s="12" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="G119" s="1" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="M119" s="1" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="S119" s="1" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C120" s="9" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="D120" s="6" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E120" s="10" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="G120" s="1" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="M120" s="1" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="S120" s="1" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>9*</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="C121" s="11" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D121" s="12" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="E121" s="8" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="G121" s="1" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="M121" s="1" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="S121" s="1" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C122" s="8" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="D122" s="10" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E122" s="13" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="G122" s="1" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="M122" s="1" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="S122" s="1" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C123" s="3" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="D123" s="4" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E123" s="7" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="G123" s="1" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="M123" s="1" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="S123" s="1" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="inlineStr">
+        <is>
+          <t>10*</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="C124" s="9" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="D124" s="10" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E124" s="7" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="G124" s="1" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="M124" s="1" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="S124" s="1" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C125" s="3" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="D125" s="6" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E125" s="5" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="G125" s="1" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="M125" s="1" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="S125" s="1" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C126" s="5" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="D126" s="15" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="E126" s="6" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="G126" s="1" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="M126" s="1" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="S126" s="1" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="G127" s="2" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="M127" s="2" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="S127" s="2" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C128" s="8" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="D128" s="7" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E128" s="15" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="G128" s="2" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="M128" s="2" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="S128" s="2" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C129" s="14" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="D129" s="11" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="E129" s="16" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="G129" s="2" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="M129" s="2" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="S129" s="2" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="G130" s="2" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="M130" s="2" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="S130" s="2" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C131" s="12" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="D131" s="10" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E131" s="6" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="G131" s="2" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="M131" s="2" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="S131" s="2" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C132" s="16" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="D132" s="7" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E132" s="15" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="G132" s="2" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="M132" s="2" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="S132" s="2" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C134" s="7" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="D134" s="10" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E134" s="13" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>สรุป</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C135" s="5" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="D135" s="8" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E135" s="12" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>วันหยุดชดเชย</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>วันหยุด</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>วันทำการ</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>รวม</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="G136" s="1" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C137" s="12" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="D137" s="15" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="E137" s="5" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="G137" s="1" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C138" s="14" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="D138" s="8" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E138" s="13" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="G138" s="1" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="G139" s="1" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C140" s="5" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="D140" s="8" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E140" s="9" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="G140" s="1" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C141" s="16" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="D141" s="15" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="E141" s="7" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="G141" s="1" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="inlineStr">
+        <is>
+          <t>16*</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="C142" s="15" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="D142" s="9" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E142" s="6" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="G142" s="1" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C143" s="3" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="D143" s="6" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E143" s="10" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="G143" s="1" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C144" s="16" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="D144" s="14" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="E144" s="10" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="G144" s="2" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="inlineStr">
+        <is>
+          <t>17*</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="C145" s="14" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="D145" s="3" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="E145" s="12" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="G145" s="2" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C146" s="13" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="D146" s="4" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E146" s="7" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="G146" s="2" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C147" s="16" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="D147" s="7" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E147" s="4" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="G147" s="2" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="G148" s="2" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C149" s="11" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D149" s="3" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="E149" s="15" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="G149" s="2" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C150" s="15" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="D150" s="12" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="E150" s="14" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C152" s="16" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="D152" s="9" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E152" s="11" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C153" s="3" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="D153" s="10" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E153" s="14" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C155" s="14" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="D155" s="12" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="E155" s="11" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C156" s="3" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="D156" s="15" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="E156" s="13" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C158" s="13" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="D158" s="15" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="E158" s="14" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C159" s="11" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D159" s="8" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E159" s="3" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C161" s="15" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="D161" s="7" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E161" s="16" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C162" s="13" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="D162" s="12" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="E162" s="4" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="inlineStr">
+        <is>
+          <t>23*</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="C163" s="16" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="D163" s="12" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="E163" s="15" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C164" s="11" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D164" s="9" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E164" s="3" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C165" s="13" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="D165" s="11" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="E165" s="14" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="inlineStr">
+        <is>
+          <t>24*</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="C166" s="15" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="D166" s="3" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="E166" s="13" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C167" s="14" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="D167" s="12" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="E167" s="4" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C168" s="9" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="D168" s="4" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E168" s="16" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C170" s="14" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="D170" s="13" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="E170" s="12" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C171" s="16" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="D171" s="11" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="E171" s="10" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C173" s="14" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="D173" s="13" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="E173" s="3" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C174" s="3" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="D174" s="9" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E174" s="16" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C176" s="5" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="D176" s="16" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="E176" s="8" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C177" s="14" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="D177" s="10" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E177" s="11" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C179" s="11" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D179" s="16" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="E179" s="8" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C180" s="13" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="D180" s="5" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="E180" s="3" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C182" s="11" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D182" s="9" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E182" s="6" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C183" s="5" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="D183" s="12" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="E183" s="4" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="inlineStr">
+        <is>
+          <t>30*</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="C184" s="13" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="D184" s="16" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="E184" s="3" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C185" s="12" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="D185" s="15" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="E185" s="16" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C186" s="13" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="D186" s="11" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="E186" s="15" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="inlineStr">
+        <is>
+          <t>31*</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="C187" s="11" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D187" s="4" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E187" s="5" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="C188" s="11" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D188" s="16" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="E188" s="8" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="C189" s="5" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="D189" s="6" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E189" s="8" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
     </row>

--- a/sample12.xlsx
+++ b/sample12.xlsx
@@ -26,7 +26,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill/>
     </fill>
@@ -41,8 +41,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="003BA59E"/>
-        <bgColor rgb="003BA59E"/>
+        <fgColor rgb="00A2BE18"/>
+        <bgColor rgb="00A2BE18"/>
       </patternFill>
     </fill>
     <fill>
@@ -53,80 +53,86 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFAD77"/>
-        <bgColor rgb="00FFAD77"/>
+        <fgColor rgb="007193A3"/>
+        <bgColor rgb="007193A3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00678384"/>
-        <bgColor rgb="00678384"/>
+        <fgColor rgb="003550B8"/>
+        <bgColor rgb="003550B8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="005329FA"/>
-        <bgColor rgb="005329FA"/>
+        <fgColor rgb="00FF6B6B"/>
+        <bgColor rgb="00FF6B6B"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BAD843"/>
-        <bgColor rgb="00BAD843"/>
+        <fgColor rgb="00F1E4B3"/>
+        <bgColor rgb="00F1E4B3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="001EE601"/>
-        <bgColor rgb="001EE601"/>
+        <fgColor rgb="00000905"/>
+        <bgColor rgb="00000905"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00897FD1"/>
-        <bgColor rgb="00897FD1"/>
+        <fgColor rgb="00285961"/>
+        <bgColor rgb="00285961"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00607CB9"/>
-        <bgColor rgb="00607CB9"/>
+        <fgColor rgb="00313DF0"/>
+        <bgColor rgb="00313DF0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DAB944"/>
-        <bgColor rgb="00DAB944"/>
+        <fgColor rgb="001235E5"/>
+        <bgColor rgb="001235E5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B8FF8D"/>
-        <bgColor rgb="00B8FF8D"/>
+        <fgColor rgb="0033AFC0"/>
+        <bgColor rgb="0033AFC0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0041BBD0"/>
-        <bgColor rgb="0041BBD0"/>
+        <fgColor rgb="001021E1"/>
+        <bgColor rgb="001021E1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00A7387B"/>
-        <bgColor rgb="00A7387B"/>
+        <fgColor rgb="00A6F103"/>
+        <bgColor rgb="00A6F103"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BFC15B"/>
-        <bgColor rgb="00BFC15B"/>
+        <fgColor rgb="00FE90A0"/>
+        <bgColor rgb="00FE90A0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="009775E7"/>
-        <bgColor rgb="009775E7"/>
+        <fgColor rgb="009F1AEE"/>
+        <bgColor rgb="009F1AEE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="006F45EF"/>
+        <bgColor rgb="006F45EF"/>
       </patternFill>
     </fill>
   </fills>
@@ -142,14 +148,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -160,6 +166,7 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -568,17 +575,17 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>สัญญา</t>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>สุเมธร์</t>
+          <t>ราเชน</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>รณยุทธ</t>
+          <t>พลกฤต</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -648,19 +655,19 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
           <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
         </is>
       </c>
       <c r="G3" s="1" t="inlineStr">
@@ -686,37 +693,37 @@
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" s="1" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
         <v>2</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
         <v>4</v>
       </c>
-      <c r="S3" s="1" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="T3" t="n">
-        <v>1</v>
-      </c>
-      <c r="U3" t="n">
-        <v>4</v>
-      </c>
-      <c r="V3" t="n">
-        <v>5</v>
-      </c>
       <c r="W3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>2*</t>
         </is>
@@ -726,9 +733,9 @@
           <t>08:00-16:00</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>วินัย</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -736,9 +743,9 @@
           <t>วัฒพงษ์</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>นที</t>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
         </is>
       </c>
       <c r="G4" s="1" t="inlineStr">
@@ -764,7 +771,7 @@
         </is>
       </c>
       <c r="N4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O4" t="n">
         <v>1</v>
@@ -773,7 +780,7 @@
         <v>1</v>
       </c>
       <c r="Q4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S4" s="1" t="inlineStr">
         <is>
@@ -781,7 +788,7 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U4" t="n">
         <v>4</v>
@@ -790,7 +797,7 @@
         <v>4</v>
       </c>
       <c r="W4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -799,19 +806,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>ราเชน</t>
+          <t>นที</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>ชานนท์</t>
+          <t>ปรมะ</t>
         </is>
       </c>
       <c r="G5" s="1" t="inlineStr">
@@ -843,10 +850,10 @@
         <v>2</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S5" s="1" t="inlineStr">
         <is>
@@ -860,10 +867,10 @@
         <v>5</v>
       </c>
       <c r="V5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -874,7 +881,7 @@
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>วินัย</t>
+          <t>ราเชนทร์</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -884,7 +891,7 @@
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>ภูวเนตร</t>
+          <t>ปรมะ</t>
         </is>
       </c>
       <c r="G6" s="1" t="inlineStr">
@@ -910,16 +917,16 @@
         </is>
       </c>
       <c r="N6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S6" s="1" t="inlineStr">
         <is>
@@ -927,20 +934,20 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W6" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>3*</t>
         </is>
@@ -952,7 +959,7 @@
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>รณยุทธ</t>
+          <t>ภูวเนตร</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -960,9 +967,9 @@
           <t>ราเชน</t>
         </is>
       </c>
-      <c r="E7" s="1" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
         </is>
       </c>
       <c r="G7" s="1" t="inlineStr">
@@ -988,16 +995,16 @@
         </is>
       </c>
       <c r="N7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O7" t="n">
         <v>1</v>
       </c>
       <c r="P7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S7" s="1" t="inlineStr">
         <is>
@@ -1005,16 +1012,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U7" t="n">
         <v>4</v>
       </c>
       <c r="V7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -1028,14 +1035,14 @@
           <t>รณยุทธ</t>
         </is>
       </c>
-      <c r="D8" s="1" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
         </is>
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>ราเชนทร์</t>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="G8" s="1" t="inlineStr">
@@ -1061,16 +1068,16 @@
         </is>
       </c>
       <c r="N8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
         <v>1</v>
       </c>
       <c r="Q8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S8" s="1" t="inlineStr">
         <is>
@@ -1078,16 +1085,16 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V8" t="n">
         <v>4</v>
       </c>
       <c r="W8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1096,9 +1103,9 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -1108,7 +1115,7 @@
       </c>
       <c r="E9" s="1" t="inlineStr">
         <is>
-          <t>วินัย</t>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="G9" s="1" t="inlineStr">
@@ -1137,13 +1144,13 @@
         <v>2</v>
       </c>
       <c r="O9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
         <v>1</v>
       </c>
       <c r="Q9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S9" s="1" t="inlineStr">
         <is>
@@ -1154,13 +1161,13 @@
         <v>2</v>
       </c>
       <c r="U9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V9" t="n">
         <v>4</v>
       </c>
       <c r="W9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1232,19 +1239,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
         <is>
           <t>จีรวัฒน์</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
+      <c r="E11" s="1" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1270,7 +1277,7 @@
         </is>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O11" t="n">
         <v>1</v>
@@ -1279,7 +1286,7 @@
         <v>1</v>
       </c>
       <c r="Q11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
@@ -1287,7 +1294,7 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U11" t="n">
         <v>4</v>
@@ -1296,7 +1303,7 @@
         <v>4</v>
       </c>
       <c r="W11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1305,19 +1312,19 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
         <is>
           <t>จีรวัฒน์</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>นที</t>
+      <c r="E12" s="1" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1346,13 +1353,13 @@
         <v>1</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
@@ -1363,13 +1370,13 @@
         <v>1</v>
       </c>
       <c r="U12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W12" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -1406,16 +1413,16 @@
         </is>
       </c>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O13" t="n">
         <v>2</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
@@ -1423,16 +1430,16 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U13" t="n">
         <v>5</v>
       </c>
       <c r="V13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W13" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
@@ -1443,17 +1450,17 @@
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
-          <t>สัญญา</t>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>นฤชิต</t>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>นที</t>
+          <t>สุเมธร์</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1479,7 +1486,7 @@
         </is>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O14" t="n">
         <v>2</v>
@@ -1488,7 +1495,7 @@
         <v>1</v>
       </c>
       <c r="Q14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
@@ -1496,7 +1503,7 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U14" t="n">
         <v>5</v>
@@ -1505,7 +1512,7 @@
         <v>4</v>
       </c>
       <c r="W14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15">
@@ -1516,17 +1523,17 @@
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>ภูวเนตร</t>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>นฤชิต</t>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>วัฒพงษ์</t>
+          <t>สุเมธร์</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1618,13 +1625,13 @@
         <v>2</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P16" t="n">
         <v>2</v>
       </c>
       <c r="Q16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
@@ -1635,13 +1642,13 @@
         <v>2</v>
       </c>
       <c r="U16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V16" t="n">
         <v>5</v>
       </c>
       <c r="W16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17">
@@ -1650,19 +1657,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>นที</t>
+      <c r="C17" s="1" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E17" s="1" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
         </is>
       </c>
     </row>
@@ -1672,19 +1679,34 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
+      <c r="C18" s="1" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E18" s="1" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>วันทำการ โรงพยาบาลเด็ก</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>วันหยุด โรงพยาบาลเด็ก</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>รวมโรงพยาบาลเด็ก</t>
         </is>
       </c>
     </row>
@@ -1699,6 +1721,66 @@
           <t>08:00-16:00</t>
         </is>
       </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>รวม</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>รวม</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>รวม</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="B20" t="inlineStr">
@@ -1708,33 +1790,69 @@
       </c>
       <c r="C20" s="1" t="inlineStr">
         <is>
-          <t>รณยุทธ</t>
+          <t>พลกฤต</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>วัฒพงษ์</t>
+          <t>นที</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>วันทำการ โรงพยาบาลเด็ก</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>วันหยุด โรงพยาบาลเด็ก</t>
-        </is>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>รวมโรงพยาบาลเด็ก</t>
-        </is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="G20" s="1" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3</v>
+      </c>
+      <c r="M20" s="1" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" s="1" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>3</v>
+      </c>
+      <c r="W20" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -1743,80 +1861,71 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C21" s="2" t="inlineStr">
+      <c r="C21" s="1" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
         <is>
           <t>นที</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="E21" s="1" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>08:00-16:00</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>16:00-24:00</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>24:00-8:00</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>รวม</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>08:00-16:00</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>16:00-24:00</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>24:00-8:00</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>รวม</t>
-        </is>
-      </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>08:00-16:00</t>
-        </is>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>16:00-24:00</t>
-        </is>
-      </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>24:00-8:00</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>รวม</t>
-        </is>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="G21" s="1" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3</v>
+      </c>
+      <c r="M21" s="1" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" s="1" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
+        <v>1</v>
+      </c>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>2</v>
+      </c>
+      <c r="W21" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -1832,28 +1941,28 @@
       </c>
       <c r="G22" s="1" t="inlineStr">
         <is>
-          <t>ภูวเนตร</t>
+          <t>พลกฤต</t>
         </is>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
         <v>3</v>
       </c>
       <c r="M22" s="1" t="inlineStr">
         <is>
-          <t>ภูวเนตร</t>
+          <t>พลกฤต</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>1</v>
@@ -1862,24 +1971,24 @@
         <v>1</v>
       </c>
       <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="S22" s="1" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
         <v>3</v>
       </c>
-      <c r="S22" s="1" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="T22" t="n">
-        <v>1</v>
-      </c>
-      <c r="U22" t="n">
+      <c r="V22" t="n">
         <v>2</v>
       </c>
-      <c r="V22" t="n">
-        <v>3</v>
-      </c>
       <c r="W22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -1888,24 +1997,24 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
+      <c r="C23" s="1" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>จีรวัฒน์</t>
+          <t>นฤชิต</t>
         </is>
       </c>
       <c r="E23" s="1" t="inlineStr">
         <is>
-          <t>วินัย</t>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="G23" s="1" t="inlineStr">
         <is>
-          <t>ราเชนทร์</t>
+          <t>ชานนท์</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -1922,7 +2031,7 @@
       </c>
       <c r="M23" s="1" t="inlineStr">
         <is>
-          <t>ราเชนทร์</t>
+          <t>ชานนท์</t>
         </is>
       </c>
       <c r="N23" t="n">
@@ -1939,7 +2048,7 @@
       </c>
       <c r="S23" s="1" t="inlineStr">
         <is>
-          <t>ราเชนทร์</t>
+          <t>ชานนท์</t>
         </is>
       </c>
       <c r="T23" t="n">
@@ -1961,24 +2070,24 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>นที</t>
+      <c r="C24" s="1" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
           <t>นฤชิต</t>
         </is>
       </c>
+      <c r="E24" s="1" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
       <c r="G24" s="1" t="inlineStr">
         <is>
-          <t>พลกฤต</t>
+          <t>ปรมะ</t>
         </is>
       </c>
       <c r="H24" t="n">
@@ -1995,41 +2104,41 @@
       </c>
       <c r="M24" s="1" t="inlineStr">
         <is>
-          <t>พลกฤต</t>
+          <t>ปรมะ</t>
         </is>
       </c>
       <c r="N24" t="n">
         <v>1</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" t="n">
         <v>1</v>
       </c>
       <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" s="1" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="T24" t="n">
+        <v>1</v>
+      </c>
+      <c r="U24" t="n">
         <v>2</v>
-      </c>
-      <c r="S24" s="1" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="T24" t="n">
-        <v>1</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1</v>
       </c>
       <c r="V24" t="n">
         <v>3</v>
       </c>
       <c r="W24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="inlineStr">
+      <c r="A25" s="3" t="inlineStr">
         <is>
           <t>9*</t>
         </is>
@@ -2044,66 +2153,66 @@
           <t>ชานนท์</t>
         </is>
       </c>
-      <c r="D25" s="1" t="inlineStr">
-        <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E25" s="1" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="G25" s="1" t="inlineStr">
         <is>
-          <t>ชานนท์</t>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
         <v>2</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1</v>
       </c>
       <c r="K25" t="n">
         <v>3</v>
       </c>
       <c r="M25" s="1" t="inlineStr">
         <is>
-          <t>ชานนท์</t>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" t="n">
         <v>1</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S25" s="1" t="inlineStr">
         <is>
-          <t>ชานนท์</t>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U25" t="n">
+        <v>2</v>
+      </c>
+      <c r="V25" t="n">
         <v>3</v>
       </c>
-      <c r="V25" t="n">
-        <v>1</v>
-      </c>
       <c r="W25" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
@@ -2112,24 +2221,24 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
+      <c r="C26" s="1" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>นฤชิต</t>
+          <t>ราเชน</t>
         </is>
       </c>
       <c r="E26" s="1" t="inlineStr">
         <is>
-          <t>ภูวเนตร</t>
+          <t>วินัย</t>
         </is>
       </c>
       <c r="G26" s="1" t="inlineStr">
         <is>
-          <t>ปรมะ</t>
+          <t>วินัย</t>
         </is>
       </c>
       <c r="H26" t="n">
@@ -2146,11 +2255,11 @@
       </c>
       <c r="M26" s="1" t="inlineStr">
         <is>
-          <t>ปรมะ</t>
+          <t>วินัย</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" t="n">
         <v>1</v>
@@ -2159,15 +2268,15 @@
         <v>1</v>
       </c>
       <c r="Q26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S26" s="1" t="inlineStr">
         <is>
-          <t>ปรมะ</t>
+          <t>วินัย</t>
         </is>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U26" t="n">
         <v>2</v>
@@ -2176,7 +2285,7 @@
         <v>3</v>
       </c>
       <c r="W26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
@@ -2187,39 +2296,39 @@
       </c>
       <c r="C27" s="1" t="inlineStr">
         <is>
-          <t>สัญญา</t>
+          <t>ภูวเนตร</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
           <t>ราเชน</t>
         </is>
       </c>
+      <c r="E27" s="1" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
       <c r="G27" s="1" t="inlineStr">
         <is>
-          <t>สัญญา</t>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K27" t="n">
         <v>3</v>
       </c>
       <c r="M27" s="1" t="inlineStr">
         <is>
-          <t>สัญญา</t>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="N27" t="n">
@@ -2229,31 +2338,31 @@
         <v>1</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S27" s="1" t="inlineStr">
         <is>
-          <t>สัญญา</t>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="T27" t="n">
         <v>1</v>
       </c>
       <c r="U27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V27" t="n">
         <v>2</v>
       </c>
       <c r="W27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="inlineStr">
+      <c r="A28" s="3" t="inlineStr">
         <is>
           <t>10*</t>
         </is>
@@ -2263,24 +2372,24 @@
           <t>08:00-16:00</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>นที</t>
+      <c r="C28" s="1" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="G28" s="1" t="inlineStr">
-        <is>
-          <t>วินัย</t>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E28" s="1" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
       <c r="H28" t="n">
@@ -2295,39 +2404,39 @@
       <c r="K28" t="n">
         <v>3</v>
       </c>
-      <c r="M28" s="1" t="inlineStr">
-        <is>
-          <t>วินัย</t>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
       <c r="N28" t="n">
         <v>1</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" t="n">
         <v>1</v>
       </c>
       <c r="Q28" t="n">
-        <v>2</v>
-      </c>
-      <c r="S28" s="1" t="inlineStr">
-        <is>
-          <t>วินัย</t>
+        <v>3</v>
+      </c>
+      <c r="S28" s="2" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
       <c r="T28" t="n">
         <v>1</v>
       </c>
       <c r="U28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V28" t="n">
         <v>2</v>
       </c>
       <c r="W28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
@@ -2338,69 +2447,69 @@
       </c>
       <c r="C29" s="1" t="inlineStr">
         <is>
-          <t>สัญญา</t>
+          <t>พลกฤต</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="E29" s="1" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="G29" s="1" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
         </is>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
         <v>2</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1</v>
       </c>
       <c r="K29" t="n">
         <v>3</v>
       </c>
-      <c r="M29" s="1" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
         </is>
       </c>
       <c r="N29" t="n">
         <v>1</v>
       </c>
       <c r="O29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
+        <v>1</v>
+      </c>
+      <c r="S29" s="2" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="T29" t="n">
+        <v>1</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" t="n">
         <v>2</v>
       </c>
-      <c r="S29" s="1" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="T29" t="n">
-        <v>1</v>
-      </c>
-      <c r="U29" t="n">
-        <v>3</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1</v>
-      </c>
       <c r="W29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
@@ -2411,22 +2520,22 @@
       </c>
       <c r="C30" s="1" t="inlineStr">
         <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="D30" s="1" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>นที</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>จีรวัฒน์</t>
+          <t>สุเมธร์</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>วัฒพงษ์</t>
+          <t>นฤชิต</t>
         </is>
       </c>
       <c r="H30" t="n">
@@ -2443,37 +2552,37 @@
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>วัฒพงษ์</t>
+          <t>นฤชิต</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" s="2" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>2</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1</v>
+      </c>
+      <c r="W30" t="n">
         <v>3</v>
-      </c>
-      <c r="S30" s="2" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="T30" t="n">
-        <v>1</v>
-      </c>
-      <c r="U30" t="n">
-        <v>3</v>
-      </c>
-      <c r="V30" t="n">
-        <v>2</v>
-      </c>
-      <c r="W30" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="31">
@@ -2489,7 +2598,7 @@
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>ราเชน</t>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
       <c r="H31" t="n">
@@ -2506,37 +2615,37 @@
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>ราเชน</t>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
       <c r="N31" t="n">
         <v>1</v>
       </c>
       <c r="O31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>ราเชน</t>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
       <c r="T31" t="n">
         <v>1</v>
       </c>
       <c r="U31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" t="n">
         <v>2</v>
       </c>
-      <c r="V31" t="n">
-        <v>3</v>
-      </c>
       <c r="W31" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
@@ -2545,45 +2654,45 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C32" s="2" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
+      <c r="C32" s="1" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="E32" s="1" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>นฤชิต</t>
+          <t>สุเมธร์</t>
         </is>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K32" t="n">
         <v>3</v>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>นฤชิต</t>
+          <t>สุเมธร์</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32" t="n">
         <v>1</v>
@@ -2592,24 +2701,24 @@
         <v>1</v>
       </c>
       <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="S32" s="2" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="T32" t="n">
+        <v>1</v>
+      </c>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
         <v>2</v>
       </c>
-      <c r="S32" s="2" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>2</v>
-      </c>
-      <c r="V32" t="n">
-        <v>3</v>
-      </c>
       <c r="W32" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33">
@@ -2620,60 +2729,60 @@
       </c>
       <c r="C33" s="1" t="inlineStr">
         <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="D33" s="1" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="E33" s="1" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>จีรวัฒน์</t>
+          <t>นที</t>
         </is>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
         <v>2</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1</v>
       </c>
       <c r="K33" t="n">
         <v>3</v>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>จีรวัฒน์</t>
+          <t>นที</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
+        <v>1</v>
+      </c>
+      <c r="P33" t="n">
         <v>0</v>
       </c>
-      <c r="P33" t="n">
-        <v>1</v>
-      </c>
       <c r="Q33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>จีรวัฒน์</t>
+          <t>นที</t>
         </is>
       </c>
       <c r="T33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>2</v>
@@ -2682,7 +2791,7 @@
         <v>2</v>
       </c>
       <c r="W33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -2696,57 +2805,6 @@
           <t>08:00-16:00</t>
         </is>
       </c>
-      <c r="G34" s="2" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>1</v>
-      </c>
-      <c r="J34" t="n">
-        <v>2</v>
-      </c>
-      <c r="K34" t="n">
-        <v>3</v>
-      </c>
-      <c r="M34" s="2" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1</v>
-      </c>
-      <c r="P34" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>2</v>
-      </c>
-      <c r="S34" s="2" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>2</v>
-      </c>
-      <c r="V34" t="n">
-        <v>3</v>
-      </c>
-      <c r="W34" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="35">
       <c r="B35" t="inlineStr">
@@ -2756,69 +2814,18 @@
       </c>
       <c r="C35" s="1" t="inlineStr">
         <is>
-          <t>วินัย</t>
+          <t>ภูวเนตร</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>นฤชิต</t>
+          <t>นที</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="G35" s="2" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>2</v>
-      </c>
-      <c r="J35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K35" t="n">
-        <v>3</v>
-      </c>
-      <c r="M35" s="2" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="N35" t="n">
-        <v>1</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1</v>
-      </c>
-      <c r="S35" s="2" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="T35" t="n">
-        <v>1</v>
-      </c>
-      <c r="U35" t="n">
-        <v>2</v>
-      </c>
-      <c r="V35" t="n">
-        <v>1</v>
-      </c>
-      <c r="W35" t="n">
-        <v>4</v>
+          <t>วัฒพงษ์</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -2829,17 +2836,22 @@
       </c>
       <c r="C36" s="1" t="inlineStr">
         <is>
-          <t>ปรมะ</t>
+          <t>ภูวเนตร</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="E36" s="1" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>สรุป</t>
         </is>
       </c>
     </row>
@@ -2854,9 +2866,24 @@
           <t>08:00-16:00</t>
         </is>
       </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>วันหยุดชดเชย</t>
+        </is>
+      </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>สรุป</t>
+          <t>วันหยุด</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>วันทำการ</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>รวม</t>
         </is>
       </c>
     </row>
@@ -2866,20 +2893,37 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C38" s="2" t="inlineStr">
+      <c r="C38" s="1" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
         <is>
           <t>ราเชน</t>
         </is>
       </c>
-      <c r="D38" s="2" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="E38" s="1" t="inlineStr">
+      <c r="G38" s="1" t="inlineStr">
         <is>
           <t>ภูวเนตร</t>
         </is>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>6</v>
+      </c>
+      <c r="J38" t="n">
+        <v>9</v>
+      </c>
+      <c r="K38" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="39">
@@ -2895,30 +2939,30 @@
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="E39" s="1" t="inlineStr">
-        <is>
-          <t>วินัย</t>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
         </is>
       </c>
       <c r="G39" s="1" t="inlineStr">
         <is>
-          <t>ภูวเนตร</t>
+          <t>ราเชนทร์</t>
         </is>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J39" t="n">
         <v>9</v>
       </c>
       <c r="K39" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40">
@@ -2934,7 +2978,7 @@
       </c>
       <c r="G40" s="1" t="inlineStr">
         <is>
-          <t>ราเชนทร์</t>
+          <t>พลกฤต</t>
         </is>
       </c>
       <c r="H40" t="n">
@@ -2958,22 +3002,22 @@
       </c>
       <c r="C41" s="1" t="inlineStr">
         <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E41" s="1" t="inlineStr">
+        <is>
           <t>วินัย</t>
         </is>
       </c>
-      <c r="D41" s="1" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="E41" s="1" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
       <c r="G41" s="1" t="inlineStr">
         <is>
-          <t>พลกฤต</t>
+          <t>ชานนท์</t>
         </is>
       </c>
       <c r="H41" t="n">
@@ -2997,35 +3041,35 @@
       </c>
       <c r="C42" s="1" t="inlineStr">
         <is>
-          <t>พลกฤต</t>
+          <t>ราเชนทร์</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>วัฒพงษ์</t>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
       <c r="E42" s="1" t="inlineStr">
         <is>
-          <t>ภูวเนตร</t>
+          <t>วินัย</t>
         </is>
       </c>
       <c r="G42" s="1" t="inlineStr">
         <is>
-          <t>ชานนท์</t>
+          <t>ปรมะ</t>
         </is>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J42" t="n">
         <v>9</v>
       </c>
       <c r="K42" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43">
@@ -3041,20 +3085,20 @@
       </c>
       <c r="G43" s="1" t="inlineStr">
         <is>
-          <t>ปรมะ</t>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J43" t="n">
         <v>9</v>
       </c>
       <c r="K43" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44">
@@ -3065,12 +3109,12 @@
       </c>
       <c r="C44" s="1" t="inlineStr">
         <is>
-          <t>รณยุทธ</t>
+          <t>ภูวเนตร</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>วัฒพงษ์</t>
+          <t>ราเชน</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
@@ -3080,7 +3124,7 @@
       </c>
       <c r="G44" s="1" t="inlineStr">
         <is>
-          <t>สัญญา</t>
+          <t>วินัย</t>
         </is>
       </c>
       <c r="H44" t="n">
@@ -3104,22 +3148,22 @@
       </c>
       <c r="C45" s="1" t="inlineStr">
         <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="D45" s="1" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>ราเชน</t>
+          <t>นที</t>
         </is>
       </c>
       <c r="G45" s="1" t="inlineStr">
         <is>
-          <t>วินัย</t>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="H45" t="n">
@@ -3136,7 +3180,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="inlineStr">
+      <c r="A46" s="3" t="inlineStr">
         <is>
           <t>16*</t>
         </is>
@@ -3148,35 +3192,35 @@
       </c>
       <c r="C46" s="1" t="inlineStr">
         <is>
-          <t>ราเชนทร์</t>
+          <t>วินัย</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>นที</t>
+          <t>นฤชิต</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="G46" s="1" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J46" t="n">
         <v>9</v>
       </c>
       <c r="K46" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47">
@@ -3187,7 +3231,7 @@
       </c>
       <c r="C47" s="1" t="inlineStr">
         <is>
-          <t>สัญญา</t>
+          <t>ชานนท์</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr">
@@ -3195,14 +3239,14 @@
           <t>จีรวัฒน์</t>
         </is>
       </c>
-      <c r="E47" s="2" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
+      <c r="E47" s="1" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
         </is>
       </c>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>วัฒพงษ์</t>
+          <t>ราเชน</t>
         </is>
       </c>
       <c r="H47" t="n">
@@ -3226,22 +3270,22 @@
       </c>
       <c r="C48" s="1" t="inlineStr">
         <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="D48" s="1" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="E48" s="2" t="inlineStr">
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E48" s="1" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
         <is>
           <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="G48" s="2" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
         </is>
       </c>
       <c r="H48" t="n">
@@ -3258,7 +3302,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="inlineStr">
+      <c r="A49" s="3" t="inlineStr">
         <is>
           <t>17*</t>
         </is>
@@ -3273,19 +3317,19 @@
           <t>พลกฤต</t>
         </is>
       </c>
-      <c r="D49" s="1" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="E49" s="1" t="inlineStr">
-        <is>
-          <t>วินัย</t>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
         </is>
       </c>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>นฤชิต</t>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
       <c r="H49" t="n">
@@ -3309,7 +3353,7 @@
       </c>
       <c r="C50" s="1" t="inlineStr">
         <is>
-          <t>ภูวเนตร</t>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr">
@@ -3317,27 +3361,27 @@
           <t>สุเมธร์</t>
         </is>
       </c>
-      <c r="E50" s="2" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
+      <c r="E50" s="1" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>จีรวัฒน์</t>
+          <t>สุเมธร์</t>
         </is>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J50" t="n">
         <v>9</v>
       </c>
       <c r="K50" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51">
@@ -3348,35 +3392,35 @@
       </c>
       <c r="C51" s="1" t="inlineStr">
         <is>
-          <t>ปรมะ</t>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="E51" s="2" t="inlineStr">
-        <is>
           <t>สุเมธร์</t>
         </is>
       </c>
+      <c r="E51" s="1" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>สุเมธร์</t>
+          <t>นที</t>
         </is>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J51" t="n">
         <v>9</v>
       </c>
       <c r="K51" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52">
@@ -3390,23 +3434,6 @@
           <t>08:00-16:00</t>
         </is>
       </c>
-      <c r="G52" s="2" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>6</v>
-      </c>
-      <c r="J52" t="n">
-        <v>9</v>
-      </c>
-      <c r="K52" t="n">
-        <v>15</v>
-      </c>
     </row>
     <row r="53">
       <c r="B53" t="inlineStr">
@@ -3416,17 +3443,17 @@
       </c>
       <c r="C53" s="1" t="inlineStr">
         <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E53" s="1" t="inlineStr">
+        <is>
           <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="D53" s="1" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="E53" s="1" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
         </is>
       </c>
     </row>
@@ -3438,17 +3465,17 @@
       </c>
       <c r="C54" s="1" t="inlineStr">
         <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="D54" s="1" t="inlineStr">
-        <is>
-          <t>วินัย</t>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
       <c r="E54" s="1" t="inlineStr">
         <is>
-          <t>พลกฤต</t>
+          <t>ชานนท์</t>
         </is>
       </c>
     </row>
@@ -3472,17 +3499,17 @@
       </c>
       <c r="C56" s="1" t="inlineStr">
         <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E56" s="1" t="inlineStr">
+        <is>
           <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="D56" s="2" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="E56" s="1" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
         </is>
       </c>
     </row>
@@ -3494,7 +3521,7 @@
       </c>
       <c r="C57" s="1" t="inlineStr">
         <is>
-          <t>สัญญา</t>
+          <t>วินัย</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr">
@@ -3504,7 +3531,7 @@
       </c>
       <c r="E57" s="1" t="inlineStr">
         <is>
-          <t>พลกฤต</t>
+          <t>ปรมะ</t>
         </is>
       </c>
     </row>
@@ -3528,17 +3555,17 @@
       </c>
       <c r="C59" s="1" t="inlineStr">
         <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="D59" s="1" t="inlineStr">
-        <is>
-          <t>วินัย</t>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
         </is>
       </c>
       <c r="E59" s="1" t="inlineStr">
         <is>
-          <t>ชานนท์</t>
+          <t>ภูวเนตร</t>
         </is>
       </c>
     </row>
@@ -3550,12 +3577,12 @@
       </c>
       <c r="C60" s="1" t="inlineStr">
         <is>
-          <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="D60" s="1" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
         </is>
       </c>
       <c r="E60" s="1" t="inlineStr">
@@ -3584,17 +3611,17 @@
       </c>
       <c r="C62" s="1" t="inlineStr">
         <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="D62" s="1" t="inlineStr">
-        <is>
           <t>ราเชนทร์</t>
         </is>
       </c>
-      <c r="E62" s="1" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
+      <c r="D62" s="2" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
         </is>
       </c>
     </row>
@@ -3606,7 +3633,7 @@
       </c>
       <c r="C63" s="1" t="inlineStr">
         <is>
-          <t>ชานนท์</t>
+          <t>วินัย</t>
         </is>
       </c>
       <c r="D63" s="2" t="inlineStr">
@@ -3640,17 +3667,17 @@
       </c>
       <c r="C65" s="1" t="inlineStr">
         <is>
-          <t>ราเชนทร์</t>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t>ราเชน</t>
+          <t>สุเมธร์</t>
         </is>
       </c>
       <c r="E65" s="1" t="inlineStr">
         <is>
-          <t>ปรมะ</t>
+          <t>ชานนท์</t>
         </is>
       </c>
     </row>
@@ -3662,22 +3689,22 @@
       </c>
       <c r="C66" s="1" t="inlineStr">
         <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E66" s="1" t="inlineStr">
+        <is>
           <t>ภูวเนตร</t>
         </is>
       </c>
-      <c r="D66" s="1" t="inlineStr">
-        <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="E66" s="2" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="inlineStr">
+      <c r="A67" s="3" t="inlineStr">
         <is>
           <t>23*</t>
         </is>
@@ -3689,17 +3716,17 @@
       </c>
       <c r="C67" s="1" t="inlineStr">
         <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="D67" s="1" t="inlineStr">
-        <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="E67" s="1" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="D67" s="2" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
     </row>
@@ -3711,17 +3738,17 @@
       </c>
       <c r="C68" s="1" t="inlineStr">
         <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E68" s="1" t="inlineStr">
+        <is>
           <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="D68" s="2" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="E68" s="1" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
         </is>
       </c>
     </row>
@@ -3733,22 +3760,22 @@
       </c>
       <c r="C69" s="1" t="inlineStr">
         <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="D69" s="1" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="E69" s="1" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="inlineStr">
+      <c r="A70" s="3" t="inlineStr">
         <is>
           <t>24*</t>
         </is>
@@ -3763,14 +3790,14 @@
           <t>ราเชนทร์</t>
         </is>
       </c>
-      <c r="D70" s="1" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
+      <c r="D70" s="2" t="inlineStr">
+        <is>
+          <t>นที</t>
         </is>
       </c>
       <c r="E70" s="1" t="inlineStr">
         <is>
-          <t>ภูวเนตร</t>
+          <t>ปรมะ</t>
         </is>
       </c>
     </row>
@@ -3782,17 +3809,17 @@
       </c>
       <c r="C71" s="1" t="inlineStr">
         <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="D71" s="2" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E71" s="1" t="inlineStr">
+        <is>
           <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="D71" s="1" t="inlineStr">
-        <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="E71" s="2" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
         </is>
       </c>
     </row>
@@ -3802,19 +3829,19 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C72" s="2" t="inlineStr">
-        <is>
-          <t>นที</t>
+      <c r="C72" s="1" t="inlineStr">
+        <is>
+          <t>วินัย</t>
         </is>
       </c>
       <c r="D72" s="2" t="inlineStr">
         <is>
-          <t>สุเมธร์</t>
+          <t>ราเชน</t>
         </is>
       </c>
       <c r="E72" s="1" t="inlineStr">
         <is>
-          <t>ปรมะ</t>
+          <t>ชานนท์</t>
         </is>
       </c>
     </row>
@@ -3838,17 +3865,17 @@
       </c>
       <c r="C74" s="1" t="inlineStr">
         <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="D74" s="2" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E74" s="1" t="inlineStr">
+        <is>
           <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="D74" s="1" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="E74" s="1" t="inlineStr">
-        <is>
-          <t>วินัย</t>
         </is>
       </c>
     </row>
@@ -3860,17 +3887,17 @@
       </c>
       <c r="C75" s="1" t="inlineStr">
         <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="D75" s="1" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="D75" s="2" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
         </is>
       </c>
       <c r="E75" s="2" t="inlineStr">
         <is>
-          <t>นฤชิต</t>
+          <t>นที</t>
         </is>
       </c>
     </row>
@@ -3897,14 +3924,14 @@
           <t>พลกฤต</t>
         </is>
       </c>
-      <c r="D77" s="1" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="E77" s="1" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
+      <c r="D77" s="2" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
     </row>
@@ -3916,7 +3943,7 @@
       </c>
       <c r="C78" s="1" t="inlineStr">
         <is>
-          <t>สัญญา</t>
+          <t>ปรมะ</t>
         </is>
       </c>
       <c r="D78" s="2" t="inlineStr">
@@ -3924,9 +3951,9 @@
           <t>นที</t>
         </is>
       </c>
-      <c r="E78" s="1" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
+      <c r="E78" s="2" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
     </row>
@@ -3950,17 +3977,17 @@
       </c>
       <c r="C80" s="1" t="inlineStr">
         <is>
-          <t>รณยุทธ</t>
+          <t>วินัย</t>
         </is>
       </c>
       <c r="D80" s="1" t="inlineStr">
         <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="E80" s="2" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="E80" s="1" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
         </is>
       </c>
     </row>
@@ -3972,17 +3999,17 @@
       </c>
       <c r="C81" s="1" t="inlineStr">
         <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="D81" s="2" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="E81" s="1" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="D81" s="1" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
         </is>
       </c>
     </row>
@@ -4014,9 +4041,9 @@
           <t>ปรมะ</t>
         </is>
       </c>
-      <c r="E83" s="2" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
+      <c r="E83" s="1" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
         </is>
       </c>
     </row>
@@ -4028,17 +4055,17 @@
       </c>
       <c r="C84" s="1" t="inlineStr">
         <is>
-          <t>ภูวเนตร</t>
+          <t>ชานนท์</t>
         </is>
       </c>
       <c r="D84" s="1" t="inlineStr">
         <is>
-          <t>รณยุทธ</t>
+          <t>พลกฤต</t>
         </is>
       </c>
       <c r="E84" s="1" t="inlineStr">
         <is>
-          <t>สัญญา</t>
+          <t>ปรมะ</t>
         </is>
       </c>
     </row>
@@ -4062,17 +4089,17 @@
       </c>
       <c r="C86" s="1" t="inlineStr">
         <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="D86" s="2" t="inlineStr">
-        <is>
-          <t>นที</t>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="D86" s="1" t="inlineStr">
+        <is>
+          <t>วินัย</t>
         </is>
       </c>
       <c r="E86" s="2" t="inlineStr">
         <is>
-          <t>จีรวัฒน์</t>
+          <t>สุเมธร์</t>
         </is>
       </c>
     </row>
@@ -4084,44 +4111,44 @@
       </c>
       <c r="C87" s="1" t="inlineStr">
         <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="D87" s="1" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="E87" s="1" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="3" t="inlineStr">
+        <is>
+          <t>30*</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="C88" s="1" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="D88" s="2" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E88" s="1" t="inlineStr">
+        <is>
           <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="D87" s="1" t="inlineStr">
-        <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="E87" s="2" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="inlineStr">
-        <is>
-          <t>30*</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>08:00-16:00</t>
-        </is>
-      </c>
-      <c r="C88" s="1" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="D88" s="1" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="E88" s="1" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
         </is>
       </c>
     </row>
@@ -4133,17 +4160,17 @@
       </c>
       <c r="C89" s="1" t="inlineStr">
         <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="D89" s="1" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="E89" s="1" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="D89" s="2" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="inlineStr">
+        <is>
+          <t>นที</t>
         </is>
       </c>
     </row>
@@ -4155,22 +4182,22 @@
       </c>
       <c r="C90" s="1" t="inlineStr">
         <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="D90" s="1" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="D90" s="2" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
         </is>
       </c>
       <c r="E90" s="1" t="inlineStr">
         <is>
-          <t>ราเชนทร์</t>
+          <t>พลกฤต</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="inlineStr">
+      <c r="A91" s="3" t="inlineStr">
         <is>
           <t>31*</t>
         </is>
@@ -4182,17 +4209,17 @@
       </c>
       <c r="C91" s="1" t="inlineStr">
         <is>
-          <t>ชานนท์</t>
+          <t>ปรมะ</t>
         </is>
       </c>
       <c r="D91" s="2" t="inlineStr">
         <is>
-          <t>สุเมธร์</t>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
       <c r="E91" s="1" t="inlineStr">
         <is>
-          <t>รณยุทธ</t>
+          <t>วินัย</t>
         </is>
       </c>
     </row>
@@ -4204,12 +4231,12 @@
       </c>
       <c r="C92" s="1" t="inlineStr">
         <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="D92" s="1" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="D92" s="2" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
       <c r="E92" s="2" t="inlineStr">
@@ -4226,17 +4253,17 @@
       </c>
       <c r="C93" s="1" t="inlineStr">
         <is>
-          <t>รณยุทธ</t>
+          <t>พลกฤต</t>
         </is>
       </c>
       <c r="D93" s="2" t="inlineStr">
         <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="E93" s="2" t="inlineStr">
-        <is>
           <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E93" s="1" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
         </is>
       </c>
     </row>
@@ -4258,19 +4285,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C98" s="3" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="D98" s="4" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="E98" s="5" t="inlineStr">
+      <c r="C98" s="4" t="inlineStr">
         <is>
           <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="D98" s="5" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E98" s="6" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -4295,21 +4322,21 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C99" s="6" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="D99" s="4" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="E99" s="7" t="inlineStr">
+      <c r="C99" s="4" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="D99" s="5" t="inlineStr">
         <is>
           <t>ราเชน</t>
         </is>
       </c>
+      <c r="E99" s="6" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
       <c r="H99" t="inlineStr">
         <is>
           <t>08:00-16:00</t>
@@ -4372,7 +4399,7 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="inlineStr">
+      <c r="A100" s="3" t="inlineStr">
         <is>
           <t>2*</t>
         </is>
@@ -4382,9 +4409,9 @@
           <t>08:00-16:00</t>
         </is>
       </c>
-      <c r="C100" s="6" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
+      <c r="C100" s="7" t="inlineStr">
+        <is>
+          <t>วินัย</t>
         </is>
       </c>
       <c r="D100" s="8" t="inlineStr">
@@ -4394,7 +4421,7 @@
       </c>
       <c r="E100" s="9" t="inlineStr">
         <is>
-          <t>นที</t>
+          <t>ชานนท์</t>
         </is>
       </c>
       <c r="G100" s="1" t="inlineStr">
@@ -4402,42 +4429,60 @@
           <t>ภูวเนตร</t>
         </is>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>3</v>
-      </c>
-      <c r="J100" t="n">
-        <v>3</v>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100">
+        <f>COUNTIF($C$98:$D$98,"ภูวเนตร")+COUNTIF($C$107:$D$107,"ภูวเนตร")+COUNTIF($C$110:$D$110,"ภูวเนตร")+COUNTIF($C$113:$D$113,"ภูวเนตร")+COUNTIF($C$116:$D$116,"ภูวเนตร")+COUNTIF($C$119:$D$119,"ภูวเนตร")+COUNTIF($C$128:$D$128,"ภูวเนตร")+COUNTIF($C$131:$D$131,"ภูวเนตร")+COUNTIF($C$134:$D$134,"ภูวเนตร")+COUNTIF($C$137:$D$137,"ภูวเนตร")+COUNTIF($C$140:$D$140,"ภูวเนตร")+COUNTIF($C$149:$D$149,"ภูวเนตร")+COUNTIF($C$152:$D$152,"ภูวเนตร")+COUNTIF($C$155:$D$155,"ภูวเนตร")+COUNTIF($C$158:$D$158,"ภูวเนตร")+COUNTIF($C$161:$D$161,"ภูวเนตร")+COUNTIF($C$170:$D$170,"ภูวเนตร")+COUNTIF($C$173:$D$173,"ภูวเนตร")+COUNTIF($C$176:$D$176,"ภูวเนตร")+COUNTIF($C$179:$D$179,"ภูวเนตร")+COUNTIF($C$182:$D$182,"ภูวเนตร")</f>
+        <v/>
+      </c>
+      <c r="J100">
+        <f>COUNTIF($C$99:$D$99,"ภูวเนตร")+COUNTIF($C$108:$D$108,"ภูวเนตร")+COUNTIF($C$111:$D$111,"ภูวเนตร")+COUNTIF($C$114:$D$114,"ภูวเนตร")+COUNTIF($C$117:$D$117,"ภูวเนตร")+COUNTIF($C$120:$D$120,"ภูวเนตร")+COUNTIF($C$129:$D$129,"ภูวเนตร")+COUNTIF($C$132:$D$132,"ภูวเนตร")+COUNTIF($C$135:$D$135,"ภูวเนตร")+COUNTIF($C$138:$D$138,"ภูวเนตร")+COUNTIF($C$141:$D$141,"ภูวเนตร")+COUNTIF($C$150:$D$150,"ภูวเนตร")+COUNTIF($C$153:$D$153,"ภูวเนตร")+COUNTIF($C$156:$D$156,"ภูวเนตร")+COUNTIF($C$159:$D$159,"ภูวเนตร")+COUNTIF($C$162:$D$162,"ภูวเนตร")+COUNTIF($C$171:$D$171,"ภูวเนตร")+COUNTIF($C$174:$D$174,"ภูวเนตร")+COUNTIF($C$177:$D$177,"ภูวเนตร")+COUNTIF($C$180:$D$180,"ภูวเนตร")+COUNTIF($C$183:$D$183,"ภูวเนตร")</f>
+        <v/>
+      </c>
+      <c r="K100">
+        <f>SUM(H100:J100)</f>
+        <v/>
       </c>
       <c r="M100" s="1" t="inlineStr">
         <is>
           <t>ภูวเนตร</t>
         </is>
       </c>
-      <c r="N100" t="n">
-        <v>1</v>
-      </c>
-      <c r="O100" t="n">
-        <v>1</v>
-      </c>
-      <c r="P100" t="n">
-        <v>2</v>
+      <c r="N100">
+        <f>COUNTIF($C$100:$D$100,"ภูวเนตร")+COUNTIF($C$103:$D$103,"ภูวเนตร")+COUNTIF($C$121:$D$121,"ภูวเนตร")+COUNTIF($C$124:$D$124,"ภูวเนตร")+COUNTIF($C$142:$D$142,"ภูวเนตร")+COUNTIF($C$145:$D$145,"ภูวเนตร")+COUNTIF($C$163:$D$163,"ภูวเนตร")+COUNTIF($C$166:$D$166,"ภูวเนตร")+COUNTIF($C$184:$D$184,"ภูวเนตร")+COUNTIF($C$187:$D$187,"ภูวเนตร")</f>
+        <v/>
+      </c>
+      <c r="O100">
+        <f>COUNTIF($C$101:$D$101,"ภูวเนตร")+COUNTIF($C$104:$D$104,"ภูวเนตร")+COUNTIF($C$122:$D$122,"ภูวเนตร")+COUNTIF($C$125:$D$125,"ภูวเนตร")+COUNTIF($C$143:$D$143,"ภูวเนตร")+COUNTIF($C$146:$D$146,"ภูวเนตร")+COUNTIF($C$164:$D$164,"ภูวเนตร")+COUNTIF($C$167:$D$167,"ภูวเนตร")+COUNTIF($C$185:$D$185,"ภูวเนตร")+COUNTIF($C$188:$D$188,"ภูวเนตร")</f>
+        <v/>
+      </c>
+      <c r="P100">
+        <f>COUNTIF($C$102:$D$102,"ภูวเนตร")+COUNTIF($C$105:$D$105,"ภูวเนตร")+COUNTIF($C$123:$D$123,"ภูวเนตร")+COUNTIF($C$126:$D$126,"ภูวเนตร")+COUNTIF($C$144:$D$144,"ภูวเนตร")+COUNTIF($C$147:$D$147,"ภูวเนตร")+COUNTIF($C$165:$D$165,"ภูวเนตร")+COUNTIF($C$168:$D$168,"ภูวเนตร")+COUNTIF($C$186:$D$186,"ภูวเนตร")+COUNTIF($C$189:$D$189,"ภูวเนตร")</f>
+        <v/>
+      </c>
+      <c r="Q100">
+        <f>SUM(N100:P100)</f>
+        <v/>
       </c>
       <c r="S100" s="1" t="inlineStr">
         <is>
           <t>ภูวเนตร</t>
         </is>
       </c>
-      <c r="T100" t="n">
-        <v>1</v>
-      </c>
-      <c r="U100" t="n">
-        <v>4</v>
-      </c>
-      <c r="V100" t="n">
-        <v>5</v>
+      <c r="T100">
+        <f>SUM(H100,N100)</f>
+        <v/>
+      </c>
+      <c r="U100">
+        <f>SUM(I100,O100)</f>
+        <v/>
+      </c>
+      <c r="V100">
+        <f>SUM(J100,P100)</f>
+        <v/>
+      </c>
+      <c r="W100">
+        <f>SUM(K100,Q100)</f>
+        <v/>
       </c>
     </row>
     <row r="101">
@@ -4448,17 +4493,17 @@
       </c>
       <c r="C101" s="10" t="inlineStr">
         <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="D101" s="7" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="E101" s="11" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="D101" s="11" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E101" s="12" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
         </is>
       </c>
       <c r="G101" s="1" t="inlineStr">
@@ -4466,42 +4511,60 @@
           <t>ราเชนทร์</t>
         </is>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>3</v>
-      </c>
-      <c r="J101" t="n">
-        <v>3</v>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101">
+        <f>COUNTIF($C$98:$D$98,"ราเชนทร์")+COUNTIF($C$107:$D$107,"ราเชนทร์")+COUNTIF($C$110:$D$110,"ราเชนทร์")+COUNTIF($C$113:$D$113,"ราเชนทร์")+COUNTIF($C$116:$D$116,"ราเชนทร์")+COUNTIF($C$119:$D$119,"ราเชนทร์")+COUNTIF($C$128:$D$128,"ราเชนทร์")+COUNTIF($C$131:$D$131,"ราเชนทร์")+COUNTIF($C$134:$D$134,"ราเชนทร์")+COUNTIF($C$137:$D$137,"ราเชนทร์")+COUNTIF($C$140:$D$140,"ราเชนทร์")+COUNTIF($C$149:$D$149,"ราเชนทร์")+COUNTIF($C$152:$D$152,"ราเชนทร์")+COUNTIF($C$155:$D$155,"ราเชนทร์")+COUNTIF($C$158:$D$158,"ราเชนทร์")+COUNTIF($C$161:$D$161,"ราเชนทร์")+COUNTIF($C$170:$D$170,"ราเชนทร์")+COUNTIF($C$173:$D$173,"ราเชนทร์")+COUNTIF($C$176:$D$176,"ราเชนทร์")+COUNTIF($C$179:$D$179,"ราเชนทร์")+COUNTIF($C$182:$D$182,"ราเชนทร์")</f>
+        <v/>
+      </c>
+      <c r="J101">
+        <f>COUNTIF($C$99:$D$99,"ราเชนทร์")+COUNTIF($C$108:$D$108,"ราเชนทร์")+COUNTIF($C$111:$D$111,"ราเชนทร์")+COUNTIF($C$114:$D$114,"ราเชนทร์")+COUNTIF($C$117:$D$117,"ราเชนทร์")+COUNTIF($C$120:$D$120,"ราเชนทร์")+COUNTIF($C$129:$D$129,"ราเชนทร์")+COUNTIF($C$132:$D$132,"ราเชนทร์")+COUNTIF($C$135:$D$135,"ราเชนทร์")+COUNTIF($C$138:$D$138,"ราเชนทร์")+COUNTIF($C$141:$D$141,"ราเชนทร์")+COUNTIF($C$150:$D$150,"ราเชนทร์")+COUNTIF($C$153:$D$153,"ราเชนทร์")+COUNTIF($C$156:$D$156,"ราเชนทร์")+COUNTIF($C$159:$D$159,"ราเชนทร์")+COUNTIF($C$162:$D$162,"ราเชนทร์")+COUNTIF($C$171:$D$171,"ราเชนทร์")+COUNTIF($C$174:$D$174,"ราเชนทร์")+COUNTIF($C$177:$D$177,"ราเชนทร์")+COUNTIF($C$180:$D$180,"ราเชนทร์")+COUNTIF($C$183:$D$183,"ราเชนทร์")</f>
+        <v/>
+      </c>
+      <c r="K101">
+        <f>SUM(H101:J101)</f>
+        <v/>
       </c>
       <c r="M101" s="1" t="inlineStr">
         <is>
           <t>ราเชนทร์</t>
         </is>
       </c>
-      <c r="N101" t="n">
-        <v>2</v>
-      </c>
-      <c r="O101" t="n">
-        <v>1</v>
-      </c>
-      <c r="P101" t="n">
-        <v>1</v>
+      <c r="N101">
+        <f>COUNTIF($C$100:$D$100,"ราเชนทร์")+COUNTIF($C$103:$D$103,"ราเชนทร์")+COUNTIF($C$121:$D$121,"ราเชนทร์")+COUNTIF($C$124:$D$124,"ราเชนทร์")+COUNTIF($C$142:$D$142,"ราเชนทร์")+COUNTIF($C$145:$D$145,"ราเชนทร์")+COUNTIF($C$163:$D$163,"ราเชนทร์")+COUNTIF($C$166:$D$166,"ราเชนทร์")+COUNTIF($C$184:$D$184,"ราเชนทร์")+COUNTIF($C$187:$D$187,"ราเชนทร์")</f>
+        <v/>
+      </c>
+      <c r="O101">
+        <f>COUNTIF($C$101:$D$101,"ราเชนทร์")+COUNTIF($C$104:$D$104,"ราเชนทร์")+COUNTIF($C$122:$D$122,"ราเชนทร์")+COUNTIF($C$125:$D$125,"ราเชนทร์")+COUNTIF($C$143:$D$143,"ราเชนทร์")+COUNTIF($C$146:$D$146,"ราเชนทร์")+COUNTIF($C$164:$D$164,"ราเชนทร์")+COUNTIF($C$167:$D$167,"ราเชนทร์")+COUNTIF($C$185:$D$185,"ราเชนทร์")+COUNTIF($C$188:$D$188,"ราเชนทร์")</f>
+        <v/>
+      </c>
+      <c r="P101">
+        <f>COUNTIF($C$102:$D$102,"ราเชนทร์")+COUNTIF($C$105:$D$105,"ราเชนทร์")+COUNTIF($C$123:$D$123,"ราเชนทร์")+COUNTIF($C$126:$D$126,"ราเชนทร์")+COUNTIF($C$144:$D$144,"ราเชนทร์")+COUNTIF($C$147:$D$147,"ราเชนทร์")+COUNTIF($C$165:$D$165,"ราเชนทร์")+COUNTIF($C$168:$D$168,"ราเชนทร์")+COUNTIF($C$186:$D$186,"ราเชนทร์")+COUNTIF($C$189:$D$189,"ราเชนทร์")</f>
+        <v/>
+      </c>
+      <c r="Q101">
+        <f>SUM(N101:P101)</f>
+        <v/>
       </c>
       <c r="S101" s="1" t="inlineStr">
         <is>
           <t>ราเชนทร์</t>
         </is>
       </c>
-      <c r="T101" t="n">
-        <v>2</v>
-      </c>
-      <c r="U101" t="n">
-        <v>4</v>
-      </c>
-      <c r="V101" t="n">
-        <v>4</v>
+      <c r="T101">
+        <f>SUM(H101,N101)</f>
+        <v/>
+      </c>
+      <c r="U101">
+        <f>SUM(I101,O101)</f>
+        <v/>
+      </c>
+      <c r="V101">
+        <f>SUM(J101,P101)</f>
+        <v/>
+      </c>
+      <c r="W101">
+        <f>SUM(K101,Q101)</f>
+        <v/>
       </c>
     </row>
     <row r="102">
@@ -4510,88 +4573,106 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C102" s="12" t="inlineStr">
-        <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="D102" s="9" t="inlineStr">
+      <c r="C102" s="10" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="D102" s="11" t="inlineStr">
         <is>
           <t>นที</t>
         </is>
       </c>
-      <c r="E102" s="13" t="inlineStr">
+      <c r="E102" s="12" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="G102" s="1" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102">
+        <f>COUNTIF($C$98:$D$98,"พลกฤต")+COUNTIF($C$107:$D$107,"พลกฤต")+COUNTIF($C$110:$D$110,"พลกฤต")+COUNTIF($C$113:$D$113,"พลกฤต")+COUNTIF($C$116:$D$116,"พลกฤต")+COUNTIF($C$119:$D$119,"พลกฤต")+COUNTIF($C$128:$D$128,"พลกฤต")+COUNTIF($C$131:$D$131,"พลกฤต")+COUNTIF($C$134:$D$134,"พลกฤต")+COUNTIF($C$137:$D$137,"พลกฤต")+COUNTIF($C$140:$D$140,"พลกฤต")+COUNTIF($C$149:$D$149,"พลกฤต")+COUNTIF($C$152:$D$152,"พลกฤต")+COUNTIF($C$155:$D$155,"พลกฤต")+COUNTIF($C$158:$D$158,"พลกฤต")+COUNTIF($C$161:$D$161,"พลกฤต")+COUNTIF($C$170:$D$170,"พลกฤต")+COUNTIF($C$173:$D$173,"พลกฤต")+COUNTIF($C$176:$D$176,"พลกฤต")+COUNTIF($C$179:$D$179,"พลกฤต")+COUNTIF($C$182:$D$182,"พลกฤต")</f>
+        <v/>
+      </c>
+      <c r="J102">
+        <f>COUNTIF($C$99:$D$99,"พลกฤต")+COUNTIF($C$108:$D$108,"พลกฤต")+COUNTIF($C$111:$D$111,"พลกฤต")+COUNTIF($C$114:$D$114,"พลกฤต")+COUNTIF($C$117:$D$117,"พลกฤต")+COUNTIF($C$120:$D$120,"พลกฤต")+COUNTIF($C$129:$D$129,"พลกฤต")+COUNTIF($C$132:$D$132,"พลกฤต")+COUNTIF($C$135:$D$135,"พลกฤต")+COUNTIF($C$138:$D$138,"พลกฤต")+COUNTIF($C$141:$D$141,"พลกฤต")+COUNTIF($C$150:$D$150,"พลกฤต")+COUNTIF($C$153:$D$153,"พลกฤต")+COUNTIF($C$156:$D$156,"พลกฤต")+COUNTIF($C$159:$D$159,"พลกฤต")+COUNTIF($C$162:$D$162,"พลกฤต")+COUNTIF($C$171:$D$171,"พลกฤต")+COUNTIF($C$174:$D$174,"พลกฤต")+COUNTIF($C$177:$D$177,"พลกฤต")+COUNTIF($C$180:$D$180,"พลกฤต")+COUNTIF($C$183:$D$183,"พลกฤต")</f>
+        <v/>
+      </c>
+      <c r="K102">
+        <f>SUM(H102:J102)</f>
+        <v/>
+      </c>
+      <c r="M102" s="1" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="N102">
+        <f>COUNTIF($C$100:$D$100,"พลกฤต")+COUNTIF($C$103:$D$103,"พลกฤต")+COUNTIF($C$121:$D$121,"พลกฤต")+COUNTIF($C$124:$D$124,"พลกฤต")+COUNTIF($C$142:$D$142,"พลกฤต")+COUNTIF($C$145:$D$145,"พลกฤต")+COUNTIF($C$163:$D$163,"พลกฤต")+COUNTIF($C$166:$D$166,"พลกฤต")+COUNTIF($C$184:$D$184,"พลกฤต")+COUNTIF($C$187:$D$187,"พลกฤต")</f>
+        <v/>
+      </c>
+      <c r="O102">
+        <f>COUNTIF($C$101:$D$101,"พลกฤต")+COUNTIF($C$104:$D$104,"พลกฤต")+COUNTIF($C$122:$D$122,"พลกฤต")+COUNTIF($C$125:$D$125,"พลกฤต")+COUNTIF($C$143:$D$143,"พลกฤต")+COUNTIF($C$146:$D$146,"พลกฤต")+COUNTIF($C$164:$D$164,"พลกฤต")+COUNTIF($C$167:$D$167,"พลกฤต")+COUNTIF($C$185:$D$185,"พลกฤต")+COUNTIF($C$188:$D$188,"พลกฤต")</f>
+        <v/>
+      </c>
+      <c r="P102">
+        <f>COUNTIF($C$102:$D$102,"พลกฤต")+COUNTIF($C$105:$D$105,"พลกฤต")+COUNTIF($C$123:$D$123,"พลกฤต")+COUNTIF($C$126:$D$126,"พลกฤต")+COUNTIF($C$144:$D$144,"พลกฤต")+COUNTIF($C$147:$D$147,"พลกฤต")+COUNTIF($C$165:$D$165,"พลกฤต")+COUNTIF($C$168:$D$168,"พลกฤต")+COUNTIF($C$186:$D$186,"พลกฤต")+COUNTIF($C$189:$D$189,"พลกฤต")</f>
+        <v/>
+      </c>
+      <c r="Q102">
+        <f>SUM(N102:P102)</f>
+        <v/>
+      </c>
+      <c r="S102" s="1" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="T102">
+        <f>SUM(H102,N102)</f>
+        <v/>
+      </c>
+      <c r="U102">
+        <f>SUM(I102,O102)</f>
+        <v/>
+      </c>
+      <c r="V102">
+        <f>SUM(J102,P102)</f>
+        <v/>
+      </c>
+      <c r="W102">
+        <f>SUM(K102,Q102)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="3" t="inlineStr">
+        <is>
+          <t>3*</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="C103" s="13" t="inlineStr">
         <is>
           <t>ภูวเนตร</t>
         </is>
       </c>
-      <c r="G102" s="1" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>3</v>
-      </c>
-      <c r="J102" t="n">
-        <v>3</v>
-      </c>
-      <c r="M102" s="1" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="N102" t="n">
-        <v>1</v>
-      </c>
-      <c r="O102" t="n">
-        <v>2</v>
-      </c>
-      <c r="P102" t="n">
-        <v>1</v>
-      </c>
-      <c r="S102" s="1" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="T102" t="n">
-        <v>1</v>
-      </c>
-      <c r="U102" t="n">
-        <v>5</v>
-      </c>
-      <c r="V102" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="inlineStr">
-        <is>
-          <t>3*</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>08:00-16:00</t>
-        </is>
-      </c>
-      <c r="C103" s="5" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="D103" s="7" t="inlineStr">
+      <c r="D103" s="5" t="inlineStr">
         <is>
           <t>ราเชน</t>
         </is>
       </c>
       <c r="E103" s="14" t="inlineStr">
         <is>
-          <t>พลกฤต</t>
+          <t>สุเมธร์</t>
         </is>
       </c>
       <c r="G103" s="1" t="inlineStr">
@@ -4599,42 +4680,60 @@
           <t>ชานนท์</t>
         </is>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>3</v>
-      </c>
-      <c r="J103" t="n">
-        <v>3</v>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103">
+        <f>COUNTIF($C$98:$D$98,"ชานนท์")+COUNTIF($C$107:$D$107,"ชานนท์")+COUNTIF($C$110:$D$110,"ชานนท์")+COUNTIF($C$113:$D$113,"ชานนท์")+COUNTIF($C$116:$D$116,"ชานนท์")+COUNTIF($C$119:$D$119,"ชานนท์")+COUNTIF($C$128:$D$128,"ชานนท์")+COUNTIF($C$131:$D$131,"ชานนท์")+COUNTIF($C$134:$D$134,"ชานนท์")+COUNTIF($C$137:$D$137,"ชานนท์")+COUNTIF($C$140:$D$140,"ชานนท์")+COUNTIF($C$149:$D$149,"ชานนท์")+COUNTIF($C$152:$D$152,"ชานนท์")+COUNTIF($C$155:$D$155,"ชานนท์")+COUNTIF($C$158:$D$158,"ชานนท์")+COUNTIF($C$161:$D$161,"ชานนท์")+COUNTIF($C$170:$D$170,"ชานนท์")+COUNTIF($C$173:$D$173,"ชานนท์")+COUNTIF($C$176:$D$176,"ชานนท์")+COUNTIF($C$179:$D$179,"ชานนท์")+COUNTIF($C$182:$D$182,"ชานนท์")</f>
+        <v/>
+      </c>
+      <c r="J103">
+        <f>COUNTIF($C$99:$D$99,"ชานนท์")+COUNTIF($C$108:$D$108,"ชานนท์")+COUNTIF($C$111:$D$111,"ชานนท์")+COUNTIF($C$114:$D$114,"ชานนท์")+COUNTIF($C$117:$D$117,"ชานนท์")+COUNTIF($C$120:$D$120,"ชานนท์")+COUNTIF($C$129:$D$129,"ชานนท์")+COUNTIF($C$132:$D$132,"ชานนท์")+COUNTIF($C$135:$D$135,"ชานนท์")+COUNTIF($C$138:$D$138,"ชานนท์")+COUNTIF($C$141:$D$141,"ชานนท์")+COUNTIF($C$150:$D$150,"ชานนท์")+COUNTIF($C$153:$D$153,"ชานนท์")+COUNTIF($C$156:$D$156,"ชานนท์")+COUNTIF($C$159:$D$159,"ชานนท์")+COUNTIF($C$162:$D$162,"ชานนท์")+COUNTIF($C$171:$D$171,"ชานนท์")+COUNTIF($C$174:$D$174,"ชานนท์")+COUNTIF($C$177:$D$177,"ชานนท์")+COUNTIF($C$180:$D$180,"ชานนท์")+COUNTIF($C$183:$D$183,"ชานนท์")</f>
+        <v/>
+      </c>
+      <c r="K103">
+        <f>SUM(H103:J103)</f>
+        <v/>
       </c>
       <c r="M103" s="1" t="inlineStr">
         <is>
           <t>ชานนท์</t>
         </is>
       </c>
-      <c r="N103" t="n">
-        <v>2</v>
-      </c>
-      <c r="O103" t="n">
-        <v>2</v>
-      </c>
-      <c r="P103" t="n">
-        <v>2</v>
+      <c r="N103">
+        <f>COUNTIF($C$100:$D$100,"ชานนท์")+COUNTIF($C$103:$D$103,"ชานนท์")+COUNTIF($C$121:$D$121,"ชานนท์")+COUNTIF($C$124:$D$124,"ชานนท์")+COUNTIF($C$142:$D$142,"ชานนท์")+COUNTIF($C$145:$D$145,"ชานนท์")+COUNTIF($C$163:$D$163,"ชานนท์")+COUNTIF($C$166:$D$166,"ชานนท์")+COUNTIF($C$184:$D$184,"ชานนท์")+COUNTIF($C$187:$D$187,"ชานนท์")</f>
+        <v/>
+      </c>
+      <c r="O103">
+        <f>COUNTIF($C$101:$D$101,"ชานนท์")+COUNTIF($C$104:$D$104,"ชานนท์")+COUNTIF($C$122:$D$122,"ชานนท์")+COUNTIF($C$125:$D$125,"ชานนท์")+COUNTIF($C$143:$D$143,"ชานนท์")+COUNTIF($C$146:$D$146,"ชานนท์")+COUNTIF($C$164:$D$164,"ชานนท์")+COUNTIF($C$167:$D$167,"ชานนท์")+COUNTIF($C$185:$D$185,"ชานนท์")+COUNTIF($C$188:$D$188,"ชานนท์")</f>
+        <v/>
+      </c>
+      <c r="P103">
+        <f>COUNTIF($C$102:$D$102,"ชานนท์")+COUNTIF($C$105:$D$105,"ชานนท์")+COUNTIF($C$123:$D$123,"ชานนท์")+COUNTIF($C$126:$D$126,"ชานนท์")+COUNTIF($C$144:$D$144,"ชานนท์")+COUNTIF($C$147:$D$147,"ชานนท์")+COUNTIF($C$165:$D$165,"ชานนท์")+COUNTIF($C$168:$D$168,"ชานนท์")+COUNTIF($C$186:$D$186,"ชานนท์")+COUNTIF($C$189:$D$189,"ชานนท์")</f>
+        <v/>
+      </c>
+      <c r="Q103">
+        <f>SUM(N103:P103)</f>
+        <v/>
       </c>
       <c r="S103" s="1" t="inlineStr">
         <is>
           <t>ชานนท์</t>
         </is>
       </c>
-      <c r="T103" t="n">
-        <v>2</v>
-      </c>
-      <c r="U103" t="n">
-        <v>5</v>
-      </c>
-      <c r="V103" t="n">
-        <v>5</v>
+      <c r="T103">
+        <f>SUM(H103,N103)</f>
+        <v/>
+      </c>
+      <c r="U103">
+        <f>SUM(I103,O103)</f>
+        <v/>
+      </c>
+      <c r="V103">
+        <f>SUM(J103,P103)</f>
+        <v/>
+      </c>
+      <c r="W103">
+        <f>SUM(K103,Q103)</f>
+        <v/>
       </c>
     </row>
     <row r="104">
@@ -4643,19 +4742,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C104" s="5" t="inlineStr">
+      <c r="C104" s="4" t="inlineStr">
         <is>
           <t>รณยุทธ</t>
         </is>
       </c>
-      <c r="D104" s="14" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="E104" s="15" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
+      <c r="D104" s="15" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E104" s="16" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="G104" s="1" t="inlineStr">
@@ -4663,42 +4762,60 @@
           <t>ปรมะ</t>
         </is>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>3</v>
-      </c>
-      <c r="J104" t="n">
-        <v>3</v>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104">
+        <f>COUNTIF($C$98:$D$98,"ปรมะ")+COUNTIF($C$107:$D$107,"ปรมะ")+COUNTIF($C$110:$D$110,"ปรมะ")+COUNTIF($C$113:$D$113,"ปรมะ")+COUNTIF($C$116:$D$116,"ปรมะ")+COUNTIF($C$119:$D$119,"ปรมะ")+COUNTIF($C$128:$D$128,"ปรมะ")+COUNTIF($C$131:$D$131,"ปรมะ")+COUNTIF($C$134:$D$134,"ปรมะ")+COUNTIF($C$137:$D$137,"ปรมะ")+COUNTIF($C$140:$D$140,"ปรมะ")+COUNTIF($C$149:$D$149,"ปรมะ")+COUNTIF($C$152:$D$152,"ปรมะ")+COUNTIF($C$155:$D$155,"ปรมะ")+COUNTIF($C$158:$D$158,"ปรมะ")+COUNTIF($C$161:$D$161,"ปรมะ")+COUNTIF($C$170:$D$170,"ปรมะ")+COUNTIF($C$173:$D$173,"ปรมะ")+COUNTIF($C$176:$D$176,"ปรมะ")+COUNTIF($C$179:$D$179,"ปรมะ")+COUNTIF($C$182:$D$182,"ปรมะ")</f>
+        <v/>
+      </c>
+      <c r="J104">
+        <f>COUNTIF($C$99:$D$99,"ปรมะ")+COUNTIF($C$108:$D$108,"ปรมะ")+COUNTIF($C$111:$D$111,"ปรมะ")+COUNTIF($C$114:$D$114,"ปรมะ")+COUNTIF($C$117:$D$117,"ปรมะ")+COUNTIF($C$120:$D$120,"ปรมะ")+COUNTIF($C$129:$D$129,"ปรมะ")+COUNTIF($C$132:$D$132,"ปรมะ")+COUNTIF($C$135:$D$135,"ปรมะ")+COUNTIF($C$138:$D$138,"ปรมะ")+COUNTIF($C$141:$D$141,"ปรมะ")+COUNTIF($C$150:$D$150,"ปรมะ")+COUNTIF($C$153:$D$153,"ปรมะ")+COUNTIF($C$156:$D$156,"ปรมะ")+COUNTIF($C$159:$D$159,"ปรมะ")+COUNTIF($C$162:$D$162,"ปรมะ")+COUNTIF($C$171:$D$171,"ปรมะ")+COUNTIF($C$174:$D$174,"ปรมะ")+COUNTIF($C$177:$D$177,"ปรมะ")+COUNTIF($C$180:$D$180,"ปรมะ")+COUNTIF($C$183:$D$183,"ปรมะ")</f>
+        <v/>
+      </c>
+      <c r="K104">
+        <f>SUM(H104:J104)</f>
+        <v/>
       </c>
       <c r="M104" s="1" t="inlineStr">
         <is>
           <t>ปรมะ</t>
         </is>
       </c>
-      <c r="N104" t="n">
-        <v>2</v>
-      </c>
-      <c r="O104" t="n">
-        <v>1</v>
-      </c>
-      <c r="P104" t="n">
-        <v>2</v>
+      <c r="N104">
+        <f>COUNTIF($C$100:$D$100,"ปรมะ")+COUNTIF($C$103:$D$103,"ปรมะ")+COUNTIF($C$121:$D$121,"ปรมะ")+COUNTIF($C$124:$D$124,"ปรมะ")+COUNTIF($C$142:$D$142,"ปรมะ")+COUNTIF($C$145:$D$145,"ปรมะ")+COUNTIF($C$163:$D$163,"ปรมะ")+COUNTIF($C$166:$D$166,"ปรมะ")+COUNTIF($C$184:$D$184,"ปรมะ")+COUNTIF($C$187:$D$187,"ปรมะ")</f>
+        <v/>
+      </c>
+      <c r="O104">
+        <f>COUNTIF($C$101:$D$101,"ปรมะ")+COUNTIF($C$104:$D$104,"ปรมะ")+COUNTIF($C$122:$D$122,"ปรมะ")+COUNTIF($C$125:$D$125,"ปรมะ")+COUNTIF($C$143:$D$143,"ปรมะ")+COUNTIF($C$146:$D$146,"ปรมะ")+COUNTIF($C$164:$D$164,"ปรมะ")+COUNTIF($C$167:$D$167,"ปรมะ")+COUNTIF($C$185:$D$185,"ปรมะ")+COUNTIF($C$188:$D$188,"ปรมะ")</f>
+        <v/>
+      </c>
+      <c r="P104">
+        <f>COUNTIF($C$102:$D$102,"ปรมะ")+COUNTIF($C$105:$D$105,"ปรมะ")+COUNTIF($C$123:$D$123,"ปรมะ")+COUNTIF($C$126:$D$126,"ปรมะ")+COUNTIF($C$144:$D$144,"ปรมะ")+COUNTIF($C$147:$D$147,"ปรมะ")+COUNTIF($C$165:$D$165,"ปรมะ")+COUNTIF($C$168:$D$168,"ปรมะ")+COUNTIF($C$186:$D$186,"ปรมะ")+COUNTIF($C$189:$D$189,"ปรมะ")</f>
+        <v/>
+      </c>
+      <c r="Q104">
+        <f>SUM(N104:P104)</f>
+        <v/>
       </c>
       <c r="S104" s="1" t="inlineStr">
         <is>
           <t>ปรมะ</t>
         </is>
       </c>
-      <c r="T104" t="n">
-        <v>2</v>
-      </c>
-      <c r="U104" t="n">
-        <v>4</v>
-      </c>
-      <c r="V104" t="n">
-        <v>5</v>
+      <c r="T104">
+        <f>SUM(H104,N104)</f>
+        <v/>
+      </c>
+      <c r="U104">
+        <f>SUM(I104,O104)</f>
+        <v/>
+      </c>
+      <c r="V104">
+        <f>SUM(J104,P104)</f>
+        <v/>
+      </c>
+      <c r="W104">
+        <f>SUM(K104,Q104)</f>
+        <v/>
       </c>
     </row>
     <row r="105">
@@ -4707,19 +4824,19 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C105" s="8" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="D105" s="10" t="inlineStr">
+      <c r="C105" s="4" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="D105" s="15" t="inlineStr">
         <is>
           <t>นฤชิต</t>
         </is>
       </c>
-      <c r="E105" s="12" t="inlineStr">
-        <is>
-          <t>วินัย</t>
+      <c r="E105" s="16" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="G105" s="1" t="inlineStr">
@@ -4727,42 +4844,60 @@
           <t>สัญญา</t>
         </is>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>3</v>
-      </c>
-      <c r="J105" t="n">
-        <v>3</v>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105">
+        <f>COUNTIF($C$98:$D$98,"สัญญา")+COUNTIF($C$107:$D$107,"สัญญา")+COUNTIF($C$110:$D$110,"สัญญา")+COUNTIF($C$113:$D$113,"สัญญา")+COUNTIF($C$116:$D$116,"สัญญา")+COUNTIF($C$119:$D$119,"สัญญา")+COUNTIF($C$128:$D$128,"สัญญา")+COUNTIF($C$131:$D$131,"สัญญา")+COUNTIF($C$134:$D$134,"สัญญา")+COUNTIF($C$137:$D$137,"สัญญา")+COUNTIF($C$140:$D$140,"สัญญา")+COUNTIF($C$149:$D$149,"สัญญา")+COUNTIF($C$152:$D$152,"สัญญา")+COUNTIF($C$155:$D$155,"สัญญา")+COUNTIF($C$158:$D$158,"สัญญา")+COUNTIF($C$161:$D$161,"สัญญา")+COUNTIF($C$170:$D$170,"สัญญา")+COUNTIF($C$173:$D$173,"สัญญา")+COUNTIF($C$176:$D$176,"สัญญา")+COUNTIF($C$179:$D$179,"สัญญา")+COUNTIF($C$182:$D$182,"สัญญา")</f>
+        <v/>
+      </c>
+      <c r="J105">
+        <f>COUNTIF($C$99:$D$99,"สัญญา")+COUNTIF($C$108:$D$108,"สัญญา")+COUNTIF($C$111:$D$111,"สัญญา")+COUNTIF($C$114:$D$114,"สัญญา")+COUNTIF($C$117:$D$117,"สัญญา")+COUNTIF($C$120:$D$120,"สัญญา")+COUNTIF($C$129:$D$129,"สัญญา")+COUNTIF($C$132:$D$132,"สัญญา")+COUNTIF($C$135:$D$135,"สัญญา")+COUNTIF($C$138:$D$138,"สัญญา")+COUNTIF($C$141:$D$141,"สัญญา")+COUNTIF($C$150:$D$150,"สัญญา")+COUNTIF($C$153:$D$153,"สัญญา")+COUNTIF($C$156:$D$156,"สัญญา")+COUNTIF($C$159:$D$159,"สัญญา")+COUNTIF($C$162:$D$162,"สัญญา")+COUNTIF($C$171:$D$171,"สัญญา")+COUNTIF($C$174:$D$174,"สัญญา")+COUNTIF($C$177:$D$177,"สัญญา")+COUNTIF($C$180:$D$180,"สัญญา")+COUNTIF($C$183:$D$183,"สัญญา")</f>
+        <v/>
+      </c>
+      <c r="K105">
+        <f>SUM(H105:J105)</f>
+        <v/>
       </c>
       <c r="M105" s="1" t="inlineStr">
         <is>
           <t>สัญญา</t>
         </is>
       </c>
-      <c r="N105" t="n">
-        <v>2</v>
-      </c>
-      <c r="O105" t="n">
-        <v>2</v>
-      </c>
-      <c r="P105" t="n">
-        <v>1</v>
+      <c r="N105">
+        <f>COUNTIF($C$100:$D$100,"สัญญา")+COUNTIF($C$103:$D$103,"สัญญา")+COUNTIF($C$121:$D$121,"สัญญา")+COUNTIF($C$124:$D$124,"สัญญา")+COUNTIF($C$142:$D$142,"สัญญา")+COUNTIF($C$145:$D$145,"สัญญา")+COUNTIF($C$163:$D$163,"สัญญา")+COUNTIF($C$166:$D$166,"สัญญา")+COUNTIF($C$184:$D$184,"สัญญา")+COUNTIF($C$187:$D$187,"สัญญา")</f>
+        <v/>
+      </c>
+      <c r="O105">
+        <f>COUNTIF($C$101:$D$101,"สัญญา")+COUNTIF($C$104:$D$104,"สัญญา")+COUNTIF($C$122:$D$122,"สัญญา")+COUNTIF($C$125:$D$125,"สัญญา")+COUNTIF($C$143:$D$143,"สัญญา")+COUNTIF($C$146:$D$146,"สัญญา")+COUNTIF($C$164:$D$164,"สัญญา")+COUNTIF($C$167:$D$167,"สัญญา")+COUNTIF($C$185:$D$185,"สัญญา")+COUNTIF($C$188:$D$188,"สัญญา")</f>
+        <v/>
+      </c>
+      <c r="P105">
+        <f>COUNTIF($C$102:$D$102,"สัญญา")+COUNTIF($C$105:$D$105,"สัญญา")+COUNTIF($C$123:$D$123,"สัญญา")+COUNTIF($C$126:$D$126,"สัญญา")+COUNTIF($C$144:$D$144,"สัญญา")+COUNTIF($C$147:$D$147,"สัญญา")+COUNTIF($C$165:$D$165,"สัญญา")+COUNTIF($C$168:$D$168,"สัญญา")+COUNTIF($C$186:$D$186,"สัญญา")+COUNTIF($C$189:$D$189,"สัญญา")</f>
+        <v/>
+      </c>
+      <c r="Q105">
+        <f>SUM(N105:P105)</f>
+        <v/>
       </c>
       <c r="S105" s="1" t="inlineStr">
         <is>
           <t>สัญญา</t>
         </is>
       </c>
-      <c r="T105" t="n">
-        <v>2</v>
-      </c>
-      <c r="U105" t="n">
-        <v>5</v>
-      </c>
-      <c r="V105" t="n">
-        <v>4</v>
+      <c r="T105">
+        <f>SUM(H105,N105)</f>
+        <v/>
+      </c>
+      <c r="U105">
+        <f>SUM(I105,O105)</f>
+        <v/>
+      </c>
+      <c r="V105">
+        <f>SUM(J105,P105)</f>
+        <v/>
+      </c>
+      <c r="W105">
+        <f>SUM(K105,Q105)</f>
+        <v/>
       </c>
     </row>
     <row r="106">
@@ -4781,42 +4916,60 @@
           <t>วินัย</t>
         </is>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>3</v>
-      </c>
-      <c r="J106" t="n">
-        <v>3</v>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106">
+        <f>COUNTIF($C$98:$D$98,"วินัย")+COUNTIF($C$107:$D$107,"วินัย")+COUNTIF($C$110:$D$110,"วินัย")+COUNTIF($C$113:$D$113,"วินัย")+COUNTIF($C$116:$D$116,"วินัย")+COUNTIF($C$119:$D$119,"วินัย")+COUNTIF($C$128:$D$128,"วินัย")+COUNTIF($C$131:$D$131,"วินัย")+COUNTIF($C$134:$D$134,"วินัย")+COUNTIF($C$137:$D$137,"วินัย")+COUNTIF($C$140:$D$140,"วินัย")+COUNTIF($C$149:$D$149,"วินัย")+COUNTIF($C$152:$D$152,"วินัย")+COUNTIF($C$155:$D$155,"วินัย")+COUNTIF($C$158:$D$158,"วินัย")+COUNTIF($C$161:$D$161,"วินัย")+COUNTIF($C$170:$D$170,"วินัย")+COUNTIF($C$173:$D$173,"วินัย")+COUNTIF($C$176:$D$176,"วินัย")+COUNTIF($C$179:$D$179,"วินัย")+COUNTIF($C$182:$D$182,"วินัย")</f>
+        <v/>
+      </c>
+      <c r="J106">
+        <f>COUNTIF($C$99:$D$99,"วินัย")+COUNTIF($C$108:$D$108,"วินัย")+COUNTIF($C$111:$D$111,"วินัย")+COUNTIF($C$114:$D$114,"วินัย")+COUNTIF($C$117:$D$117,"วินัย")+COUNTIF($C$120:$D$120,"วินัย")+COUNTIF($C$129:$D$129,"วินัย")+COUNTIF($C$132:$D$132,"วินัย")+COUNTIF($C$135:$D$135,"วินัย")+COUNTIF($C$138:$D$138,"วินัย")+COUNTIF($C$141:$D$141,"วินัย")+COUNTIF($C$150:$D$150,"วินัย")+COUNTIF($C$153:$D$153,"วินัย")+COUNTIF($C$156:$D$156,"วินัย")+COUNTIF($C$159:$D$159,"วินัย")+COUNTIF($C$162:$D$162,"วินัย")+COUNTIF($C$171:$D$171,"วินัย")+COUNTIF($C$174:$D$174,"วินัย")+COUNTIF($C$177:$D$177,"วินัย")+COUNTIF($C$180:$D$180,"วินัย")+COUNTIF($C$183:$D$183,"วินัย")</f>
+        <v/>
+      </c>
+      <c r="K106">
+        <f>SUM(H106:J106)</f>
+        <v/>
       </c>
       <c r="M106" s="1" t="inlineStr">
         <is>
           <t>วินัย</t>
         </is>
       </c>
-      <c r="N106" t="n">
-        <v>2</v>
-      </c>
-      <c r="O106" t="n">
-        <v>2</v>
-      </c>
-      <c r="P106" t="n">
-        <v>1</v>
+      <c r="N106">
+        <f>COUNTIF($C$100:$D$100,"วินัย")+COUNTIF($C$103:$D$103,"วินัย")+COUNTIF($C$121:$D$121,"วินัย")+COUNTIF($C$124:$D$124,"วินัย")+COUNTIF($C$142:$D$142,"วินัย")+COUNTIF($C$145:$D$145,"วินัย")+COUNTIF($C$163:$D$163,"วินัย")+COUNTIF($C$166:$D$166,"วินัย")+COUNTIF($C$184:$D$184,"วินัย")+COUNTIF($C$187:$D$187,"วินัย")</f>
+        <v/>
+      </c>
+      <c r="O106">
+        <f>COUNTIF($C$101:$D$101,"วินัย")+COUNTIF($C$104:$D$104,"วินัย")+COUNTIF($C$122:$D$122,"วินัย")+COUNTIF($C$125:$D$125,"วินัย")+COUNTIF($C$143:$D$143,"วินัย")+COUNTIF($C$146:$D$146,"วินัย")+COUNTIF($C$164:$D$164,"วินัย")+COUNTIF($C$167:$D$167,"วินัย")+COUNTIF($C$185:$D$185,"วินัย")+COUNTIF($C$188:$D$188,"วินัย")</f>
+        <v/>
+      </c>
+      <c r="P106">
+        <f>COUNTIF($C$102:$D$102,"วินัย")+COUNTIF($C$105:$D$105,"วินัย")+COUNTIF($C$123:$D$123,"วินัย")+COUNTIF($C$126:$D$126,"วินัย")+COUNTIF($C$144:$D$144,"วินัย")+COUNTIF($C$147:$D$147,"วินัย")+COUNTIF($C$165:$D$165,"วินัย")+COUNTIF($C$168:$D$168,"วินัย")+COUNTIF($C$186:$D$186,"วินัย")+COUNTIF($C$189:$D$189,"วินัย")</f>
+        <v/>
+      </c>
+      <c r="Q106">
+        <f>SUM(N106:P106)</f>
+        <v/>
       </c>
       <c r="S106" s="1" t="inlineStr">
         <is>
           <t>วินัย</t>
         </is>
       </c>
-      <c r="T106" t="n">
-        <v>2</v>
-      </c>
-      <c r="U106" t="n">
-        <v>5</v>
-      </c>
-      <c r="V106" t="n">
-        <v>4</v>
+      <c r="T106">
+        <f>SUM(H106,N106)</f>
+        <v/>
+      </c>
+      <c r="U106">
+        <f>SUM(I106,O106)</f>
+        <v/>
+      </c>
+      <c r="V106">
+        <f>SUM(J106,P106)</f>
+        <v/>
+      </c>
+      <c r="W106">
+        <f>SUM(K106,Q106)</f>
+        <v/>
       </c>
     </row>
     <row r="107">
@@ -4825,19 +4978,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C107" s="6" t="inlineStr">
+      <c r="C107" s="9" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D107" s="17" t="inlineStr">
         <is>
           <t>จีรวัฒน์</t>
         </is>
       </c>
-      <c r="D107" s="4" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="E107" s="7" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
+      <c r="E107" s="10" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
         </is>
       </c>
       <c r="G107" s="1" t="inlineStr">
@@ -4845,42 +4998,60 @@
           <t>รณยุทธ</t>
         </is>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>3</v>
-      </c>
-      <c r="J107" t="n">
-        <v>3</v>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107">
+        <f>COUNTIF($C$98:$D$98,"รณยุทธ")+COUNTIF($C$107:$D$107,"รณยุทธ")+COUNTIF($C$110:$D$110,"รณยุทธ")+COUNTIF($C$113:$D$113,"รณยุทธ")+COUNTIF($C$116:$D$116,"รณยุทธ")+COUNTIF($C$119:$D$119,"รณยุทธ")+COUNTIF($C$128:$D$128,"รณยุทธ")+COUNTIF($C$131:$D$131,"รณยุทธ")+COUNTIF($C$134:$D$134,"รณยุทธ")+COUNTIF($C$137:$D$137,"รณยุทธ")+COUNTIF($C$140:$D$140,"รณยุทธ")+COUNTIF($C$149:$D$149,"รณยุทธ")+COUNTIF($C$152:$D$152,"รณยุทธ")+COUNTIF($C$155:$D$155,"รณยุทธ")+COUNTIF($C$158:$D$158,"รณยุทธ")+COUNTIF($C$161:$D$161,"รณยุทธ")+COUNTIF($C$170:$D$170,"รณยุทธ")+COUNTIF($C$173:$D$173,"รณยุทธ")+COUNTIF($C$176:$D$176,"รณยุทธ")+COUNTIF($C$179:$D$179,"รณยุทธ")+COUNTIF($C$182:$D$182,"รณยุทธ")</f>
+        <v/>
+      </c>
+      <c r="J107">
+        <f>COUNTIF($C$99:$D$99,"รณยุทธ")+COUNTIF($C$108:$D$108,"รณยุทธ")+COUNTIF($C$111:$D$111,"รณยุทธ")+COUNTIF($C$114:$D$114,"รณยุทธ")+COUNTIF($C$117:$D$117,"รณยุทธ")+COUNTIF($C$120:$D$120,"รณยุทธ")+COUNTIF($C$129:$D$129,"รณยุทธ")+COUNTIF($C$132:$D$132,"รณยุทธ")+COUNTIF($C$135:$D$135,"รณยุทธ")+COUNTIF($C$138:$D$138,"รณยุทธ")+COUNTIF($C$141:$D$141,"รณยุทธ")+COUNTIF($C$150:$D$150,"รณยุทธ")+COUNTIF($C$153:$D$153,"รณยุทธ")+COUNTIF($C$156:$D$156,"รณยุทธ")+COUNTIF($C$159:$D$159,"รณยุทธ")+COUNTIF($C$162:$D$162,"รณยุทธ")+COUNTIF($C$171:$D$171,"รณยุทธ")+COUNTIF($C$174:$D$174,"รณยุทธ")+COUNTIF($C$177:$D$177,"รณยุทธ")+COUNTIF($C$180:$D$180,"รณยุทธ")+COUNTIF($C$183:$D$183,"รณยุทธ")</f>
+        <v/>
+      </c>
+      <c r="K107">
+        <f>SUM(H107:J107)</f>
+        <v/>
       </c>
       <c r="M107" s="1" t="inlineStr">
         <is>
           <t>รณยุทธ</t>
         </is>
       </c>
-      <c r="N107" t="n">
-        <v>1</v>
-      </c>
-      <c r="O107" t="n">
-        <v>1</v>
-      </c>
-      <c r="P107" t="n">
-        <v>2</v>
+      <c r="N107">
+        <f>COUNTIF($C$100:$D$100,"รณยุทธ")+COUNTIF($C$103:$D$103,"รณยุทธ")+COUNTIF($C$121:$D$121,"รณยุทธ")+COUNTIF($C$124:$D$124,"รณยุทธ")+COUNTIF($C$142:$D$142,"รณยุทธ")+COUNTIF($C$145:$D$145,"รณยุทธ")+COUNTIF($C$163:$D$163,"รณยุทธ")+COUNTIF($C$166:$D$166,"รณยุทธ")+COUNTIF($C$184:$D$184,"รณยุทธ")+COUNTIF($C$187:$D$187,"รณยุทธ")</f>
+        <v/>
+      </c>
+      <c r="O107">
+        <f>COUNTIF($C$101:$D$101,"รณยุทธ")+COUNTIF($C$104:$D$104,"รณยุทธ")+COUNTIF($C$122:$D$122,"รณยุทธ")+COUNTIF($C$125:$D$125,"รณยุทธ")+COUNTIF($C$143:$D$143,"รณยุทธ")+COUNTIF($C$146:$D$146,"รณยุทธ")+COUNTIF($C$164:$D$164,"รณยุทธ")+COUNTIF($C$167:$D$167,"รณยุทธ")+COUNTIF($C$185:$D$185,"รณยุทธ")+COUNTIF($C$188:$D$188,"รณยุทธ")</f>
+        <v/>
+      </c>
+      <c r="P107">
+        <f>COUNTIF($C$102:$D$102,"รณยุทธ")+COUNTIF($C$105:$D$105,"รณยุทธ")+COUNTIF($C$123:$D$123,"รณยุทธ")+COUNTIF($C$126:$D$126,"รณยุทธ")+COUNTIF($C$144:$D$144,"รณยุทธ")+COUNTIF($C$147:$D$147,"รณยุทธ")+COUNTIF($C$165:$D$165,"รณยุทธ")+COUNTIF($C$168:$D$168,"รณยุทธ")+COUNTIF($C$186:$D$186,"รณยุทธ")+COUNTIF($C$189:$D$189,"รณยุทธ")</f>
+        <v/>
+      </c>
+      <c r="Q107">
+        <f>SUM(N107:P107)</f>
+        <v/>
       </c>
       <c r="S107" s="1" t="inlineStr">
         <is>
           <t>รณยุทธ</t>
         </is>
       </c>
-      <c r="T107" t="n">
-        <v>1</v>
-      </c>
-      <c r="U107" t="n">
-        <v>4</v>
-      </c>
-      <c r="V107" t="n">
-        <v>5</v>
+      <c r="T107">
+        <f>SUM(H107,N107)</f>
+        <v/>
+      </c>
+      <c r="U107">
+        <f>SUM(I107,O107)</f>
+        <v/>
+      </c>
+      <c r="V107">
+        <f>SUM(J107,P107)</f>
+        <v/>
+      </c>
+      <c r="W107">
+        <f>SUM(K107,Q107)</f>
+        <v/>
       </c>
     </row>
     <row r="108">
@@ -4889,19 +5060,19 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C108" s="6" t="inlineStr">
+      <c r="C108" s="9" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D108" s="17" t="inlineStr">
         <is>
           <t>จีรวัฒน์</t>
         </is>
       </c>
-      <c r="D108" s="4" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="E108" s="9" t="inlineStr">
-        <is>
-          <t>นที</t>
+      <c r="E108" s="10" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
         </is>
       </c>
       <c r="G108" s="2" t="inlineStr">
@@ -4909,42 +5080,60 @@
           <t>วัฒพงษ์</t>
         </is>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>3</v>
-      </c>
-      <c r="J108" t="n">
-        <v>3</v>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108">
+        <f>COUNTIF($C$98:$D$98,"วัฒพงษ์")+COUNTIF($C$107:$D$107,"วัฒพงษ์")+COUNTIF($C$110:$D$110,"วัฒพงษ์")+COUNTIF($C$113:$D$113,"วัฒพงษ์")+COUNTIF($C$116:$D$116,"วัฒพงษ์")+COUNTIF($C$119:$D$119,"วัฒพงษ์")+COUNTIF($C$128:$D$128,"วัฒพงษ์")+COUNTIF($C$131:$D$131,"วัฒพงษ์")+COUNTIF($C$134:$D$134,"วัฒพงษ์")+COUNTIF($C$137:$D$137,"วัฒพงษ์")+COUNTIF($C$140:$D$140,"วัฒพงษ์")+COUNTIF($C$149:$D$149,"วัฒพงษ์")+COUNTIF($C$152:$D$152,"วัฒพงษ์")+COUNTIF($C$155:$D$155,"วัฒพงษ์")+COUNTIF($C$158:$D$158,"วัฒพงษ์")+COUNTIF($C$161:$D$161,"วัฒพงษ์")+COUNTIF($C$170:$D$170,"วัฒพงษ์")+COUNTIF($C$173:$D$173,"วัฒพงษ์")+COUNTIF($C$176:$D$176,"วัฒพงษ์")+COUNTIF($C$179:$D$179,"วัฒพงษ์")+COUNTIF($C$182:$D$182,"วัฒพงษ์")</f>
+        <v/>
+      </c>
+      <c r="J108">
+        <f>COUNTIF($C$99:$D$99,"วัฒพงษ์")+COUNTIF($C$108:$D$108,"วัฒพงษ์")+COUNTIF($C$111:$D$111,"วัฒพงษ์")+COUNTIF($C$114:$D$114,"วัฒพงษ์")+COUNTIF($C$117:$D$117,"วัฒพงษ์")+COUNTIF($C$120:$D$120,"วัฒพงษ์")+COUNTIF($C$129:$D$129,"วัฒพงษ์")+COUNTIF($C$132:$D$132,"วัฒพงษ์")+COUNTIF($C$135:$D$135,"วัฒพงษ์")+COUNTIF($C$138:$D$138,"วัฒพงษ์")+COUNTIF($C$141:$D$141,"วัฒพงษ์")+COUNTIF($C$150:$D$150,"วัฒพงษ์")+COUNTIF($C$153:$D$153,"วัฒพงษ์")+COUNTIF($C$156:$D$156,"วัฒพงษ์")+COUNTIF($C$159:$D$159,"วัฒพงษ์")+COUNTIF($C$162:$D$162,"วัฒพงษ์")+COUNTIF($C$171:$D$171,"วัฒพงษ์")+COUNTIF($C$174:$D$174,"วัฒพงษ์")+COUNTIF($C$177:$D$177,"วัฒพงษ์")+COUNTIF($C$180:$D$180,"วัฒพงษ์")+COUNTIF($C$183:$D$183,"วัฒพงษ์")</f>
+        <v/>
+      </c>
+      <c r="K108">
+        <f>SUM(H108:J108)</f>
+        <v/>
       </c>
       <c r="M108" s="2" t="inlineStr">
         <is>
           <t>วัฒพงษ์</t>
         </is>
       </c>
-      <c r="N108" t="n">
-        <v>1</v>
-      </c>
-      <c r="O108" t="n">
-        <v>1</v>
-      </c>
-      <c r="P108" t="n">
-        <v>1</v>
+      <c r="N108">
+        <f>COUNTIF($C$100:$D$100,"วัฒพงษ์")+COUNTIF($C$103:$D$103,"วัฒพงษ์")+COUNTIF($C$121:$D$121,"วัฒพงษ์")+COUNTIF($C$124:$D$124,"วัฒพงษ์")+COUNTIF($C$142:$D$142,"วัฒพงษ์")+COUNTIF($C$145:$D$145,"วัฒพงษ์")+COUNTIF($C$163:$D$163,"วัฒพงษ์")+COUNTIF($C$166:$D$166,"วัฒพงษ์")+COUNTIF($C$184:$D$184,"วัฒพงษ์")+COUNTIF($C$187:$D$187,"วัฒพงษ์")</f>
+        <v/>
+      </c>
+      <c r="O108">
+        <f>COUNTIF($C$101:$D$101,"วัฒพงษ์")+COUNTIF($C$104:$D$104,"วัฒพงษ์")+COUNTIF($C$122:$D$122,"วัฒพงษ์")+COUNTIF($C$125:$D$125,"วัฒพงษ์")+COUNTIF($C$143:$D$143,"วัฒพงษ์")+COUNTIF($C$146:$D$146,"วัฒพงษ์")+COUNTIF($C$164:$D$164,"วัฒพงษ์")+COUNTIF($C$167:$D$167,"วัฒพงษ์")+COUNTIF($C$185:$D$185,"วัฒพงษ์")+COUNTIF($C$188:$D$188,"วัฒพงษ์")</f>
+        <v/>
+      </c>
+      <c r="P108">
+        <f>COUNTIF($C$102:$D$102,"วัฒพงษ์")+COUNTIF($C$105:$D$105,"วัฒพงษ์")+COUNTIF($C$123:$D$123,"วัฒพงษ์")+COUNTIF($C$126:$D$126,"วัฒพงษ์")+COUNTIF($C$144:$D$144,"วัฒพงษ์")+COUNTIF($C$147:$D$147,"วัฒพงษ์")+COUNTIF($C$165:$D$165,"วัฒพงษ์")+COUNTIF($C$168:$D$168,"วัฒพงษ์")+COUNTIF($C$186:$D$186,"วัฒพงษ์")+COUNTIF($C$189:$D$189,"วัฒพงษ์")</f>
+        <v/>
+      </c>
+      <c r="Q108">
+        <f>SUM(N108:P108)</f>
+        <v/>
       </c>
       <c r="S108" s="2" t="inlineStr">
         <is>
           <t>วัฒพงษ์</t>
         </is>
       </c>
-      <c r="T108" t="n">
-        <v>1</v>
-      </c>
-      <c r="U108" t="n">
-        <v>4</v>
-      </c>
-      <c r="V108" t="n">
-        <v>4</v>
+      <c r="T108">
+        <f>SUM(H108,N108)</f>
+        <v/>
+      </c>
+      <c r="U108">
+        <f>SUM(I108,O108)</f>
+        <v/>
+      </c>
+      <c r="V108">
+        <f>SUM(J108,P108)</f>
+        <v/>
+      </c>
+      <c r="W108">
+        <f>SUM(K108,Q108)</f>
+        <v/>
       </c>
     </row>
     <row r="109">
@@ -4963,42 +5152,60 @@
           <t>ราเชน</t>
         </is>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>3</v>
-      </c>
-      <c r="J109" t="n">
-        <v>3</v>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109">
+        <f>COUNTIF($C$98:$D$98,"ราเชน")+COUNTIF($C$107:$D$107,"ราเชน")+COUNTIF($C$110:$D$110,"ราเชน")+COUNTIF($C$113:$D$113,"ราเชน")+COUNTIF($C$116:$D$116,"ราเชน")+COUNTIF($C$119:$D$119,"ราเชน")+COUNTIF($C$128:$D$128,"ราเชน")+COUNTIF($C$131:$D$131,"ราเชน")+COUNTIF($C$134:$D$134,"ราเชน")+COUNTIF($C$137:$D$137,"ราเชน")+COUNTIF($C$140:$D$140,"ราเชน")+COUNTIF($C$149:$D$149,"ราเชน")+COUNTIF($C$152:$D$152,"ราเชน")+COUNTIF($C$155:$D$155,"ราเชน")+COUNTIF($C$158:$D$158,"ราเชน")+COUNTIF($C$161:$D$161,"ราเชน")+COUNTIF($C$170:$D$170,"ราเชน")+COUNTIF($C$173:$D$173,"ราเชน")+COUNTIF($C$176:$D$176,"ราเชน")+COUNTIF($C$179:$D$179,"ราเชน")+COUNTIF($C$182:$D$182,"ราเชน")</f>
+        <v/>
+      </c>
+      <c r="J109">
+        <f>COUNTIF($C$99:$D$99,"ราเชน")+COUNTIF($C$108:$D$108,"ราเชน")+COUNTIF($C$111:$D$111,"ราเชน")+COUNTIF($C$114:$D$114,"ราเชน")+COUNTIF($C$117:$D$117,"ราเชน")+COUNTIF($C$120:$D$120,"ราเชน")+COUNTIF($C$129:$D$129,"ราเชน")+COUNTIF($C$132:$D$132,"ราเชน")+COUNTIF($C$135:$D$135,"ราเชน")+COUNTIF($C$138:$D$138,"ราเชน")+COUNTIF($C$141:$D$141,"ราเชน")+COUNTIF($C$150:$D$150,"ราเชน")+COUNTIF($C$153:$D$153,"ราเชน")+COUNTIF($C$156:$D$156,"ราเชน")+COUNTIF($C$159:$D$159,"ราเชน")+COUNTIF($C$162:$D$162,"ราเชน")+COUNTIF($C$171:$D$171,"ราเชน")+COUNTIF($C$174:$D$174,"ราเชน")+COUNTIF($C$177:$D$177,"ราเชน")+COUNTIF($C$180:$D$180,"ราเชน")+COUNTIF($C$183:$D$183,"ราเชน")</f>
+        <v/>
+      </c>
+      <c r="K109">
+        <f>SUM(H109:J109)</f>
+        <v/>
       </c>
       <c r="M109" s="2" t="inlineStr">
         <is>
           <t>ราเชน</t>
         </is>
       </c>
-      <c r="N109" t="n">
-        <v>1</v>
-      </c>
-      <c r="O109" t="n">
-        <v>1</v>
-      </c>
-      <c r="P109" t="n">
-        <v>1</v>
+      <c r="N109">
+        <f>COUNTIF($C$100:$D$100,"ราเชน")+COUNTIF($C$103:$D$103,"ราเชน")+COUNTIF($C$121:$D$121,"ราเชน")+COUNTIF($C$124:$D$124,"ราเชน")+COUNTIF($C$142:$D$142,"ราเชน")+COUNTIF($C$145:$D$145,"ราเชน")+COUNTIF($C$163:$D$163,"ราเชน")+COUNTIF($C$166:$D$166,"ราเชน")+COUNTIF($C$184:$D$184,"ราเชน")+COUNTIF($C$187:$D$187,"ราเชน")</f>
+        <v/>
+      </c>
+      <c r="O109">
+        <f>COUNTIF($C$101:$D$101,"ราเชน")+COUNTIF($C$104:$D$104,"ราเชน")+COUNTIF($C$122:$D$122,"ราเชน")+COUNTIF($C$125:$D$125,"ราเชน")+COUNTIF($C$143:$D$143,"ราเชน")+COUNTIF($C$146:$D$146,"ราเชน")+COUNTIF($C$164:$D$164,"ราเชน")+COUNTIF($C$167:$D$167,"ราเชน")+COUNTIF($C$185:$D$185,"ราเชน")+COUNTIF($C$188:$D$188,"ราเชน")</f>
+        <v/>
+      </c>
+      <c r="P109">
+        <f>COUNTIF($C$102:$D$102,"ราเชน")+COUNTIF($C$105:$D$105,"ราเชน")+COUNTIF($C$123:$D$123,"ราเชน")+COUNTIF($C$126:$D$126,"ราเชน")+COUNTIF($C$144:$D$144,"ราเชน")+COUNTIF($C$147:$D$147,"ราเชน")+COUNTIF($C$165:$D$165,"ราเชน")+COUNTIF($C$168:$D$168,"ราเชน")+COUNTIF($C$186:$D$186,"ราเชน")+COUNTIF($C$189:$D$189,"ราเชน")</f>
+        <v/>
+      </c>
+      <c r="Q109">
+        <f>SUM(N109:P109)</f>
+        <v/>
       </c>
       <c r="S109" s="2" t="inlineStr">
         <is>
           <t>ราเชน</t>
         </is>
       </c>
-      <c r="T109" t="n">
-        <v>1</v>
-      </c>
-      <c r="U109" t="n">
-        <v>4</v>
-      </c>
-      <c r="V109" t="n">
-        <v>4</v>
+      <c r="T109">
+        <f>SUM(H109,N109)</f>
+        <v/>
+      </c>
+      <c r="U109">
+        <f>SUM(I109,O109)</f>
+        <v/>
+      </c>
+      <c r="V109">
+        <f>SUM(J109,P109)</f>
+        <v/>
+      </c>
+      <c r="W109">
+        <f>SUM(K109,Q109)</f>
+        <v/>
       </c>
     </row>
     <row r="110">
@@ -5007,62 +5214,80 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C110" s="3" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="D110" s="10" t="inlineStr">
+      <c r="C110" s="4" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="D110" s="8" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E110" s="14" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="G110" s="2" t="inlineStr">
         <is>
           <t>นฤชิต</t>
         </is>
       </c>
-      <c r="E110" s="9" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="G110" s="2" t="inlineStr">
+      <c r="H110" t="inlineStr"/>
+      <c r="I110">
+        <f>COUNTIF($C$98:$D$98,"นฤชิต")+COUNTIF($C$107:$D$107,"นฤชิต")+COUNTIF($C$110:$D$110,"นฤชิต")+COUNTIF($C$113:$D$113,"นฤชิต")+COUNTIF($C$116:$D$116,"นฤชิต")+COUNTIF($C$119:$D$119,"นฤชิต")+COUNTIF($C$128:$D$128,"นฤชิต")+COUNTIF($C$131:$D$131,"นฤชิต")+COUNTIF($C$134:$D$134,"นฤชิต")+COUNTIF($C$137:$D$137,"นฤชิต")+COUNTIF($C$140:$D$140,"นฤชิต")+COUNTIF($C$149:$D$149,"นฤชิต")+COUNTIF($C$152:$D$152,"นฤชิต")+COUNTIF($C$155:$D$155,"นฤชิต")+COUNTIF($C$158:$D$158,"นฤชิต")+COUNTIF($C$161:$D$161,"นฤชิต")+COUNTIF($C$170:$D$170,"นฤชิต")+COUNTIF($C$173:$D$173,"นฤชิต")+COUNTIF($C$176:$D$176,"นฤชิต")+COUNTIF($C$179:$D$179,"นฤชิต")+COUNTIF($C$182:$D$182,"นฤชิต")</f>
+        <v/>
+      </c>
+      <c r="J110">
+        <f>COUNTIF($C$99:$D$99,"นฤชิต")+COUNTIF($C$108:$D$108,"นฤชิต")+COUNTIF($C$111:$D$111,"นฤชิต")+COUNTIF($C$114:$D$114,"นฤชิต")+COUNTIF($C$117:$D$117,"นฤชิต")+COUNTIF($C$120:$D$120,"นฤชิต")+COUNTIF($C$129:$D$129,"นฤชิต")+COUNTIF($C$132:$D$132,"นฤชิต")+COUNTIF($C$135:$D$135,"นฤชิต")+COUNTIF($C$138:$D$138,"นฤชิต")+COUNTIF($C$141:$D$141,"นฤชิต")+COUNTIF($C$150:$D$150,"นฤชิต")+COUNTIF($C$153:$D$153,"นฤชิต")+COUNTIF($C$156:$D$156,"นฤชิต")+COUNTIF($C$159:$D$159,"นฤชิต")+COUNTIF($C$162:$D$162,"นฤชิต")+COUNTIF($C$171:$D$171,"นฤชิต")+COUNTIF($C$174:$D$174,"นฤชิต")+COUNTIF($C$177:$D$177,"นฤชิต")+COUNTIF($C$180:$D$180,"นฤชิต")+COUNTIF($C$183:$D$183,"นฤชิต")</f>
+        <v/>
+      </c>
+      <c r="K110">
+        <f>SUM(H110:J110)</f>
+        <v/>
+      </c>
+      <c r="M110" s="2" t="inlineStr">
         <is>
           <t>นฤชิต</t>
         </is>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>3</v>
-      </c>
-      <c r="J110" t="n">
-        <v>3</v>
-      </c>
-      <c r="M110" s="2" t="inlineStr">
+      <c r="N110">
+        <f>COUNTIF($C$100:$D$100,"นฤชิต")+COUNTIF($C$103:$D$103,"นฤชิต")+COUNTIF($C$121:$D$121,"นฤชิต")+COUNTIF($C$124:$D$124,"นฤชิต")+COUNTIF($C$142:$D$142,"นฤชิต")+COUNTIF($C$145:$D$145,"นฤชิต")+COUNTIF($C$163:$D$163,"นฤชิต")+COUNTIF($C$166:$D$166,"นฤชิต")+COUNTIF($C$184:$D$184,"นฤชิต")+COUNTIF($C$187:$D$187,"นฤชิต")</f>
+        <v/>
+      </c>
+      <c r="O110">
+        <f>COUNTIF($C$101:$D$101,"นฤชิต")+COUNTIF($C$104:$D$104,"นฤชิต")+COUNTIF($C$122:$D$122,"นฤชิต")+COUNTIF($C$125:$D$125,"นฤชิต")+COUNTIF($C$143:$D$143,"นฤชิต")+COUNTIF($C$146:$D$146,"นฤชิต")+COUNTIF($C$164:$D$164,"นฤชิต")+COUNTIF($C$167:$D$167,"นฤชิต")+COUNTIF($C$185:$D$185,"นฤชิต")+COUNTIF($C$188:$D$188,"นฤชิต")</f>
+        <v/>
+      </c>
+      <c r="P110">
+        <f>COUNTIF($C$102:$D$102,"นฤชิต")+COUNTIF($C$105:$D$105,"นฤชิต")+COUNTIF($C$123:$D$123,"นฤชิต")+COUNTIF($C$126:$D$126,"นฤชิต")+COUNTIF($C$144:$D$144,"นฤชิต")+COUNTIF($C$147:$D$147,"นฤชิต")+COUNTIF($C$165:$D$165,"นฤชิต")+COUNTIF($C$168:$D$168,"นฤชิต")+COUNTIF($C$186:$D$186,"นฤชิต")+COUNTIF($C$189:$D$189,"นฤชิต")</f>
+        <v/>
+      </c>
+      <c r="Q110">
+        <f>SUM(N110:P110)</f>
+        <v/>
+      </c>
+      <c r="S110" s="2" t="inlineStr">
         <is>
           <t>นฤชิต</t>
         </is>
       </c>
-      <c r="N110" t="n">
-        <v>1</v>
-      </c>
-      <c r="O110" t="n">
-        <v>2</v>
-      </c>
-      <c r="P110" t="n">
-        <v>1</v>
-      </c>
-      <c r="S110" s="2" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="T110" t="n">
-        <v>1</v>
-      </c>
-      <c r="U110" t="n">
-        <v>5</v>
-      </c>
-      <c r="V110" t="n">
-        <v>4</v>
+      <c r="T110">
+        <f>SUM(H110,N110)</f>
+        <v/>
+      </c>
+      <c r="U110">
+        <f>SUM(I110,O110)</f>
+        <v/>
+      </c>
+      <c r="V110">
+        <f>SUM(J110,P110)</f>
+        <v/>
+      </c>
+      <c r="W110">
+        <f>SUM(K110,Q110)</f>
+        <v/>
       </c>
     </row>
     <row r="111">
@@ -5071,62 +5296,80 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C111" s="13" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="D111" s="10" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="E111" s="8" t="inlineStr">
+      <c r="C111" s="4" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="D111" s="8" t="inlineStr">
         <is>
           <t>วัฒพงษ์</t>
         </is>
       </c>
+      <c r="E111" s="14" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
       <c r="G111" s="2" t="inlineStr">
         <is>
           <t>จีรวัฒน์</t>
         </is>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>3</v>
-      </c>
-      <c r="J111" t="n">
-        <v>3</v>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111">
+        <f>COUNTIF($C$98:$D$98,"จีรวัฒน์")+COUNTIF($C$107:$D$107,"จีรวัฒน์")+COUNTIF($C$110:$D$110,"จีรวัฒน์")+COUNTIF($C$113:$D$113,"จีรวัฒน์")+COUNTIF($C$116:$D$116,"จีรวัฒน์")+COUNTIF($C$119:$D$119,"จีรวัฒน์")+COUNTIF($C$128:$D$128,"จีรวัฒน์")+COUNTIF($C$131:$D$131,"จีรวัฒน์")+COUNTIF($C$134:$D$134,"จีรวัฒน์")+COUNTIF($C$137:$D$137,"จีรวัฒน์")+COUNTIF($C$140:$D$140,"จีรวัฒน์")+COUNTIF($C$149:$D$149,"จีรวัฒน์")+COUNTIF($C$152:$D$152,"จีรวัฒน์")+COUNTIF($C$155:$D$155,"จีรวัฒน์")+COUNTIF($C$158:$D$158,"จีรวัฒน์")+COUNTIF($C$161:$D$161,"จีรวัฒน์")+COUNTIF($C$170:$D$170,"จีรวัฒน์")+COUNTIF($C$173:$D$173,"จีรวัฒน์")+COUNTIF($C$176:$D$176,"จีรวัฒน์")+COUNTIF($C$179:$D$179,"จีรวัฒน์")+COUNTIF($C$182:$D$182,"จีรวัฒน์")</f>
+        <v/>
+      </c>
+      <c r="J111">
+        <f>COUNTIF($C$99:$D$99,"จีรวัฒน์")+COUNTIF($C$108:$D$108,"จีรวัฒน์")+COUNTIF($C$111:$D$111,"จีรวัฒน์")+COUNTIF($C$114:$D$114,"จีรวัฒน์")+COUNTIF($C$117:$D$117,"จีรวัฒน์")+COUNTIF($C$120:$D$120,"จีรวัฒน์")+COUNTIF($C$129:$D$129,"จีรวัฒน์")+COUNTIF($C$132:$D$132,"จีรวัฒน์")+COUNTIF($C$135:$D$135,"จีรวัฒน์")+COUNTIF($C$138:$D$138,"จีรวัฒน์")+COUNTIF($C$141:$D$141,"จีรวัฒน์")+COUNTIF($C$150:$D$150,"จีรวัฒน์")+COUNTIF($C$153:$D$153,"จีรวัฒน์")+COUNTIF($C$156:$D$156,"จีรวัฒน์")+COUNTIF($C$159:$D$159,"จีรวัฒน์")+COUNTIF($C$162:$D$162,"จีรวัฒน์")+COUNTIF($C$171:$D$171,"จีรวัฒน์")+COUNTIF($C$174:$D$174,"จีรวัฒน์")+COUNTIF($C$177:$D$177,"จีรวัฒน์")+COUNTIF($C$180:$D$180,"จีรวัฒน์")+COUNTIF($C$183:$D$183,"จีรวัฒน์")</f>
+        <v/>
+      </c>
+      <c r="K111">
+        <f>SUM(H111:J111)</f>
+        <v/>
       </c>
       <c r="M111" s="2" t="inlineStr">
         <is>
           <t>จีรวัฒน์</t>
         </is>
       </c>
-      <c r="N111" t="n">
-        <v>1</v>
-      </c>
-      <c r="O111" t="n">
-        <v>2</v>
-      </c>
-      <c r="P111" t="n">
-        <v>1</v>
+      <c r="N111">
+        <f>COUNTIF($C$100:$D$100,"จีรวัฒน์")+COUNTIF($C$103:$D$103,"จีรวัฒน์")+COUNTIF($C$121:$D$121,"จีรวัฒน์")+COUNTIF($C$124:$D$124,"จีรวัฒน์")+COUNTIF($C$142:$D$142,"จีรวัฒน์")+COUNTIF($C$145:$D$145,"จีรวัฒน์")+COUNTIF($C$163:$D$163,"จีรวัฒน์")+COUNTIF($C$166:$D$166,"จีรวัฒน์")+COUNTIF($C$184:$D$184,"จีรวัฒน์")+COUNTIF($C$187:$D$187,"จีรวัฒน์")</f>
+        <v/>
+      </c>
+      <c r="O111">
+        <f>COUNTIF($C$101:$D$101,"จีรวัฒน์")+COUNTIF($C$104:$D$104,"จีรวัฒน์")+COUNTIF($C$122:$D$122,"จีรวัฒน์")+COUNTIF($C$125:$D$125,"จีรวัฒน์")+COUNTIF($C$143:$D$143,"จีรวัฒน์")+COUNTIF($C$146:$D$146,"จีรวัฒน์")+COUNTIF($C$164:$D$164,"จีรวัฒน์")+COUNTIF($C$167:$D$167,"จีรวัฒน์")+COUNTIF($C$185:$D$185,"จีรวัฒน์")+COUNTIF($C$188:$D$188,"จีรวัฒน์")</f>
+        <v/>
+      </c>
+      <c r="P111">
+        <f>COUNTIF($C$102:$D$102,"จีรวัฒน์")+COUNTIF($C$105:$D$105,"จีรวัฒน์")+COUNTIF($C$123:$D$123,"จีรวัฒน์")+COUNTIF($C$126:$D$126,"จีรวัฒน์")+COUNTIF($C$144:$D$144,"จีรวัฒน์")+COUNTIF($C$147:$D$147,"จีรวัฒน์")+COUNTIF($C$165:$D$165,"จีรวัฒน์")+COUNTIF($C$168:$D$168,"จีรวัฒน์")+COUNTIF($C$186:$D$186,"จีรวัฒน์")+COUNTIF($C$189:$D$189,"จีรวัฒน์")</f>
+        <v/>
+      </c>
+      <c r="Q111">
+        <f>SUM(N111:P111)</f>
+        <v/>
       </c>
       <c r="S111" s="2" t="inlineStr">
         <is>
           <t>จีรวัฒน์</t>
         </is>
       </c>
-      <c r="T111" t="n">
-        <v>1</v>
-      </c>
-      <c r="U111" t="n">
-        <v>5</v>
-      </c>
-      <c r="V111" t="n">
-        <v>4</v>
+      <c r="T111">
+        <f>SUM(H111,N111)</f>
+        <v/>
+      </c>
+      <c r="U111">
+        <f>SUM(I111,O111)</f>
+        <v/>
+      </c>
+      <c r="V111">
+        <f>SUM(J111,P111)</f>
+        <v/>
+      </c>
+      <c r="W111">
+        <f>SUM(K111,Q111)</f>
+        <v/>
       </c>
     </row>
     <row r="112">
@@ -5145,42 +5388,60 @@
           <t>สุเมธร์</t>
         </is>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>3</v>
-      </c>
-      <c r="J112" t="n">
-        <v>3</v>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112">
+        <f>COUNTIF($C$98:$D$98,"สุเมธร์")+COUNTIF($C$107:$D$107,"สุเมธร์")+COUNTIF($C$110:$D$110,"สุเมธร์")+COUNTIF($C$113:$D$113,"สุเมธร์")+COUNTIF($C$116:$D$116,"สุเมธร์")+COUNTIF($C$119:$D$119,"สุเมธร์")+COUNTIF($C$128:$D$128,"สุเมธร์")+COUNTIF($C$131:$D$131,"สุเมธร์")+COUNTIF($C$134:$D$134,"สุเมธร์")+COUNTIF($C$137:$D$137,"สุเมธร์")+COUNTIF($C$140:$D$140,"สุเมธร์")+COUNTIF($C$149:$D$149,"สุเมธร์")+COUNTIF($C$152:$D$152,"สุเมธร์")+COUNTIF($C$155:$D$155,"สุเมธร์")+COUNTIF($C$158:$D$158,"สุเมธร์")+COUNTIF($C$161:$D$161,"สุเมธร์")+COUNTIF($C$170:$D$170,"สุเมธร์")+COUNTIF($C$173:$D$173,"สุเมธร์")+COUNTIF($C$176:$D$176,"สุเมธร์")+COUNTIF($C$179:$D$179,"สุเมธร์")+COUNTIF($C$182:$D$182,"สุเมธร์")</f>
+        <v/>
+      </c>
+      <c r="J112">
+        <f>COUNTIF($C$99:$D$99,"สุเมธร์")+COUNTIF($C$108:$D$108,"สุเมธร์")+COUNTIF($C$111:$D$111,"สุเมธร์")+COUNTIF($C$114:$D$114,"สุเมธร์")+COUNTIF($C$117:$D$117,"สุเมธร์")+COUNTIF($C$120:$D$120,"สุเมธร์")+COUNTIF($C$129:$D$129,"สุเมธร์")+COUNTIF($C$132:$D$132,"สุเมธร์")+COUNTIF($C$135:$D$135,"สุเมธร์")+COUNTIF($C$138:$D$138,"สุเมธร์")+COUNTIF($C$141:$D$141,"สุเมธร์")+COUNTIF($C$150:$D$150,"สุเมธร์")+COUNTIF($C$153:$D$153,"สุเมธร์")+COUNTIF($C$156:$D$156,"สุเมธร์")+COUNTIF($C$159:$D$159,"สุเมธร์")+COUNTIF($C$162:$D$162,"สุเมธร์")+COUNTIF($C$171:$D$171,"สุเมธร์")+COUNTIF($C$174:$D$174,"สุเมธร์")+COUNTIF($C$177:$D$177,"สุเมธร์")+COUNTIF($C$180:$D$180,"สุเมธร์")+COUNTIF($C$183:$D$183,"สุเมธร์")</f>
+        <v/>
+      </c>
+      <c r="K112">
+        <f>SUM(H112:J112)</f>
+        <v/>
       </c>
       <c r="M112" s="2" t="inlineStr">
         <is>
           <t>สุเมธร์</t>
         </is>
       </c>
-      <c r="N112" t="n">
-        <v>1</v>
-      </c>
-      <c r="O112" t="n">
-        <v>1</v>
-      </c>
-      <c r="P112" t="n">
-        <v>2</v>
+      <c r="N112">
+        <f>COUNTIF($C$100:$D$100,"สุเมธร์")+COUNTIF($C$103:$D$103,"สุเมธร์")+COUNTIF($C$121:$D$121,"สุเมธร์")+COUNTIF($C$124:$D$124,"สุเมธร์")+COUNTIF($C$142:$D$142,"สุเมธร์")+COUNTIF($C$145:$D$145,"สุเมธร์")+COUNTIF($C$163:$D$163,"สุเมธร์")+COUNTIF($C$166:$D$166,"สุเมธร์")+COUNTIF($C$184:$D$184,"สุเมธร์")+COUNTIF($C$187:$D$187,"สุเมธร์")</f>
+        <v/>
+      </c>
+      <c r="O112">
+        <f>COUNTIF($C$101:$D$101,"สุเมธร์")+COUNTIF($C$104:$D$104,"สุเมธร์")+COUNTIF($C$122:$D$122,"สุเมธร์")+COUNTIF($C$125:$D$125,"สุเมธร์")+COUNTIF($C$143:$D$143,"สุเมธร์")+COUNTIF($C$146:$D$146,"สุเมธร์")+COUNTIF($C$164:$D$164,"สุเมธร์")+COUNTIF($C$167:$D$167,"สุเมธร์")+COUNTIF($C$185:$D$185,"สุเมธร์")+COUNTIF($C$188:$D$188,"สุเมธร์")</f>
+        <v/>
+      </c>
+      <c r="P112">
+        <f>COUNTIF($C$102:$D$102,"สุเมธร์")+COUNTIF($C$105:$D$105,"สุเมธร์")+COUNTIF($C$123:$D$123,"สุเมธร์")+COUNTIF($C$126:$D$126,"สุเมธร์")+COUNTIF($C$144:$D$144,"สุเมธร์")+COUNTIF($C$147:$D$147,"สุเมธร์")+COUNTIF($C$165:$D$165,"สุเมธร์")+COUNTIF($C$168:$D$168,"สุเมธร์")+COUNTIF($C$186:$D$186,"สุเมธร์")+COUNTIF($C$189:$D$189,"สุเมธร์")</f>
+        <v/>
+      </c>
+      <c r="Q112">
+        <f>SUM(N112:P112)</f>
+        <v/>
       </c>
       <c r="S112" s="2" t="inlineStr">
         <is>
           <t>สุเมธร์</t>
         </is>
       </c>
-      <c r="T112" t="n">
-        <v>1</v>
-      </c>
-      <c r="U112" t="n">
-        <v>4</v>
-      </c>
-      <c r="V112" t="n">
-        <v>5</v>
+      <c r="T112">
+        <f>SUM(H112,N112)</f>
+        <v/>
+      </c>
+      <c r="U112">
+        <f>SUM(I112,O112)</f>
+        <v/>
+      </c>
+      <c r="V112">
+        <f>SUM(J112,P112)</f>
+        <v/>
+      </c>
+      <c r="W112">
+        <f>SUM(K112,Q112)</f>
+        <v/>
       </c>
     </row>
     <row r="113">
@@ -5189,62 +5450,80 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C113" s="9" t="inlineStr">
+      <c r="C113" s="12" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="D113" s="15" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E113" s="16" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="G113" s="2" t="inlineStr">
         <is>
           <t>นที</t>
         </is>
       </c>
-      <c r="D113" s="6" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="E113" s="4" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="G113" s="2" t="inlineStr">
+      <c r="H113" t="inlineStr"/>
+      <c r="I113">
+        <f>COUNTIF($C$98:$D$98,"นที")+COUNTIF($C$107:$D$107,"นที")+COUNTIF($C$110:$D$110,"นที")+COUNTIF($C$113:$D$113,"นที")+COUNTIF($C$116:$D$116,"นที")+COUNTIF($C$119:$D$119,"นที")+COUNTIF($C$128:$D$128,"นที")+COUNTIF($C$131:$D$131,"นที")+COUNTIF($C$134:$D$134,"นที")+COUNTIF($C$137:$D$137,"นที")+COUNTIF($C$140:$D$140,"นที")+COUNTIF($C$149:$D$149,"นที")+COUNTIF($C$152:$D$152,"นที")+COUNTIF($C$155:$D$155,"นที")+COUNTIF($C$158:$D$158,"นที")+COUNTIF($C$161:$D$161,"นที")+COUNTIF($C$170:$D$170,"นที")+COUNTIF($C$173:$D$173,"นที")+COUNTIF($C$176:$D$176,"นที")+COUNTIF($C$179:$D$179,"นที")+COUNTIF($C$182:$D$182,"นที")</f>
+        <v/>
+      </c>
+      <c r="J113">
+        <f>COUNTIF($C$99:$D$99,"นที")+COUNTIF($C$108:$D$108,"นที")+COUNTIF($C$111:$D$111,"นที")+COUNTIF($C$114:$D$114,"นที")+COUNTIF($C$117:$D$117,"นที")+COUNTIF($C$120:$D$120,"นที")+COUNTIF($C$129:$D$129,"นที")+COUNTIF($C$132:$D$132,"นที")+COUNTIF($C$135:$D$135,"นที")+COUNTIF($C$138:$D$138,"นที")+COUNTIF($C$141:$D$141,"นที")+COUNTIF($C$150:$D$150,"นที")+COUNTIF($C$153:$D$153,"นที")+COUNTIF($C$156:$D$156,"นที")+COUNTIF($C$159:$D$159,"นที")+COUNTIF($C$162:$D$162,"นที")+COUNTIF($C$171:$D$171,"นที")+COUNTIF($C$174:$D$174,"นที")+COUNTIF($C$177:$D$177,"นที")+COUNTIF($C$180:$D$180,"นที")+COUNTIF($C$183:$D$183,"นที")</f>
+        <v/>
+      </c>
+      <c r="K113">
+        <f>SUM(H113:J113)</f>
+        <v/>
+      </c>
+      <c r="M113" s="2" t="inlineStr">
         <is>
           <t>นที</t>
         </is>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>3</v>
-      </c>
-      <c r="J113" t="n">
-        <v>3</v>
-      </c>
-      <c r="M113" s="2" t="inlineStr">
+      <c r="N113">
+        <f>COUNTIF($C$100:$D$100,"นที")+COUNTIF($C$103:$D$103,"นที")+COUNTIF($C$121:$D$121,"นที")+COUNTIF($C$124:$D$124,"นที")+COUNTIF($C$142:$D$142,"นที")+COUNTIF($C$145:$D$145,"นที")+COUNTIF($C$163:$D$163,"นที")+COUNTIF($C$166:$D$166,"นที")+COUNTIF($C$184:$D$184,"นที")+COUNTIF($C$187:$D$187,"นที")</f>
+        <v/>
+      </c>
+      <c r="O113">
+        <f>COUNTIF($C$101:$D$101,"นที")+COUNTIF($C$104:$D$104,"นที")+COUNTIF($C$122:$D$122,"นที")+COUNTIF($C$125:$D$125,"นที")+COUNTIF($C$143:$D$143,"นที")+COUNTIF($C$146:$D$146,"นที")+COUNTIF($C$164:$D$164,"นที")+COUNTIF($C$167:$D$167,"นที")+COUNTIF($C$185:$D$185,"นที")+COUNTIF($C$188:$D$188,"นที")</f>
+        <v/>
+      </c>
+      <c r="P113">
+        <f>COUNTIF($C$102:$D$102,"นที")+COUNTIF($C$105:$D$105,"นที")+COUNTIF($C$123:$D$123,"นที")+COUNTIF($C$126:$D$126,"นที")+COUNTIF($C$144:$D$144,"นที")+COUNTIF($C$147:$D$147,"นที")+COUNTIF($C$165:$D$165,"นที")+COUNTIF($C$168:$D$168,"นที")+COUNTIF($C$186:$D$186,"นที")+COUNTIF($C$189:$D$189,"นที")</f>
+        <v/>
+      </c>
+      <c r="Q113">
+        <f>SUM(N113:P113)</f>
+        <v/>
+      </c>
+      <c r="S113" s="2" t="inlineStr">
         <is>
           <t>นที</t>
         </is>
       </c>
-      <c r="N113" t="n">
-        <v>2</v>
-      </c>
-      <c r="O113" t="n">
-        <v>1</v>
-      </c>
-      <c r="P113" t="n">
-        <v>2</v>
-      </c>
-      <c r="S113" s="2" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="T113" t="n">
-        <v>2</v>
-      </c>
-      <c r="U113" t="n">
-        <v>4</v>
-      </c>
-      <c r="V113" t="n">
-        <v>5</v>
+      <c r="T113">
+        <f>SUM(H113,N113)</f>
+        <v/>
+      </c>
+      <c r="U113">
+        <f>SUM(I113,O113)</f>
+        <v/>
+      </c>
+      <c r="V113">
+        <f>SUM(J113,P113)</f>
+        <v/>
+      </c>
+      <c r="W113">
+        <f>SUM(K113,Q113)</f>
+        <v/>
       </c>
     </row>
     <row r="114">
@@ -5253,19 +5532,19 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C114" s="7" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="D114" s="4" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="E114" s="6" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
+      <c r="C114" s="12" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="D114" s="15" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E114" s="16" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
         </is>
       </c>
     </row>
@@ -5280,6 +5559,21 @@
           <t>08:00-16:00</t>
         </is>
       </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>วันทำการ โรงพยาบาลเด็ก</t>
+        </is>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>วันหยุด โรงพยาบาลเด็ก</t>
+        </is>
+      </c>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>รวมโรงพยาบาลเด็ก</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="B116" t="inlineStr">
@@ -5287,19 +5581,79 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C116" s="5" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="D116" s="8" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="E116" s="10" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
+      <c r="C116" s="6" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="D116" s="11" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E116" s="17" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>รวม</t>
+        </is>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>รวม</t>
+        </is>
+      </c>
+      <c r="T116" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="U116" t="inlineStr">
+        <is>
+          <t>16:00-24:00</t>
+        </is>
+      </c>
+      <c r="V116" t="inlineStr">
+        <is>
+          <t>24:00-8:00</t>
+        </is>
+      </c>
+      <c r="W116" t="inlineStr">
+        <is>
+          <t>รวม</t>
         </is>
       </c>
     </row>
@@ -5309,35 +5663,80 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C117" s="9" t="inlineStr">
+      <c r="C117" s="6" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="D117" s="11" t="inlineStr">
         <is>
           <t>นที</t>
         </is>
       </c>
-      <c r="D117" s="7" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="E117" s="5" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>วันทำการ โรงพยาบาลเด็ก</t>
-        </is>
-      </c>
-      <c r="O117" t="inlineStr">
-        <is>
-          <t>วันหยุด โรงพยาบาลเด็ก</t>
-        </is>
-      </c>
-      <c r="U117" t="inlineStr">
-        <is>
-          <t>รวมโรงพยาบาลเด็ก</t>
-        </is>
+      <c r="E117" s="17" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="G117" s="1" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117">
+        <f>COUNTIF($E$98,"ภูวเนตร")+COUNTIF($E$107,"ภูวเนตร")+COUNTIF($E$110,"ภูวเนตร")+COUNTIF($E$113,"ภูวเนตร")+COUNTIF($E$116,"ภูวเนตร")+COUNTIF($E$119,"ภูวเนตร")+COUNTIF($E$128,"ภูวเนตร")+COUNTIF($E$131,"ภูวเนตร")+COUNTIF($E$134,"ภูวเนตร")+COUNTIF($E$137,"ภูวเนตร")+COUNTIF($E$140,"ภูวเนตร")+COUNTIF($E$149,"ภูวเนตร")+COUNTIF($E$152,"ภูวเนตร")+COUNTIF($E$155,"ภูวเนตร")+COUNTIF($E$158,"ภูวเนตร")+COUNTIF($E$161,"ภูวเนตร")+COUNTIF($E$170,"ภูวเนตร")+COUNTIF($E$173,"ภูวเนตร")+COUNTIF($E$176,"ภูวเนตร")+COUNTIF($E$179,"ภูวเนตร")+COUNTIF($E$182,"ภูวเนตร")</f>
+        <v/>
+      </c>
+      <c r="J117">
+        <f>COUNTIF($E$99,"ภูวเนตร")+COUNTIF($E$108,"ภูวเนตร")+COUNTIF($E$111,"ภูวเนตร")+COUNTIF($E$114,"ภูวเนตร")+COUNTIF($E$117,"ภูวเนตร")+COUNTIF($E$120,"ภูวเนตร")+COUNTIF($E$129,"ภูวเนตร")+COUNTIF($E$132,"ภูวเนตร")+COUNTIF($E$135,"ภูวเนตร")+COUNTIF($E$138,"ภูวเนตร")+COUNTIF($E$141,"ภูวเนตร")+COUNTIF($E$150,"ภูวเนตร")+COUNTIF($E$153,"ภูวเนตร")+COUNTIF($E$156,"ภูวเนตร")+COUNTIF($E$159,"ภูวเนตร")+COUNTIF($E$162,"ภูวเนตร")+COUNTIF($E$171,"ภูวเนตร")+COUNTIF($E$174,"ภูวเนตร")+COUNTIF($E$177,"ภูวเนตร")+COUNTIF($E$180,"ภูวเนตร")+COUNTIF($E$183,"ภูวเนตร")</f>
+        <v/>
+      </c>
+      <c r="K117">
+        <f>SUM(H117:J117)</f>
+        <v/>
+      </c>
+      <c r="M117" s="1" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="N117">
+        <f>COUNTIF($E$100,"ภูวเนตร")+COUNTIF($E$103,"ภูวเนตร")+COUNTIF($E$121,"ภูวเนตร")+COUNTIF($E$124,"ภูวเนตร")+COUNTIF($E$142,"ภูวเนตร")+COUNTIF($E$145,"ภูวเนตร")+COUNTIF($E$163,"ภูวเนตร")+COUNTIF($E$166,"ภูวเนตร")+COUNTIF($E$184,"ภูวเนตร")+COUNTIF($E$187,"ภูวเนตร")</f>
+        <v/>
+      </c>
+      <c r="O117">
+        <f>COUNTIF($E$101,"ภูวเนตร")+COUNTIF($E$104,"ภูวเนตร")+COUNTIF($E$122,"ภูวเนตร")+COUNTIF($E$125,"ภูวเนตร")+COUNTIF($E$143,"ภูวเนตร")+COUNTIF($E$146,"ภูวเนตร")+COUNTIF($E$164,"ภูวเนตร")+COUNTIF($E$167,"ภูวเนตร")+COUNTIF($E$185,"ภูวเนตร")+COUNTIF($E$188,"ภูวเนตร")</f>
+        <v/>
+      </c>
+      <c r="P117">
+        <f>COUNTIF($E$102,"ภูวเนตร")+COUNTIF($E$105,"ภูวเนตร")+COUNTIF($E$123,"ภูวเนตร")+COUNTIF($E$126,"ภูวเนตร")+COUNTIF($E$144,"ภูวเนตร")+COUNTIF($E$147,"ภูวเนตร")+COUNTIF($E$165,"ภูวเนตร")+COUNTIF($E$168,"ภูวเนตร")+COUNTIF($E$186,"ภูวเนตร")+COUNTIF($E$189,"ภูวเนตร")</f>
+        <v/>
+      </c>
+      <c r="Q117">
+        <f>SUM(N117:P117)</f>
+        <v/>
+      </c>
+      <c r="S117" s="1" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="T117">
+        <f>SUM(H117,N117)</f>
+        <v/>
+      </c>
+      <c r="U117">
+        <f>SUM(I117,O117)</f>
+        <v/>
+      </c>
+      <c r="V117">
+        <f>SUM(J117,P117)</f>
+        <v/>
+      </c>
+      <c r="W117">
+        <f>SUM(K117,Q117)</f>
+        <v/>
       </c>
     </row>
     <row r="118">
@@ -5351,65 +5750,65 @@
           <t>08:00-16:00</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>08:00-16:00</t>
-        </is>
-      </c>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>16:00-24:00</t>
-        </is>
-      </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>24:00-8:00</t>
-        </is>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>รวม</t>
-        </is>
-      </c>
-      <c r="N118" t="inlineStr">
-        <is>
-          <t>08:00-16:00</t>
-        </is>
-      </c>
-      <c r="O118" t="inlineStr">
-        <is>
-          <t>16:00-24:00</t>
-        </is>
-      </c>
-      <c r="P118" t="inlineStr">
-        <is>
-          <t>24:00-8:00</t>
-        </is>
-      </c>
-      <c r="Q118" t="inlineStr">
-        <is>
-          <t>รวม</t>
-        </is>
-      </c>
-      <c r="T118" t="inlineStr">
-        <is>
-          <t>08:00-16:00</t>
-        </is>
-      </c>
-      <c r="U118" t="inlineStr">
-        <is>
-          <t>16:00-24:00</t>
-        </is>
-      </c>
-      <c r="V118" t="inlineStr">
-        <is>
-          <t>24:00-8:00</t>
-        </is>
-      </c>
-      <c r="W118" t="inlineStr">
-        <is>
-          <t>รวม</t>
-        </is>
+      <c r="G118" s="1" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118">
+        <f>COUNTIF($E$98,"ราเชนทร์")+COUNTIF($E$107,"ราเชนทร์")+COUNTIF($E$110,"ราเชนทร์")+COUNTIF($E$113,"ราเชนทร์")+COUNTIF($E$116,"ราเชนทร์")+COUNTIF($E$119,"ราเชนทร์")+COUNTIF($E$128,"ราเชนทร์")+COUNTIF($E$131,"ราเชนทร์")+COUNTIF($E$134,"ราเชนทร์")+COUNTIF($E$137,"ราเชนทร์")+COUNTIF($E$140,"ราเชนทร์")+COUNTIF($E$149,"ราเชนทร์")+COUNTIF($E$152,"ราเชนทร์")+COUNTIF($E$155,"ราเชนทร์")+COUNTIF($E$158,"ราเชนทร์")+COUNTIF($E$161,"ราเชนทร์")+COUNTIF($E$170,"ราเชนทร์")+COUNTIF($E$173,"ราเชนทร์")+COUNTIF($E$176,"ราเชนทร์")+COUNTIF($E$179,"ราเชนทร์")+COUNTIF($E$182,"ราเชนทร์")</f>
+        <v/>
+      </c>
+      <c r="J118">
+        <f>COUNTIF($E$99,"ราเชนทร์")+COUNTIF($E$108,"ราเชนทร์")+COUNTIF($E$111,"ราเชนทร์")+COUNTIF($E$114,"ราเชนทร์")+COUNTIF($E$117,"ราเชนทร์")+COUNTIF($E$120,"ราเชนทร์")+COUNTIF($E$129,"ราเชนทร์")+COUNTIF($E$132,"ราเชนทร์")+COUNTIF($E$135,"ราเชนทร์")+COUNTIF($E$138,"ราเชนทร์")+COUNTIF($E$141,"ราเชนทร์")+COUNTIF($E$150,"ราเชนทร์")+COUNTIF($E$153,"ราเชนทร์")+COUNTIF($E$156,"ราเชนทร์")+COUNTIF($E$159,"ราเชนทร์")+COUNTIF($E$162,"ราเชนทร์")+COUNTIF($E$171,"ราเชนทร์")+COUNTIF($E$174,"ราเชนทร์")+COUNTIF($E$177,"ราเชนทร์")+COUNTIF($E$180,"ราเชนทร์")+COUNTIF($E$183,"ราเชนทร์")</f>
+        <v/>
+      </c>
+      <c r="K118">
+        <f>SUM(H118:J118)</f>
+        <v/>
+      </c>
+      <c r="M118" s="1" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="N118">
+        <f>COUNTIF($E$100,"ราเชนทร์")+COUNTIF($E$103,"ราเชนทร์")+COUNTIF($E$121,"ราเชนทร์")+COUNTIF($E$124,"ราเชนทร์")+COUNTIF($E$142,"ราเชนทร์")+COUNTIF($E$145,"ราเชนทร์")+COUNTIF($E$163,"ราเชนทร์")+COUNTIF($E$166,"ราเชนทร์")+COUNTIF($E$184,"ราเชนทร์")+COUNTIF($E$187,"ราเชนทร์")</f>
+        <v/>
+      </c>
+      <c r="O118">
+        <f>COUNTIF($E$101,"ราเชนทร์")+COUNTIF($E$104,"ราเชนทร์")+COUNTIF($E$122,"ราเชนทร์")+COUNTIF($E$125,"ราเชนทร์")+COUNTIF($E$143,"ราเชนทร์")+COUNTIF($E$146,"ราเชนทร์")+COUNTIF($E$164,"ราเชนทร์")+COUNTIF($E$167,"ราเชนทร์")+COUNTIF($E$185,"ราเชนทร์")+COUNTIF($E$188,"ราเชนทร์")</f>
+        <v/>
+      </c>
+      <c r="P118">
+        <f>COUNTIF($E$102,"ราเชนทร์")+COUNTIF($E$105,"ราเชนทร์")+COUNTIF($E$123,"ราเชนทร์")+COUNTIF($E$126,"ราเชนทร์")+COUNTIF($E$144,"ราเชนทร์")+COUNTIF($E$147,"ราเชนทร์")+COUNTIF($E$165,"ราเชนทร์")+COUNTIF($E$168,"ราเชนทร์")+COUNTIF($E$186,"ราเชนทร์")+COUNTIF($E$189,"ราเชนทร์")</f>
+        <v/>
+      </c>
+      <c r="Q118">
+        <f>SUM(N118:P118)</f>
+        <v/>
+      </c>
+      <c r="S118" s="1" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="T118">
+        <f>SUM(H118,N118)</f>
+        <v/>
+      </c>
+      <c r="U118">
+        <f>SUM(I118,O118)</f>
+        <v/>
+      </c>
+      <c r="V118">
+        <f>SUM(J118,P118)</f>
+        <v/>
+      </c>
+      <c r="W118">
+        <f>SUM(K118,Q118)</f>
+        <v/>
       </c>
     </row>
     <row r="119">
@@ -5418,35 +5817,80 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C119" s="4" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="D119" s="6" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="E119" s="12" t="inlineStr">
-        <is>
-          <t>วินัย</t>
+      <c r="C119" s="12" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="D119" s="15" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E119" s="4" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="G119" s="1" t="inlineStr">
         <is>
-          <t>ภูวเนตร</t>
-        </is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119">
+        <f>COUNTIF($E$98,"พลกฤต")+COUNTIF($E$107,"พลกฤต")+COUNTIF($E$110,"พลกฤต")+COUNTIF($E$113,"พลกฤต")+COUNTIF($E$116,"พลกฤต")+COUNTIF($E$119,"พลกฤต")+COUNTIF($E$128,"พลกฤต")+COUNTIF($E$131,"พลกฤต")+COUNTIF($E$134,"พลกฤต")+COUNTIF($E$137,"พลกฤต")+COUNTIF($E$140,"พลกฤต")+COUNTIF($E$149,"พลกฤต")+COUNTIF($E$152,"พลกฤต")+COUNTIF($E$155,"พลกฤต")+COUNTIF($E$158,"พลกฤต")+COUNTIF($E$161,"พลกฤต")+COUNTIF($E$170,"พลกฤต")+COUNTIF($E$173,"พลกฤต")+COUNTIF($E$176,"พลกฤต")+COUNTIF($E$179,"พลกฤต")+COUNTIF($E$182,"พลกฤต")</f>
+        <v/>
+      </c>
+      <c r="J119">
+        <f>COUNTIF($E$99,"พลกฤต")+COUNTIF($E$108,"พลกฤต")+COUNTIF($E$111,"พลกฤต")+COUNTIF($E$114,"พลกฤต")+COUNTIF($E$117,"พลกฤต")+COUNTIF($E$120,"พลกฤต")+COUNTIF($E$129,"พลกฤต")+COUNTIF($E$132,"พลกฤต")+COUNTIF($E$135,"พลกฤต")+COUNTIF($E$138,"พลกฤต")+COUNTIF($E$141,"พลกฤต")+COUNTIF($E$150,"พลกฤต")+COUNTIF($E$153,"พลกฤต")+COUNTIF($E$156,"พลกฤต")+COUNTIF($E$159,"พลกฤต")+COUNTIF($E$162,"พลกฤต")+COUNTIF($E$171,"พลกฤต")+COUNTIF($E$174,"พลกฤต")+COUNTIF($E$177,"พลกฤต")+COUNTIF($E$180,"พลกฤต")+COUNTIF($E$183,"พลกฤต")</f>
+        <v/>
+      </c>
+      <c r="K119">
+        <f>SUM(H119:J119)</f>
+        <v/>
       </c>
       <c r="M119" s="1" t="inlineStr">
         <is>
-          <t>ภูวเนตร</t>
-        </is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="N119">
+        <f>COUNTIF($E$100,"พลกฤต")+COUNTIF($E$103,"พลกฤต")+COUNTIF($E$121,"พลกฤต")+COUNTIF($E$124,"พลกฤต")+COUNTIF($E$142,"พลกฤต")+COUNTIF($E$145,"พลกฤต")+COUNTIF($E$163,"พลกฤต")+COUNTIF($E$166,"พลกฤต")+COUNTIF($E$184,"พลกฤต")+COUNTIF($E$187,"พลกฤต")</f>
+        <v/>
+      </c>
+      <c r="O119">
+        <f>COUNTIF($E$101,"พลกฤต")+COUNTIF($E$104,"พลกฤต")+COUNTIF($E$122,"พลกฤต")+COUNTIF($E$125,"พลกฤต")+COUNTIF($E$143,"พลกฤต")+COUNTIF($E$146,"พลกฤต")+COUNTIF($E$164,"พลกฤต")+COUNTIF($E$167,"พลกฤต")+COUNTIF($E$185,"พลกฤต")+COUNTIF($E$188,"พลกฤต")</f>
+        <v/>
+      </c>
+      <c r="P119">
+        <f>COUNTIF($E$102,"พลกฤต")+COUNTIF($E$105,"พลกฤต")+COUNTIF($E$123,"พลกฤต")+COUNTIF($E$126,"พลกฤต")+COUNTIF($E$144,"พลกฤต")+COUNTIF($E$147,"พลกฤต")+COUNTIF($E$165,"พลกฤต")+COUNTIF($E$168,"พลกฤต")+COUNTIF($E$186,"พลกฤต")+COUNTIF($E$189,"พลกฤต")</f>
+        <v/>
+      </c>
+      <c r="Q119">
+        <f>SUM(N119:P119)</f>
+        <v/>
       </c>
       <c r="S119" s="1" t="inlineStr">
         <is>
-          <t>ภูวเนตร</t>
-        </is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="T119">
+        <f>SUM(H119,N119)</f>
+        <v/>
+      </c>
+      <c r="U119">
+        <f>SUM(I119,O119)</f>
+        <v/>
+      </c>
+      <c r="V119">
+        <f>SUM(J119,P119)</f>
+        <v/>
+      </c>
+      <c r="W119">
+        <f>SUM(K119,Q119)</f>
+        <v/>
       </c>
     </row>
     <row r="120">
@@ -5455,77 +5899,167 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C120" s="9" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="D120" s="6" t="inlineStr">
+      <c r="C120" s="12" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="D120" s="15" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E120" s="4" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="G120" s="1" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120">
+        <f>COUNTIF($E$98,"ชานนท์")+COUNTIF($E$107,"ชานนท์")+COUNTIF($E$110,"ชานนท์")+COUNTIF($E$113,"ชานนท์")+COUNTIF($E$116,"ชานนท์")+COUNTIF($E$119,"ชานนท์")+COUNTIF($E$128,"ชานนท์")+COUNTIF($E$131,"ชานนท์")+COUNTIF($E$134,"ชานนท์")+COUNTIF($E$137,"ชานนท์")+COUNTIF($E$140,"ชานนท์")+COUNTIF($E$149,"ชานนท์")+COUNTIF($E$152,"ชานนท์")+COUNTIF($E$155,"ชานนท์")+COUNTIF($E$158,"ชานนท์")+COUNTIF($E$161,"ชานนท์")+COUNTIF($E$170,"ชานนท์")+COUNTIF($E$173,"ชานนท์")+COUNTIF($E$176,"ชานนท์")+COUNTIF($E$179,"ชานนท์")+COUNTIF($E$182,"ชานนท์")</f>
+        <v/>
+      </c>
+      <c r="J120">
+        <f>COUNTIF($E$99,"ชานนท์")+COUNTIF($E$108,"ชานนท์")+COUNTIF($E$111,"ชานนท์")+COUNTIF($E$114,"ชานนท์")+COUNTIF($E$117,"ชานนท์")+COUNTIF($E$120,"ชานนท์")+COUNTIF($E$129,"ชานนท์")+COUNTIF($E$132,"ชานนท์")+COUNTIF($E$135,"ชานนท์")+COUNTIF($E$138,"ชานนท์")+COUNTIF($E$141,"ชานนท์")+COUNTIF($E$150,"ชานนท์")+COUNTIF($E$153,"ชานนท์")+COUNTIF($E$156,"ชานนท์")+COUNTIF($E$159,"ชานนท์")+COUNTIF($E$162,"ชานนท์")+COUNTIF($E$171,"ชานนท์")+COUNTIF($E$174,"ชานนท์")+COUNTIF($E$177,"ชานนท์")+COUNTIF($E$180,"ชานนท์")+COUNTIF($E$183,"ชานนท์")</f>
+        <v/>
+      </c>
+      <c r="K120">
+        <f>SUM(H120:J120)</f>
+        <v/>
+      </c>
+      <c r="M120" s="1" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="N120">
+        <f>COUNTIF($E$100,"ชานนท์")+COUNTIF($E$103,"ชานนท์")+COUNTIF($E$121,"ชานนท์")+COUNTIF($E$124,"ชานนท์")+COUNTIF($E$142,"ชานนท์")+COUNTIF($E$145,"ชานนท์")+COUNTIF($E$163,"ชานนท์")+COUNTIF($E$166,"ชานนท์")+COUNTIF($E$184,"ชานนท์")+COUNTIF($E$187,"ชานนท์")</f>
+        <v/>
+      </c>
+      <c r="O120">
+        <f>COUNTIF($E$101,"ชานนท์")+COUNTIF($E$104,"ชานนท์")+COUNTIF($E$122,"ชานนท์")+COUNTIF($E$125,"ชานนท์")+COUNTIF($E$143,"ชานนท์")+COUNTIF($E$146,"ชานนท์")+COUNTIF($E$164,"ชานนท์")+COUNTIF($E$167,"ชานนท์")+COUNTIF($E$185,"ชานนท์")+COUNTIF($E$188,"ชานนท์")</f>
+        <v/>
+      </c>
+      <c r="P120">
+        <f>COUNTIF($E$102,"ชานนท์")+COUNTIF($E$105,"ชานนท์")+COUNTIF($E$123,"ชานนท์")+COUNTIF($E$126,"ชานนท์")+COUNTIF($E$144,"ชานนท์")+COUNTIF($E$147,"ชานนท์")+COUNTIF($E$165,"ชานนท์")+COUNTIF($E$168,"ชานนท์")+COUNTIF($E$186,"ชานนท์")+COUNTIF($E$189,"ชานนท์")</f>
+        <v/>
+      </c>
+      <c r="Q120">
+        <f>SUM(N120:P120)</f>
+        <v/>
+      </c>
+      <c r="S120" s="1" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="T120">
+        <f>SUM(H120,N120)</f>
+        <v/>
+      </c>
+      <c r="U120">
+        <f>SUM(I120,O120)</f>
+        <v/>
+      </c>
+      <c r="V120">
+        <f>SUM(J120,P120)</f>
+        <v/>
+      </c>
+      <c r="W120">
+        <f>SUM(K120,Q120)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="3" t="inlineStr">
+        <is>
+          <t>9*</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="C121" s="9" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D121" s="17" t="inlineStr">
         <is>
           <t>จีรวัฒน์</t>
         </is>
       </c>
-      <c r="E120" s="10" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="G120" s="1" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="M120" s="1" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="S120" s="1" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="inlineStr">
-        <is>
-          <t>9*</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>08:00-16:00</t>
-        </is>
-      </c>
-      <c r="C121" s="11" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="D121" s="12" t="inlineStr">
-        <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="E121" s="8" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
+      <c r="E121" s="16" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
         </is>
       </c>
       <c r="G121" s="1" t="inlineStr">
         <is>
-          <t>พลกฤต</t>
-        </is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121">
+        <f>COUNTIF($E$98,"ปรมะ")+COUNTIF($E$107,"ปรมะ")+COUNTIF($E$110,"ปรมะ")+COUNTIF($E$113,"ปรมะ")+COUNTIF($E$116,"ปรมะ")+COUNTIF($E$119,"ปรมะ")+COUNTIF($E$128,"ปรมะ")+COUNTIF($E$131,"ปรมะ")+COUNTIF($E$134,"ปรมะ")+COUNTIF($E$137,"ปรมะ")+COUNTIF($E$140,"ปรมะ")+COUNTIF($E$149,"ปรมะ")+COUNTIF($E$152,"ปรมะ")+COUNTIF($E$155,"ปรมะ")+COUNTIF($E$158,"ปรมะ")+COUNTIF($E$161,"ปรมะ")+COUNTIF($E$170,"ปรมะ")+COUNTIF($E$173,"ปรมะ")+COUNTIF($E$176,"ปรมะ")+COUNTIF($E$179,"ปรมะ")+COUNTIF($E$182,"ปรมะ")</f>
+        <v/>
+      </c>
+      <c r="J121">
+        <f>COUNTIF($E$99,"ปรมะ")+COUNTIF($E$108,"ปรมะ")+COUNTIF($E$111,"ปรมะ")+COUNTIF($E$114,"ปรมะ")+COUNTIF($E$117,"ปรมะ")+COUNTIF($E$120,"ปรมะ")+COUNTIF($E$129,"ปรมะ")+COUNTIF($E$132,"ปรมะ")+COUNTIF($E$135,"ปรมะ")+COUNTIF($E$138,"ปรมะ")+COUNTIF($E$141,"ปรมะ")+COUNTIF($E$150,"ปรมะ")+COUNTIF($E$153,"ปรมะ")+COUNTIF($E$156,"ปรมะ")+COUNTIF($E$159,"ปรมะ")+COUNTIF($E$162,"ปรมะ")+COUNTIF($E$171,"ปรมะ")+COUNTIF($E$174,"ปรมะ")+COUNTIF($E$177,"ปรมะ")+COUNTIF($E$180,"ปรมะ")+COUNTIF($E$183,"ปรมะ")</f>
+        <v/>
+      </c>
+      <c r="K121">
+        <f>SUM(H121:J121)</f>
+        <v/>
       </c>
       <c r="M121" s="1" t="inlineStr">
         <is>
-          <t>พลกฤต</t>
-        </is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="N121">
+        <f>COUNTIF($E$100,"ปรมะ")+COUNTIF($E$103,"ปรมะ")+COUNTIF($E$121,"ปรมะ")+COUNTIF($E$124,"ปรมะ")+COUNTIF($E$142,"ปรมะ")+COUNTIF($E$145,"ปรมะ")+COUNTIF($E$163,"ปรมะ")+COUNTIF($E$166,"ปรมะ")+COUNTIF($E$184,"ปรมะ")+COUNTIF($E$187,"ปรมะ")</f>
+        <v/>
+      </c>
+      <c r="O121">
+        <f>COUNTIF($E$101,"ปรมะ")+COUNTIF($E$104,"ปรมะ")+COUNTIF($E$122,"ปรมะ")+COUNTIF($E$125,"ปรมะ")+COUNTIF($E$143,"ปรมะ")+COUNTIF($E$146,"ปรมะ")+COUNTIF($E$164,"ปรมะ")+COUNTIF($E$167,"ปรมะ")+COUNTIF($E$185,"ปรมะ")+COUNTIF($E$188,"ปรมะ")</f>
+        <v/>
+      </c>
+      <c r="P121">
+        <f>COUNTIF($E$102,"ปรมะ")+COUNTIF($E$105,"ปรมะ")+COUNTIF($E$123,"ปรมะ")+COUNTIF($E$126,"ปรมะ")+COUNTIF($E$144,"ปรมะ")+COUNTIF($E$147,"ปรมะ")+COUNTIF($E$165,"ปรมะ")+COUNTIF($E$168,"ปรมะ")+COUNTIF($E$186,"ปรมะ")+COUNTIF($E$189,"ปรมะ")</f>
+        <v/>
+      </c>
+      <c r="Q121">
+        <f>SUM(N121:P121)</f>
+        <v/>
       </c>
       <c r="S121" s="1" t="inlineStr">
         <is>
-          <t>พลกฤต</t>
-        </is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="T121">
+        <f>SUM(H121,N121)</f>
+        <v/>
+      </c>
+      <c r="U121">
+        <f>SUM(I121,O121)</f>
+        <v/>
+      </c>
+      <c r="V121">
+        <f>SUM(J121,P121)</f>
+        <v/>
+      </c>
+      <c r="W121">
+        <f>SUM(K121,Q121)</f>
+        <v/>
       </c>
     </row>
     <row r="122">
@@ -5534,35 +6068,80 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C122" s="8" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="D122" s="10" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="E122" s="13" t="inlineStr">
+      <c r="C122" s="13" t="inlineStr">
         <is>
           <t>ภูวเนตร</t>
         </is>
       </c>
+      <c r="D122" s="5" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E122" s="7" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
       <c r="G122" s="1" t="inlineStr">
         <is>
-          <t>ชานนท์</t>
-        </is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122">
+        <f>COUNTIF($E$98,"สัญญา")+COUNTIF($E$107,"สัญญา")+COUNTIF($E$110,"สัญญา")+COUNTIF($E$113,"สัญญา")+COUNTIF($E$116,"สัญญา")+COUNTIF($E$119,"สัญญา")+COUNTIF($E$128,"สัญญา")+COUNTIF($E$131,"สัญญา")+COUNTIF($E$134,"สัญญา")+COUNTIF($E$137,"สัญญา")+COUNTIF($E$140,"สัญญา")+COUNTIF($E$149,"สัญญา")+COUNTIF($E$152,"สัญญา")+COUNTIF($E$155,"สัญญา")+COUNTIF($E$158,"สัญญา")+COUNTIF($E$161,"สัญญา")+COUNTIF($E$170,"สัญญา")+COUNTIF($E$173,"สัญญา")+COUNTIF($E$176,"สัญญา")+COUNTIF($E$179,"สัญญา")+COUNTIF($E$182,"สัญญา")</f>
+        <v/>
+      </c>
+      <c r="J122">
+        <f>COUNTIF($E$99,"สัญญา")+COUNTIF($E$108,"สัญญา")+COUNTIF($E$111,"สัญญา")+COUNTIF($E$114,"สัญญา")+COUNTIF($E$117,"สัญญา")+COUNTIF($E$120,"สัญญา")+COUNTIF($E$129,"สัญญา")+COUNTIF($E$132,"สัญญา")+COUNTIF($E$135,"สัญญา")+COUNTIF($E$138,"สัญญา")+COUNTIF($E$141,"สัญญา")+COUNTIF($E$150,"สัญญา")+COUNTIF($E$153,"สัญญา")+COUNTIF($E$156,"สัญญา")+COUNTIF($E$159,"สัญญา")+COUNTIF($E$162,"สัญญา")+COUNTIF($E$171,"สัญญา")+COUNTIF($E$174,"สัญญา")+COUNTIF($E$177,"สัญญา")+COUNTIF($E$180,"สัญญา")+COUNTIF($E$183,"สัญญา")</f>
+        <v/>
+      </c>
+      <c r="K122">
+        <f>SUM(H122:J122)</f>
+        <v/>
       </c>
       <c r="M122" s="1" t="inlineStr">
         <is>
-          <t>ชานนท์</t>
-        </is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="N122">
+        <f>COUNTIF($E$100,"สัญญา")+COUNTIF($E$103,"สัญญา")+COUNTIF($E$121,"สัญญา")+COUNTIF($E$124,"สัญญา")+COUNTIF($E$142,"สัญญา")+COUNTIF($E$145,"สัญญา")+COUNTIF($E$163,"สัญญา")+COUNTIF($E$166,"สัญญา")+COUNTIF($E$184,"สัญญา")+COUNTIF($E$187,"สัญญา")</f>
+        <v/>
+      </c>
+      <c r="O122">
+        <f>COUNTIF($E$101,"สัญญา")+COUNTIF($E$104,"สัญญา")+COUNTIF($E$122,"สัญญา")+COUNTIF($E$125,"สัญญา")+COUNTIF($E$143,"สัญญา")+COUNTIF($E$146,"สัญญา")+COUNTIF($E$164,"สัญญา")+COUNTIF($E$167,"สัญญา")+COUNTIF($E$185,"สัญญา")+COUNTIF($E$188,"สัญญา")</f>
+        <v/>
+      </c>
+      <c r="P122">
+        <f>COUNTIF($E$102,"สัญญา")+COUNTIF($E$105,"สัญญา")+COUNTIF($E$123,"สัญญา")+COUNTIF($E$126,"สัญญา")+COUNTIF($E$144,"สัญญา")+COUNTIF($E$147,"สัญญา")+COUNTIF($E$165,"สัญญา")+COUNTIF($E$168,"สัญญา")+COUNTIF($E$186,"สัญญา")+COUNTIF($E$189,"สัญญา")</f>
+        <v/>
+      </c>
+      <c r="Q122">
+        <f>SUM(N122:P122)</f>
+        <v/>
       </c>
       <c r="S122" s="1" t="inlineStr">
         <is>
-          <t>ชานนท์</t>
-        </is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="T122">
+        <f>SUM(H122,N122)</f>
+        <v/>
+      </c>
+      <c r="U122">
+        <f>SUM(I122,O122)</f>
+        <v/>
+      </c>
+      <c r="V122">
+        <f>SUM(J122,P122)</f>
+        <v/>
+      </c>
+      <c r="W122">
+        <f>SUM(K122,Q122)</f>
+        <v/>
       </c>
     </row>
     <row r="123">
@@ -5571,39 +6150,84 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C123" s="3" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="D123" s="4" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
+      <c r="C123" s="13" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="D123" s="5" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
         </is>
       </c>
       <c r="E123" s="7" t="inlineStr">
         <is>
-          <t>ราเชน</t>
+          <t>วินัย</t>
         </is>
       </c>
       <c r="G123" s="1" t="inlineStr">
         <is>
-          <t>ปรมะ</t>
-        </is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123">
+        <f>COUNTIF($E$98,"วินัย")+COUNTIF($E$107,"วินัย")+COUNTIF($E$110,"วินัย")+COUNTIF($E$113,"วินัย")+COUNTIF($E$116,"วินัย")+COUNTIF($E$119,"วินัย")+COUNTIF($E$128,"วินัย")+COUNTIF($E$131,"วินัย")+COUNTIF($E$134,"วินัย")+COUNTIF($E$137,"วินัย")+COUNTIF($E$140,"วินัย")+COUNTIF($E$149,"วินัย")+COUNTIF($E$152,"วินัย")+COUNTIF($E$155,"วินัย")+COUNTIF($E$158,"วินัย")+COUNTIF($E$161,"วินัย")+COUNTIF($E$170,"วินัย")+COUNTIF($E$173,"วินัย")+COUNTIF($E$176,"วินัย")+COUNTIF($E$179,"วินัย")+COUNTIF($E$182,"วินัย")</f>
+        <v/>
+      </c>
+      <c r="J123">
+        <f>COUNTIF($E$99,"วินัย")+COUNTIF($E$108,"วินัย")+COUNTIF($E$111,"วินัย")+COUNTIF($E$114,"วินัย")+COUNTIF($E$117,"วินัย")+COUNTIF($E$120,"วินัย")+COUNTIF($E$129,"วินัย")+COUNTIF($E$132,"วินัย")+COUNTIF($E$135,"วินัย")+COUNTIF($E$138,"วินัย")+COUNTIF($E$141,"วินัย")+COUNTIF($E$150,"วินัย")+COUNTIF($E$153,"วินัย")+COUNTIF($E$156,"วินัย")+COUNTIF($E$159,"วินัย")+COUNTIF($E$162,"วินัย")+COUNTIF($E$171,"วินัย")+COUNTIF($E$174,"วินัย")+COUNTIF($E$177,"วินัย")+COUNTIF($E$180,"วินัย")+COUNTIF($E$183,"วินัย")</f>
+        <v/>
+      </c>
+      <c r="K123">
+        <f>SUM(H123:J123)</f>
+        <v/>
       </c>
       <c r="M123" s="1" t="inlineStr">
         <is>
-          <t>ปรมะ</t>
-        </is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="N123">
+        <f>COUNTIF($E$100,"วินัย")+COUNTIF($E$103,"วินัย")+COUNTIF($E$121,"วินัย")+COUNTIF($E$124,"วินัย")+COUNTIF($E$142,"วินัย")+COUNTIF($E$145,"วินัย")+COUNTIF($E$163,"วินัย")+COUNTIF($E$166,"วินัย")+COUNTIF($E$184,"วินัย")+COUNTIF($E$187,"วินัย")</f>
+        <v/>
+      </c>
+      <c r="O123">
+        <f>COUNTIF($E$101,"วินัย")+COUNTIF($E$104,"วินัย")+COUNTIF($E$122,"วินัย")+COUNTIF($E$125,"วินัย")+COUNTIF($E$143,"วินัย")+COUNTIF($E$146,"วินัย")+COUNTIF($E$164,"วินัย")+COUNTIF($E$167,"วินัย")+COUNTIF($E$185,"วินัย")+COUNTIF($E$188,"วินัย")</f>
+        <v/>
+      </c>
+      <c r="P123">
+        <f>COUNTIF($E$102,"วินัย")+COUNTIF($E$105,"วินัย")+COUNTIF($E$123,"วินัย")+COUNTIF($E$126,"วินัย")+COUNTIF($E$144,"วินัย")+COUNTIF($E$147,"วินัย")+COUNTIF($E$165,"วินัย")+COUNTIF($E$168,"วินัย")+COUNTIF($E$186,"วินัย")+COUNTIF($E$189,"วินัย")</f>
+        <v/>
+      </c>
+      <c r="Q123">
+        <f>SUM(N123:P123)</f>
+        <v/>
       </c>
       <c r="S123" s="1" t="inlineStr">
         <is>
-          <t>ปรมะ</t>
-        </is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="T123">
+        <f>SUM(H123,N123)</f>
+        <v/>
+      </c>
+      <c r="U123">
+        <f>SUM(I123,O123)</f>
+        <v/>
+      </c>
+      <c r="V123">
+        <f>SUM(J123,P123)</f>
+        <v/>
+      </c>
+      <c r="W123">
+        <f>SUM(K123,Q123)</f>
+        <v/>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="1" t="inlineStr">
+      <c r="A124" s="3" t="inlineStr">
         <is>
           <t>10*</t>
         </is>
@@ -5613,35 +6237,80 @@
           <t>08:00-16:00</t>
         </is>
       </c>
-      <c r="C124" s="9" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="D124" s="10" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="E124" s="7" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
+      <c r="C124" s="4" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="D124" s="8" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E124" s="10" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
         </is>
       </c>
       <c r="G124" s="1" t="inlineStr">
         <is>
-          <t>สัญญา</t>
-        </is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124">
+        <f>COUNTIF($E$98,"รณยุทธ")+COUNTIF($E$107,"รณยุทธ")+COUNTIF($E$110,"รณยุทธ")+COUNTIF($E$113,"รณยุทธ")+COUNTIF($E$116,"รณยุทธ")+COUNTIF($E$119,"รณยุทธ")+COUNTIF($E$128,"รณยุทธ")+COUNTIF($E$131,"รณยุทธ")+COUNTIF($E$134,"รณยุทธ")+COUNTIF($E$137,"รณยุทธ")+COUNTIF($E$140,"รณยุทธ")+COUNTIF($E$149,"รณยุทธ")+COUNTIF($E$152,"รณยุทธ")+COUNTIF($E$155,"รณยุทธ")+COUNTIF($E$158,"รณยุทธ")+COUNTIF($E$161,"รณยุทธ")+COUNTIF($E$170,"รณยุทธ")+COUNTIF($E$173,"รณยุทธ")+COUNTIF($E$176,"รณยุทธ")+COUNTIF($E$179,"รณยุทธ")+COUNTIF($E$182,"รณยุทธ")</f>
+        <v/>
+      </c>
+      <c r="J124">
+        <f>COUNTIF($E$99,"รณยุทธ")+COUNTIF($E$108,"รณยุทธ")+COUNTIF($E$111,"รณยุทธ")+COUNTIF($E$114,"รณยุทธ")+COUNTIF($E$117,"รณยุทธ")+COUNTIF($E$120,"รณยุทธ")+COUNTIF($E$129,"รณยุทธ")+COUNTIF($E$132,"รณยุทธ")+COUNTIF($E$135,"รณยุทธ")+COUNTIF($E$138,"รณยุทธ")+COUNTIF($E$141,"รณยุทธ")+COUNTIF($E$150,"รณยุทธ")+COUNTIF($E$153,"รณยุทธ")+COUNTIF($E$156,"รณยุทธ")+COUNTIF($E$159,"รณยุทธ")+COUNTIF($E$162,"รณยุทธ")+COUNTIF($E$171,"รณยุทธ")+COUNTIF($E$174,"รณยุทธ")+COUNTIF($E$177,"รณยุทธ")+COUNTIF($E$180,"รณยุทธ")+COUNTIF($E$183,"รณยุทธ")</f>
+        <v/>
+      </c>
+      <c r="K124">
+        <f>SUM(H124:J124)</f>
+        <v/>
       </c>
       <c r="M124" s="1" t="inlineStr">
         <is>
-          <t>สัญญา</t>
-        </is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="N124">
+        <f>COUNTIF($E$100,"รณยุทธ")+COUNTIF($E$103,"รณยุทธ")+COUNTIF($E$121,"รณยุทธ")+COUNTIF($E$124,"รณยุทธ")+COUNTIF($E$142,"รณยุทธ")+COUNTIF($E$145,"รณยุทธ")+COUNTIF($E$163,"รณยุทธ")+COUNTIF($E$166,"รณยุทธ")+COUNTIF($E$184,"รณยุทธ")+COUNTIF($E$187,"รณยุทธ")</f>
+        <v/>
+      </c>
+      <c r="O124">
+        <f>COUNTIF($E$101,"รณยุทธ")+COUNTIF($E$104,"รณยุทธ")+COUNTIF($E$122,"รณยุทธ")+COUNTIF($E$125,"รณยุทธ")+COUNTIF($E$143,"รณยุทธ")+COUNTIF($E$146,"รณยุทธ")+COUNTIF($E$164,"รณยุทธ")+COUNTIF($E$167,"รณยุทธ")+COUNTIF($E$185,"รณยุทธ")+COUNTIF($E$188,"รณยุทธ")</f>
+        <v/>
+      </c>
+      <c r="P124">
+        <f>COUNTIF($E$102,"รณยุทธ")+COUNTIF($E$105,"รณยุทธ")+COUNTIF($E$123,"รณยุทธ")+COUNTIF($E$126,"รณยุทธ")+COUNTIF($E$144,"รณยุทธ")+COUNTIF($E$147,"รณยุทธ")+COUNTIF($E$165,"รณยุทธ")+COUNTIF($E$168,"รณยุทธ")+COUNTIF($E$186,"รณยุทธ")+COUNTIF($E$189,"รณยุทธ")</f>
+        <v/>
+      </c>
+      <c r="Q124">
+        <f>SUM(N124:P124)</f>
+        <v/>
       </c>
       <c r="S124" s="1" t="inlineStr">
         <is>
-          <t>สัญญา</t>
-        </is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="T124">
+        <f>SUM(H124,N124)</f>
+        <v/>
+      </c>
+      <c r="U124">
+        <f>SUM(I124,O124)</f>
+        <v/>
+      </c>
+      <c r="V124">
+        <f>SUM(J124,P124)</f>
+        <v/>
+      </c>
+      <c r="W124">
+        <f>SUM(K124,Q124)</f>
+        <v/>
       </c>
     </row>
     <row r="125">
@@ -5650,35 +6319,80 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C125" s="3" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="D125" s="6" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="E125" s="5" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="G125" s="1" t="inlineStr">
-        <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="M125" s="1" t="inlineStr">
-        <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="S125" s="1" t="inlineStr">
-        <is>
-          <t>วินัย</t>
-        </is>
+      <c r="C125" s="6" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="D125" s="11" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E125" s="14" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="G125" s="2" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125">
+        <f>COUNTIF($E$98,"วัฒพงษ์")+COUNTIF($E$107,"วัฒพงษ์")+COUNTIF($E$110,"วัฒพงษ์")+COUNTIF($E$113,"วัฒพงษ์")+COUNTIF($E$116,"วัฒพงษ์")+COUNTIF($E$119,"วัฒพงษ์")+COUNTIF($E$128,"วัฒพงษ์")+COUNTIF($E$131,"วัฒพงษ์")+COUNTIF($E$134,"วัฒพงษ์")+COUNTIF($E$137,"วัฒพงษ์")+COUNTIF($E$140,"วัฒพงษ์")+COUNTIF($E$149,"วัฒพงษ์")+COUNTIF($E$152,"วัฒพงษ์")+COUNTIF($E$155,"วัฒพงษ์")+COUNTIF($E$158,"วัฒพงษ์")+COUNTIF($E$161,"วัฒพงษ์")+COUNTIF($E$170,"วัฒพงษ์")+COUNTIF($E$173,"วัฒพงษ์")+COUNTIF($E$176,"วัฒพงษ์")+COUNTIF($E$179,"วัฒพงษ์")+COUNTIF($E$182,"วัฒพงษ์")</f>
+        <v/>
+      </c>
+      <c r="J125">
+        <f>COUNTIF($E$99,"วัฒพงษ์")+COUNTIF($E$108,"วัฒพงษ์")+COUNTIF($E$111,"วัฒพงษ์")+COUNTIF($E$114,"วัฒพงษ์")+COUNTIF($E$117,"วัฒพงษ์")+COUNTIF($E$120,"วัฒพงษ์")+COUNTIF($E$129,"วัฒพงษ์")+COUNTIF($E$132,"วัฒพงษ์")+COUNTIF($E$135,"วัฒพงษ์")+COUNTIF($E$138,"วัฒพงษ์")+COUNTIF($E$141,"วัฒพงษ์")+COUNTIF($E$150,"วัฒพงษ์")+COUNTIF($E$153,"วัฒพงษ์")+COUNTIF($E$156,"วัฒพงษ์")+COUNTIF($E$159,"วัฒพงษ์")+COUNTIF($E$162,"วัฒพงษ์")+COUNTIF($E$171,"วัฒพงษ์")+COUNTIF($E$174,"วัฒพงษ์")+COUNTIF($E$177,"วัฒพงษ์")+COUNTIF($E$180,"วัฒพงษ์")+COUNTIF($E$183,"วัฒพงษ์")</f>
+        <v/>
+      </c>
+      <c r="K125">
+        <f>SUM(H125:J125)</f>
+        <v/>
+      </c>
+      <c r="M125" s="2" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="N125">
+        <f>COUNTIF($E$100,"วัฒพงษ์")+COUNTIF($E$103,"วัฒพงษ์")+COUNTIF($E$121,"วัฒพงษ์")+COUNTIF($E$124,"วัฒพงษ์")+COUNTIF($E$142,"วัฒพงษ์")+COUNTIF($E$145,"วัฒพงษ์")+COUNTIF($E$163,"วัฒพงษ์")+COUNTIF($E$166,"วัฒพงษ์")+COUNTIF($E$184,"วัฒพงษ์")+COUNTIF($E$187,"วัฒพงษ์")</f>
+        <v/>
+      </c>
+      <c r="O125">
+        <f>COUNTIF($E$101,"วัฒพงษ์")+COUNTIF($E$104,"วัฒพงษ์")+COUNTIF($E$122,"วัฒพงษ์")+COUNTIF($E$125,"วัฒพงษ์")+COUNTIF($E$143,"วัฒพงษ์")+COUNTIF($E$146,"วัฒพงษ์")+COUNTIF($E$164,"วัฒพงษ์")+COUNTIF($E$167,"วัฒพงษ์")+COUNTIF($E$185,"วัฒพงษ์")+COUNTIF($E$188,"วัฒพงษ์")</f>
+        <v/>
+      </c>
+      <c r="P125">
+        <f>COUNTIF($E$102,"วัฒพงษ์")+COUNTIF($E$105,"วัฒพงษ์")+COUNTIF($E$123,"วัฒพงษ์")+COUNTIF($E$126,"วัฒพงษ์")+COUNTIF($E$144,"วัฒพงษ์")+COUNTIF($E$147,"วัฒพงษ์")+COUNTIF($E$165,"วัฒพงษ์")+COUNTIF($E$168,"วัฒพงษ์")+COUNTIF($E$186,"วัฒพงษ์")+COUNTIF($E$189,"วัฒพงษ์")</f>
+        <v/>
+      </c>
+      <c r="Q125">
+        <f>SUM(N125:P125)</f>
+        <v/>
+      </c>
+      <c r="S125" s="2" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="T125">
+        <f>SUM(H125,N125)</f>
+        <v/>
+      </c>
+      <c r="U125">
+        <f>SUM(I125,O125)</f>
+        <v/>
+      </c>
+      <c r="V125">
+        <f>SUM(J125,P125)</f>
+        <v/>
+      </c>
+      <c r="W125">
+        <f>SUM(K125,Q125)</f>
+        <v/>
       </c>
     </row>
     <row r="126">
@@ -5687,35 +6401,80 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C126" s="5" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="D126" s="15" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="E126" s="6" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="G126" s="1" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="M126" s="1" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="S126" s="1" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
+      <c r="C126" s="6" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="D126" s="11" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E126" s="14" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="G126" s="2" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126">
+        <f>COUNTIF($E$98,"ราเชน")+COUNTIF($E$107,"ราเชน")+COUNTIF($E$110,"ราเชน")+COUNTIF($E$113,"ราเชน")+COUNTIF($E$116,"ราเชน")+COUNTIF($E$119,"ราเชน")+COUNTIF($E$128,"ราเชน")+COUNTIF($E$131,"ราเชน")+COUNTIF($E$134,"ราเชน")+COUNTIF($E$137,"ราเชน")+COUNTIF($E$140,"ราเชน")+COUNTIF($E$149,"ราเชน")+COUNTIF($E$152,"ราเชน")+COUNTIF($E$155,"ราเชน")+COUNTIF($E$158,"ราเชน")+COUNTIF($E$161,"ราเชน")+COUNTIF($E$170,"ราเชน")+COUNTIF($E$173,"ราเชน")+COUNTIF($E$176,"ราเชน")+COUNTIF($E$179,"ราเชน")+COUNTIF($E$182,"ราเชน")</f>
+        <v/>
+      </c>
+      <c r="J126">
+        <f>COUNTIF($E$99,"ราเชน")+COUNTIF($E$108,"ราเชน")+COUNTIF($E$111,"ราเชน")+COUNTIF($E$114,"ราเชน")+COUNTIF($E$117,"ราเชน")+COUNTIF($E$120,"ราเชน")+COUNTIF($E$129,"ราเชน")+COUNTIF($E$132,"ราเชน")+COUNTIF($E$135,"ราเชน")+COUNTIF($E$138,"ราเชน")+COUNTIF($E$141,"ราเชน")+COUNTIF($E$150,"ราเชน")+COUNTIF($E$153,"ราเชน")+COUNTIF($E$156,"ราเชน")+COUNTIF($E$159,"ราเชน")+COUNTIF($E$162,"ราเชน")+COUNTIF($E$171,"ราเชน")+COUNTIF($E$174,"ราเชน")+COUNTIF($E$177,"ราเชน")+COUNTIF($E$180,"ราเชน")+COUNTIF($E$183,"ราเชน")</f>
+        <v/>
+      </c>
+      <c r="K126">
+        <f>SUM(H126:J126)</f>
+        <v/>
+      </c>
+      <c r="M126" s="2" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="N126">
+        <f>COUNTIF($E$100,"ราเชน")+COUNTIF($E$103,"ราเชน")+COUNTIF($E$121,"ราเชน")+COUNTIF($E$124,"ราเชน")+COUNTIF($E$142,"ราเชน")+COUNTIF($E$145,"ราเชน")+COUNTIF($E$163,"ราเชน")+COUNTIF($E$166,"ราเชน")+COUNTIF($E$184,"ราเชน")+COUNTIF($E$187,"ราเชน")</f>
+        <v/>
+      </c>
+      <c r="O126">
+        <f>COUNTIF($E$101,"ราเชน")+COUNTIF($E$104,"ราเชน")+COUNTIF($E$122,"ราเชน")+COUNTIF($E$125,"ราเชน")+COUNTIF($E$143,"ราเชน")+COUNTIF($E$146,"ราเชน")+COUNTIF($E$164,"ราเชน")+COUNTIF($E$167,"ราเชน")+COUNTIF($E$185,"ราเชน")+COUNTIF($E$188,"ราเชน")</f>
+        <v/>
+      </c>
+      <c r="P126">
+        <f>COUNTIF($E$102,"ราเชน")+COUNTIF($E$105,"ราเชน")+COUNTIF($E$123,"ราเชน")+COUNTIF($E$126,"ราเชน")+COUNTIF($E$144,"ราเชน")+COUNTIF($E$147,"ราเชน")+COUNTIF($E$165,"ราเชน")+COUNTIF($E$168,"ราเชน")+COUNTIF($E$186,"ราเชน")+COUNTIF($E$189,"ราเชน")</f>
+        <v/>
+      </c>
+      <c r="Q126">
+        <f>SUM(N126:P126)</f>
+        <v/>
+      </c>
+      <c r="S126" s="2" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="T126">
+        <f>SUM(H126,N126)</f>
+        <v/>
+      </c>
+      <c r="U126">
+        <f>SUM(I126,O126)</f>
+        <v/>
+      </c>
+      <c r="V126">
+        <f>SUM(J126,P126)</f>
+        <v/>
+      </c>
+      <c r="W126">
+        <f>SUM(K126,Q126)</f>
+        <v/>
       </c>
     </row>
     <row r="127">
@@ -5731,18 +6490,63 @@
       </c>
       <c r="G127" s="2" t="inlineStr">
         <is>
-          <t>วัฒพงษ์</t>
-        </is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127">
+        <f>COUNTIF($E$98,"นฤชิต")+COUNTIF($E$107,"นฤชิต")+COUNTIF($E$110,"นฤชิต")+COUNTIF($E$113,"นฤชิต")+COUNTIF($E$116,"นฤชิต")+COUNTIF($E$119,"นฤชิต")+COUNTIF($E$128,"นฤชิต")+COUNTIF($E$131,"นฤชิต")+COUNTIF($E$134,"นฤชิต")+COUNTIF($E$137,"นฤชิต")+COUNTIF($E$140,"นฤชิต")+COUNTIF($E$149,"นฤชิต")+COUNTIF($E$152,"นฤชิต")+COUNTIF($E$155,"นฤชิต")+COUNTIF($E$158,"นฤชิต")+COUNTIF($E$161,"นฤชิต")+COUNTIF($E$170,"นฤชิต")+COUNTIF($E$173,"นฤชิต")+COUNTIF($E$176,"นฤชิต")+COUNTIF($E$179,"นฤชิต")+COUNTIF($E$182,"นฤชิต")</f>
+        <v/>
+      </c>
+      <c r="J127">
+        <f>COUNTIF($E$99,"นฤชิต")+COUNTIF($E$108,"นฤชิต")+COUNTIF($E$111,"นฤชิต")+COUNTIF($E$114,"นฤชิต")+COUNTIF($E$117,"นฤชิต")+COUNTIF($E$120,"นฤชิต")+COUNTIF($E$129,"นฤชิต")+COUNTIF($E$132,"นฤชิต")+COUNTIF($E$135,"นฤชิต")+COUNTIF($E$138,"นฤชิต")+COUNTIF($E$141,"นฤชิต")+COUNTIF($E$150,"นฤชิต")+COUNTIF($E$153,"นฤชิต")+COUNTIF($E$156,"นฤชิต")+COUNTIF($E$159,"นฤชิต")+COUNTIF($E$162,"นฤชิต")+COUNTIF($E$171,"นฤชิต")+COUNTIF($E$174,"นฤชิต")+COUNTIF($E$177,"นฤชิต")+COUNTIF($E$180,"นฤชิต")+COUNTIF($E$183,"นฤชิต")</f>
+        <v/>
+      </c>
+      <c r="K127">
+        <f>SUM(H127:J127)</f>
+        <v/>
       </c>
       <c r="M127" s="2" t="inlineStr">
         <is>
-          <t>วัฒพงษ์</t>
-        </is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="N127">
+        <f>COUNTIF($E$100,"นฤชิต")+COUNTIF($E$103,"นฤชิต")+COUNTIF($E$121,"นฤชิต")+COUNTIF($E$124,"นฤชิต")+COUNTIF($E$142,"นฤชิต")+COUNTIF($E$145,"นฤชิต")+COUNTIF($E$163,"นฤชิต")+COUNTIF($E$166,"นฤชิต")+COUNTIF($E$184,"นฤชิต")+COUNTIF($E$187,"นฤชิต")</f>
+        <v/>
+      </c>
+      <c r="O127">
+        <f>COUNTIF($E$101,"นฤชิต")+COUNTIF($E$104,"นฤชิต")+COUNTIF($E$122,"นฤชิต")+COUNTIF($E$125,"นฤชิต")+COUNTIF($E$143,"นฤชิต")+COUNTIF($E$146,"นฤชิต")+COUNTIF($E$164,"นฤชิต")+COUNTIF($E$167,"นฤชิต")+COUNTIF($E$185,"นฤชิต")+COUNTIF($E$188,"นฤชิต")</f>
+        <v/>
+      </c>
+      <c r="P127">
+        <f>COUNTIF($E$102,"นฤชิต")+COUNTIF($E$105,"นฤชิต")+COUNTIF($E$123,"นฤชิต")+COUNTIF($E$126,"นฤชิต")+COUNTIF($E$144,"นฤชิต")+COUNTIF($E$147,"นฤชิต")+COUNTIF($E$165,"นฤชิต")+COUNTIF($E$168,"นฤชิต")+COUNTIF($E$186,"นฤชิต")+COUNTIF($E$189,"นฤชิต")</f>
+        <v/>
+      </c>
+      <c r="Q127">
+        <f>SUM(N127:P127)</f>
+        <v/>
       </c>
       <c r="S127" s="2" t="inlineStr">
         <is>
-          <t>วัฒพงษ์</t>
-        </is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="T127">
+        <f>SUM(H127,N127)</f>
+        <v/>
+      </c>
+      <c r="U127">
+        <f>SUM(I127,O127)</f>
+        <v/>
+      </c>
+      <c r="V127">
+        <f>SUM(J127,P127)</f>
+        <v/>
+      </c>
+      <c r="W127">
+        <f>SUM(K127,Q127)</f>
+        <v/>
       </c>
     </row>
     <row r="128">
@@ -5751,35 +6555,80 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C128" s="8" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="D128" s="7" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
+      <c r="C128" s="16" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="D128" s="17" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
       <c r="E128" s="15" t="inlineStr">
         <is>
-          <t>ราเชนทร์</t>
+          <t>นฤชิต</t>
         </is>
       </c>
       <c r="G128" s="2" t="inlineStr">
         <is>
-          <t>ราเชน</t>
-        </is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128">
+        <f>COUNTIF($E$98,"จีรวัฒน์")+COUNTIF($E$107,"จีรวัฒน์")+COUNTIF($E$110,"จีรวัฒน์")+COUNTIF($E$113,"จีรวัฒน์")+COUNTIF($E$116,"จีรวัฒน์")+COUNTIF($E$119,"จีรวัฒน์")+COUNTIF($E$128,"จีรวัฒน์")+COUNTIF($E$131,"จีรวัฒน์")+COUNTIF($E$134,"จีรวัฒน์")+COUNTIF($E$137,"จีรวัฒน์")+COUNTIF($E$140,"จีรวัฒน์")+COUNTIF($E$149,"จีรวัฒน์")+COUNTIF($E$152,"จีรวัฒน์")+COUNTIF($E$155,"จีรวัฒน์")+COUNTIF($E$158,"จีรวัฒน์")+COUNTIF($E$161,"จีรวัฒน์")+COUNTIF($E$170,"จีรวัฒน์")+COUNTIF($E$173,"จีรวัฒน์")+COUNTIF($E$176,"จีรวัฒน์")+COUNTIF($E$179,"จีรวัฒน์")+COUNTIF($E$182,"จีรวัฒน์")</f>
+        <v/>
+      </c>
+      <c r="J128">
+        <f>COUNTIF($E$99,"จีรวัฒน์")+COUNTIF($E$108,"จีรวัฒน์")+COUNTIF($E$111,"จีรวัฒน์")+COUNTIF($E$114,"จีรวัฒน์")+COUNTIF($E$117,"จีรวัฒน์")+COUNTIF($E$120,"จีรวัฒน์")+COUNTIF($E$129,"จีรวัฒน์")+COUNTIF($E$132,"จีรวัฒน์")+COUNTIF($E$135,"จีรวัฒน์")+COUNTIF($E$138,"จีรวัฒน์")+COUNTIF($E$141,"จีรวัฒน์")+COUNTIF($E$150,"จีรวัฒน์")+COUNTIF($E$153,"จีรวัฒน์")+COUNTIF($E$156,"จีรวัฒน์")+COUNTIF($E$159,"จีรวัฒน์")+COUNTIF($E$162,"จีรวัฒน์")+COUNTIF($E$171,"จีรวัฒน์")+COUNTIF($E$174,"จีรวัฒน์")+COUNTIF($E$177,"จีรวัฒน์")+COUNTIF($E$180,"จีรวัฒน์")+COUNTIF($E$183,"จีรวัฒน์")</f>
+        <v/>
+      </c>
+      <c r="K128">
+        <f>SUM(H128:J128)</f>
+        <v/>
       </c>
       <c r="M128" s="2" t="inlineStr">
         <is>
-          <t>ราเชน</t>
-        </is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="N128">
+        <f>COUNTIF($E$100,"จีรวัฒน์")+COUNTIF($E$103,"จีรวัฒน์")+COUNTIF($E$121,"จีรวัฒน์")+COUNTIF($E$124,"จีรวัฒน์")+COUNTIF($E$142,"จีรวัฒน์")+COUNTIF($E$145,"จีรวัฒน์")+COUNTIF($E$163,"จีรวัฒน์")+COUNTIF($E$166,"จีรวัฒน์")+COUNTIF($E$184,"จีรวัฒน์")+COUNTIF($E$187,"จีรวัฒน์")</f>
+        <v/>
+      </c>
+      <c r="O128">
+        <f>COUNTIF($E$101,"จีรวัฒน์")+COUNTIF($E$104,"จีรวัฒน์")+COUNTIF($E$122,"จีรวัฒน์")+COUNTIF($E$125,"จีรวัฒน์")+COUNTIF($E$143,"จีรวัฒน์")+COUNTIF($E$146,"จีรวัฒน์")+COUNTIF($E$164,"จีรวัฒน์")+COUNTIF($E$167,"จีรวัฒน์")+COUNTIF($E$185,"จีรวัฒน์")+COUNTIF($E$188,"จีรวัฒน์")</f>
+        <v/>
+      </c>
+      <c r="P128">
+        <f>COUNTIF($E$102,"จีรวัฒน์")+COUNTIF($E$105,"จีรวัฒน์")+COUNTIF($E$123,"จีรวัฒน์")+COUNTIF($E$126,"จีรวัฒน์")+COUNTIF($E$144,"จีรวัฒน์")+COUNTIF($E$147,"จีรวัฒน์")+COUNTIF($E$165,"จีรวัฒน์")+COUNTIF($E$168,"จีรวัฒน์")+COUNTIF($E$186,"จีรวัฒน์")+COUNTIF($E$189,"จีรวัฒน์")</f>
+        <v/>
+      </c>
+      <c r="Q128">
+        <f>SUM(N128:P128)</f>
+        <v/>
       </c>
       <c r="S128" s="2" t="inlineStr">
         <is>
-          <t>ราเชน</t>
-        </is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="T128">
+        <f>SUM(H128,N128)</f>
+        <v/>
+      </c>
+      <c r="U128">
+        <f>SUM(I128,O128)</f>
+        <v/>
+      </c>
+      <c r="V128">
+        <f>SUM(J128,P128)</f>
+        <v/>
+      </c>
+      <c r="W128">
+        <f>SUM(K128,Q128)</f>
+        <v/>
       </c>
     </row>
     <row r="129">
@@ -5788,35 +6637,80 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C129" s="14" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="D129" s="11" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="E129" s="16" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
+      <c r="C129" s="16" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="D129" s="17" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E129" s="15" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
         </is>
       </c>
       <c r="G129" s="2" t="inlineStr">
         <is>
-          <t>นฤชิต</t>
-        </is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129">
+        <f>COUNTIF($E$98,"สุเมธร์")+COUNTIF($E$107,"สุเมธร์")+COUNTIF($E$110,"สุเมธร์")+COUNTIF($E$113,"สุเมธร์")+COUNTIF($E$116,"สุเมธร์")+COUNTIF($E$119,"สุเมธร์")+COUNTIF($E$128,"สุเมธร์")+COUNTIF($E$131,"สุเมธร์")+COUNTIF($E$134,"สุเมธร์")+COUNTIF($E$137,"สุเมธร์")+COUNTIF($E$140,"สุเมธร์")+COUNTIF($E$149,"สุเมธร์")+COUNTIF($E$152,"สุเมธร์")+COUNTIF($E$155,"สุเมธร์")+COUNTIF($E$158,"สุเมธร์")+COUNTIF($E$161,"สุเมธร์")+COUNTIF($E$170,"สุเมธร์")+COUNTIF($E$173,"สุเมธร์")+COUNTIF($E$176,"สุเมธร์")+COUNTIF($E$179,"สุเมธร์")+COUNTIF($E$182,"สุเมธร์")</f>
+        <v/>
+      </c>
+      <c r="J129">
+        <f>COUNTIF($E$99,"สุเมธร์")+COUNTIF($E$108,"สุเมธร์")+COUNTIF($E$111,"สุเมธร์")+COUNTIF($E$114,"สุเมธร์")+COUNTIF($E$117,"สุเมธร์")+COUNTIF($E$120,"สุเมธร์")+COUNTIF($E$129,"สุเมธร์")+COUNTIF($E$132,"สุเมธร์")+COUNTIF($E$135,"สุเมธร์")+COUNTIF($E$138,"สุเมธร์")+COUNTIF($E$141,"สุเมธร์")+COUNTIF($E$150,"สุเมธร์")+COUNTIF($E$153,"สุเมธร์")+COUNTIF($E$156,"สุเมธร์")+COUNTIF($E$159,"สุเมธร์")+COUNTIF($E$162,"สุเมธร์")+COUNTIF($E$171,"สุเมธร์")+COUNTIF($E$174,"สุเมธร์")+COUNTIF($E$177,"สุเมธร์")+COUNTIF($E$180,"สุเมธร์")+COUNTIF($E$183,"สุเมธร์")</f>
+        <v/>
+      </c>
+      <c r="K129">
+        <f>SUM(H129:J129)</f>
+        <v/>
       </c>
       <c r="M129" s="2" t="inlineStr">
         <is>
-          <t>นฤชิต</t>
-        </is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="N129">
+        <f>COUNTIF($E$100,"สุเมธร์")+COUNTIF($E$103,"สุเมธร์")+COUNTIF($E$121,"สุเมธร์")+COUNTIF($E$124,"สุเมธร์")+COUNTIF($E$142,"สุเมธร์")+COUNTIF($E$145,"สุเมธร์")+COUNTIF($E$163,"สุเมธร์")+COUNTIF($E$166,"สุเมธร์")+COUNTIF($E$184,"สุเมธร์")+COUNTIF($E$187,"สุเมธร์")</f>
+        <v/>
+      </c>
+      <c r="O129">
+        <f>COUNTIF($E$101,"สุเมธร์")+COUNTIF($E$104,"สุเมธร์")+COUNTIF($E$122,"สุเมธร์")+COUNTIF($E$125,"สุเมธร์")+COUNTIF($E$143,"สุเมธร์")+COUNTIF($E$146,"สุเมธร์")+COUNTIF($E$164,"สุเมธร์")+COUNTIF($E$167,"สุเมธร์")+COUNTIF($E$185,"สุเมธร์")+COUNTIF($E$188,"สุเมธร์")</f>
+        <v/>
+      </c>
+      <c r="P129">
+        <f>COUNTIF($E$102,"สุเมธร์")+COUNTIF($E$105,"สุเมธร์")+COUNTIF($E$123,"สุเมธร์")+COUNTIF($E$126,"สุเมธร์")+COUNTIF($E$144,"สุเมธร์")+COUNTIF($E$147,"สุเมธร์")+COUNTIF($E$165,"สุเมธร์")+COUNTIF($E$168,"สุเมธร์")+COUNTIF($E$186,"สุเมธร์")+COUNTIF($E$189,"สุเมธร์")</f>
+        <v/>
+      </c>
+      <c r="Q129">
+        <f>SUM(N129:P129)</f>
+        <v/>
       </c>
       <c r="S129" s="2" t="inlineStr">
         <is>
-          <t>นฤชิต</t>
-        </is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="T129">
+        <f>SUM(H129,N129)</f>
+        <v/>
+      </c>
+      <c r="U129">
+        <f>SUM(I129,O129)</f>
+        <v/>
+      </c>
+      <c r="V129">
+        <f>SUM(J129,P129)</f>
+        <v/>
+      </c>
+      <c r="W129">
+        <f>SUM(K129,Q129)</f>
+        <v/>
       </c>
     </row>
     <row r="130">
@@ -5832,18 +6726,63 @@
       </c>
       <c r="G130" s="2" t="inlineStr">
         <is>
-          <t>จีรวัฒน์</t>
-        </is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130">
+        <f>COUNTIF($E$98,"นที")+COUNTIF($E$107,"นที")+COUNTIF($E$110,"นที")+COUNTIF($E$113,"นที")+COUNTIF($E$116,"นที")+COUNTIF($E$119,"นที")+COUNTIF($E$128,"นที")+COUNTIF($E$131,"นที")+COUNTIF($E$134,"นที")+COUNTIF($E$137,"นที")+COUNTIF($E$140,"นที")+COUNTIF($E$149,"นที")+COUNTIF($E$152,"นที")+COUNTIF($E$155,"นที")+COUNTIF($E$158,"นที")+COUNTIF($E$161,"นที")+COUNTIF($E$170,"นที")+COUNTIF($E$173,"นที")+COUNTIF($E$176,"นที")+COUNTIF($E$179,"นที")+COUNTIF($E$182,"นที")</f>
+        <v/>
+      </c>
+      <c r="J130">
+        <f>COUNTIF($E$99,"นที")+COUNTIF($E$108,"นที")+COUNTIF($E$111,"นที")+COUNTIF($E$114,"นที")+COUNTIF($E$117,"นที")+COUNTIF($E$120,"นที")+COUNTIF($E$129,"นที")+COUNTIF($E$132,"นที")+COUNTIF($E$135,"นที")+COUNTIF($E$138,"นที")+COUNTIF($E$141,"นที")+COUNTIF($E$150,"นที")+COUNTIF($E$153,"นที")+COUNTIF($E$156,"นที")+COUNTIF($E$159,"นที")+COUNTIF($E$162,"นที")+COUNTIF($E$171,"นที")+COUNTIF($E$174,"นที")+COUNTIF($E$177,"นที")+COUNTIF($E$180,"นที")+COUNTIF($E$183,"นที")</f>
+        <v/>
+      </c>
+      <c r="K130">
+        <f>SUM(H130:J130)</f>
+        <v/>
       </c>
       <c r="M130" s="2" t="inlineStr">
         <is>
-          <t>จีรวัฒน์</t>
-        </is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="N130">
+        <f>COUNTIF($E$100,"นที")+COUNTIF($E$103,"นที")+COUNTIF($E$121,"นที")+COUNTIF($E$124,"นที")+COUNTIF($E$142,"นที")+COUNTIF($E$145,"นที")+COUNTIF($E$163,"นที")+COUNTIF($E$166,"นที")+COUNTIF($E$184,"นที")+COUNTIF($E$187,"นที")</f>
+        <v/>
+      </c>
+      <c r="O130">
+        <f>COUNTIF($E$101,"นที")+COUNTIF($E$104,"นที")+COUNTIF($E$122,"นที")+COUNTIF($E$125,"นที")+COUNTIF($E$143,"นที")+COUNTIF($E$146,"นที")+COUNTIF($E$164,"นที")+COUNTIF($E$167,"นที")+COUNTIF($E$185,"นที")+COUNTIF($E$188,"นที")</f>
+        <v/>
+      </c>
+      <c r="P130">
+        <f>COUNTIF($E$102,"นที")+COUNTIF($E$105,"นที")+COUNTIF($E$123,"นที")+COUNTIF($E$126,"นที")+COUNTIF($E$144,"นที")+COUNTIF($E$147,"นที")+COUNTIF($E$165,"นที")+COUNTIF($E$168,"นที")+COUNTIF($E$186,"นที")+COUNTIF($E$189,"นที")</f>
+        <v/>
+      </c>
+      <c r="Q130">
+        <f>SUM(N130:P130)</f>
+        <v/>
       </c>
       <c r="S130" s="2" t="inlineStr">
         <is>
-          <t>จีรวัฒน์</t>
-        </is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="T130">
+        <f>SUM(H130,N130)</f>
+        <v/>
+      </c>
+      <c r="U130">
+        <f>SUM(I130,O130)</f>
+        <v/>
+      </c>
+      <c r="V130">
+        <f>SUM(J130,P130)</f>
+        <v/>
+      </c>
+      <c r="W130">
+        <f>SUM(K130,Q130)</f>
+        <v/>
       </c>
     </row>
     <row r="131">
@@ -5852,34 +6791,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C131" s="12" t="inlineStr">
-        <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="D131" s="10" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="E131" s="6" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="G131" s="2" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="M131" s="2" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="S131" s="2" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
+      <c r="C131" s="13" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="D131" s="11" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E131" s="8" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
     </row>
@@ -5889,34 +6813,19 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C132" s="16" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="D132" s="7" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="E132" s="15" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="G132" s="2" t="inlineStr">
+      <c r="C132" s="13" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="D132" s="11" t="inlineStr">
         <is>
           <t>นที</t>
         </is>
       </c>
-      <c r="M132" s="2" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="S132" s="2" t="inlineStr">
-        <is>
-          <t>นที</t>
+      <c r="E132" s="8" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
     </row>
@@ -5931,6 +6840,11 @@
           <t>08:00-16:00</t>
         </is>
       </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>สรุป</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="B134" t="inlineStr">
@@ -5938,24 +6852,39 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C134" s="7" t="inlineStr">
+      <c r="C134" s="4" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="D134" s="14" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E134" s="5" t="inlineStr">
         <is>
           <t>ราเชน</t>
         </is>
       </c>
-      <c r="D134" s="10" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="E134" s="13" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>วันหยุดชดเชย</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>สรุป</t>
+          <t>วันหยุด</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>วันทำการ</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>รวม</t>
         </is>
       </c>
     </row>
@@ -5965,40 +6894,37 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C135" s="5" t="inlineStr">
+      <c r="C135" s="4" t="inlineStr">
         <is>
           <t>รณยุทธ</t>
         </is>
       </c>
-      <c r="D135" s="8" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="E135" s="12" t="inlineStr">
-        <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>วันหยุดชดเชย</t>
-        </is>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>วันหยุด</t>
-        </is>
-      </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>วันทำการ</t>
-        </is>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>รวม</t>
-        </is>
+      <c r="D135" s="14" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E135" s="5" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="G135" s="1" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="I135">
+        <f>SUM(Q100,Q117)</f>
+        <v/>
+      </c>
+      <c r="J135">
+        <f>SUM(K100,K117)</f>
+        <v/>
+      </c>
+      <c r="K135">
+        <f>SUM(J135,I135)</f>
+        <v/>
       </c>
     </row>
     <row r="136">
@@ -6014,8 +6940,20 @@
       </c>
       <c r="G136" s="1" t="inlineStr">
         <is>
-          <t>ภูวเนตร</t>
-        </is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="I136">
+        <f>SUM(Q101,Q118)</f>
+        <v/>
+      </c>
+      <c r="J136">
+        <f>SUM(K101,K118)</f>
+        <v/>
+      </c>
+      <c r="K136">
+        <f>SUM(J136,I136)</f>
+        <v/>
       </c>
     </row>
     <row r="137">
@@ -6024,25 +6962,37 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C137" s="12" t="inlineStr">
+      <c r="C137" s="10" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="D137" s="17" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E137" s="7" t="inlineStr">
         <is>
           <t>วินัย</t>
         </is>
       </c>
-      <c r="D137" s="15" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="E137" s="5" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
       <c r="G137" s="1" t="inlineStr">
         <is>
-          <t>ราเชนทร์</t>
-        </is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="I137">
+        <f>SUM(Q102,Q119)</f>
+        <v/>
+      </c>
+      <c r="J137">
+        <f>SUM(K102,K119)</f>
+        <v/>
+      </c>
+      <c r="K137">
+        <f>SUM(J137,I137)</f>
+        <v/>
       </c>
     </row>
     <row r="138">
@@ -6051,25 +7001,37 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C138" s="14" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="D138" s="8" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="E138" s="13" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
+      <c r="C138" s="10" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="D138" s="17" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E138" s="7" t="inlineStr">
+        <is>
+          <t>วินัย</t>
         </is>
       </c>
       <c r="G138" s="1" t="inlineStr">
         <is>
-          <t>พลกฤต</t>
-        </is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="I138">
+        <f>SUM(Q103,Q120)</f>
+        <v/>
+      </c>
+      <c r="J138">
+        <f>SUM(K103,K120)</f>
+        <v/>
+      </c>
+      <c r="K138">
+        <f>SUM(J138,I138)</f>
+        <v/>
       </c>
     </row>
     <row r="139">
@@ -6085,8 +7047,20 @@
       </c>
       <c r="G139" s="1" t="inlineStr">
         <is>
-          <t>ชานนท์</t>
-        </is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="I139">
+        <f>SUM(Q104,Q121)</f>
+        <v/>
+      </c>
+      <c r="J139">
+        <f>SUM(K104,K121)</f>
+        <v/>
+      </c>
+      <c r="K139">
+        <f>SUM(J139,I139)</f>
+        <v/>
       </c>
     </row>
     <row r="140">
@@ -6095,25 +7069,37 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C140" s="5" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="D140" s="8" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-      <c r="E140" s="9" t="inlineStr">
+      <c r="C140" s="13" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="D140" s="5" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E140" s="11" t="inlineStr">
         <is>
           <t>นที</t>
         </is>
       </c>
       <c r="G140" s="1" t="inlineStr">
         <is>
-          <t>ปรมะ</t>
-        </is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="I140">
+        <f>SUM(Q105,Q122)</f>
+        <v/>
+      </c>
+      <c r="J140">
+        <f>SUM(K105,K122)</f>
+        <v/>
+      </c>
+      <c r="K140">
+        <f>SUM(J140,I140)</f>
+        <v/>
       </c>
     </row>
     <row r="141">
@@ -6122,29 +7108,41 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C141" s="16" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="D141" s="15" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="E141" s="7" t="inlineStr">
+      <c r="C141" s="13" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="D141" s="5" t="inlineStr">
         <is>
           <t>ราเชน</t>
         </is>
       </c>
+      <c r="E141" s="11" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
       <c r="G141" s="1" t="inlineStr">
         <is>
-          <t>สัญญา</t>
-        </is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="I141">
+        <f>SUM(Q106,Q123)</f>
+        <v/>
+      </c>
+      <c r="J141">
+        <f>SUM(K106,K123)</f>
+        <v/>
+      </c>
+      <c r="K141">
+        <f>SUM(J141,I141)</f>
+        <v/>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="1" t="inlineStr">
+      <c r="A142" s="3" t="inlineStr">
         <is>
           <t>16*</t>
         </is>
@@ -6154,25 +7152,37 @@
           <t>08:00-16:00</t>
         </is>
       </c>
-      <c r="C142" s="15" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="D142" s="9" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="E142" s="6" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
+      <c r="C142" s="7" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="D142" s="15" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E142" s="8" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
       <c r="G142" s="1" t="inlineStr">
         <is>
-          <t>วินัย</t>
-        </is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="I142">
+        <f>SUM(Q107,Q124)</f>
+        <v/>
+      </c>
+      <c r="J142">
+        <f>SUM(K107,K124)</f>
+        <v/>
+      </c>
+      <c r="K142">
+        <f>SUM(J142,I142)</f>
+        <v/>
       </c>
     </row>
     <row r="143">
@@ -6181,25 +7191,37 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C143" s="3" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="D143" s="6" t="inlineStr">
+      <c r="C143" s="9" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D143" s="17" t="inlineStr">
         <is>
           <t>จีรวัฒน์</t>
         </is>
       </c>
       <c r="E143" s="10" t="inlineStr">
         <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="G143" s="1" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="G143" s="2" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="I143">
+        <f>SUM(Q108,Q125)</f>
+        <v/>
+      </c>
+      <c r="J143">
+        <f>SUM(K108,K125)</f>
+        <v/>
+      </c>
+      <c r="K143">
+        <f>SUM(J143,I143)</f>
+        <v/>
       </c>
     </row>
     <row r="144">
@@ -6208,57 +7230,81 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C144" s="16" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="D144" s="14" t="inlineStr">
+      <c r="C144" s="9" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D144" s="17" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E144" s="10" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="G144" s="2" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="I144">
+        <f>SUM(Q109,Q126)</f>
+        <v/>
+      </c>
+      <c r="J144">
+        <f>SUM(K109,K126)</f>
+        <v/>
+      </c>
+      <c r="K144">
+        <f>SUM(J144,I144)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="3" t="inlineStr">
+        <is>
+          <t>17*</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="C145" s="6" t="inlineStr">
         <is>
           <t>พลกฤต</t>
         </is>
       </c>
-      <c r="E144" s="10" t="inlineStr">
+      <c r="D145" s="11" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E145" s="5" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="G145" s="2" t="inlineStr">
         <is>
           <t>นฤชิต</t>
         </is>
       </c>
-      <c r="G144" s="2" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="inlineStr">
-        <is>
-          <t>17*</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>08:00-16:00</t>
-        </is>
-      </c>
-      <c r="C145" s="14" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="D145" s="3" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="E145" s="12" t="inlineStr">
-        <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="G145" s="2" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
-        </is>
+      <c r="I145">
+        <f>SUM(Q110,Q127)</f>
+        <v/>
+      </c>
+      <c r="J145">
+        <f>SUM(K110,K127)</f>
+        <v/>
+      </c>
+      <c r="K145">
+        <f>SUM(J145,I145)</f>
+        <v/>
       </c>
     </row>
     <row r="146">
@@ -6267,25 +7313,37 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C146" s="13" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="D146" s="4" t="inlineStr">
+      <c r="C146" s="16" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="D146" s="14" t="inlineStr">
         <is>
           <t>สุเมธร์</t>
         </is>
       </c>
-      <c r="E146" s="7" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
+      <c r="E146" s="4" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
         </is>
       </c>
       <c r="G146" s="2" t="inlineStr">
         <is>
-          <t>นฤชิต</t>
-        </is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="I146">
+        <f>SUM(Q111,Q128)</f>
+        <v/>
+      </c>
+      <c r="J146">
+        <f>SUM(K111,K128)</f>
+        <v/>
+      </c>
+      <c r="K146">
+        <f>SUM(J146,I146)</f>
+        <v/>
       </c>
     </row>
     <row r="147">
@@ -6296,23 +7354,35 @@
       </c>
       <c r="C147" s="16" t="inlineStr">
         <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="D147" s="7" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="D147" s="14" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
         </is>
       </c>
       <c r="E147" s="4" t="inlineStr">
         <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="G147" s="2" t="inlineStr">
+        <is>
           <t>สุเมธร์</t>
         </is>
       </c>
-      <c r="G147" s="2" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
-        </is>
+      <c r="I147">
+        <f>SUM(Q112,Q129)</f>
+        <v/>
+      </c>
+      <c r="J147">
+        <f>SUM(K112,K129)</f>
+        <v/>
+      </c>
+      <c r="K147">
+        <f>SUM(J147,I147)</f>
+        <v/>
       </c>
     </row>
     <row r="148">
@@ -6328,8 +7398,20 @@
       </c>
       <c r="G148" s="2" t="inlineStr">
         <is>
-          <t>สุเมธร์</t>
-        </is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="I148">
+        <f>SUM(Q113,Q130)</f>
+        <v/>
+      </c>
+      <c r="J148">
+        <f>SUM(K113,K130)</f>
+        <v/>
+      </c>
+      <c r="K148">
+        <f>SUM(J148,I148)</f>
+        <v/>
       </c>
     </row>
     <row r="149">
@@ -6338,24 +7420,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C149" s="11" t="inlineStr">
+      <c r="C149" s="13" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="D149" s="8" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E149" s="9" t="inlineStr">
         <is>
           <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="D149" s="3" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="E149" s="15" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="G149" s="2" t="inlineStr">
-        <is>
-          <t>นที</t>
         </is>
       </c>
     </row>
@@ -6365,19 +7442,19 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C150" s="15" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="D150" s="12" t="inlineStr">
-        <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="E150" s="14" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
+      <c r="C150" s="13" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="D150" s="8" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E150" s="9" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
         </is>
       </c>
     </row>
@@ -6399,19 +7476,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C152" s="16" t="inlineStr">
+      <c r="C152" s="7" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="D152" s="15" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E152" s="12" t="inlineStr">
         <is>
           <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="D152" s="9" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="E152" s="11" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
         </is>
       </c>
     </row>
@@ -6421,19 +7498,19 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C153" s="3" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="D153" s="10" t="inlineStr">
+      <c r="C153" s="7" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="D153" s="15" t="inlineStr">
         <is>
           <t>นฤชิต</t>
         </is>
       </c>
-      <c r="E153" s="14" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
+      <c r="E153" s="12" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
         </is>
       </c>
     </row>
@@ -6455,19 +7532,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C155" s="14" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="D155" s="12" t="inlineStr">
-        <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="E155" s="11" t="inlineStr">
+      <c r="C155" s="9" t="inlineStr">
         <is>
           <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D155" s="14" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E155" s="13" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
         </is>
       </c>
     </row>
@@ -6477,14 +7554,14 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C156" s="3" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="D156" s="15" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
+      <c r="C156" s="9" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D156" s="14" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
         </is>
       </c>
       <c r="E156" s="13" t="inlineStr">
@@ -6511,19 +7588,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C158" s="13" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="D158" s="15" t="inlineStr">
+      <c r="C158" s="10" t="inlineStr">
         <is>
           <t>ราเชนทร์</t>
         </is>
       </c>
-      <c r="E158" s="14" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
+      <c r="D158" s="11" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E158" s="15" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
         </is>
       </c>
     </row>
@@ -6533,9 +7610,9 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C159" s="11" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
+      <c r="C159" s="7" t="inlineStr">
+        <is>
+          <t>วินัย</t>
         </is>
       </c>
       <c r="D159" s="8" t="inlineStr">
@@ -6543,7 +7620,7 @@
           <t>วัฒพงษ์</t>
         </is>
       </c>
-      <c r="E159" s="3" t="inlineStr">
+      <c r="E159" s="16" t="inlineStr">
         <is>
           <t>สัญญา</t>
         </is>
@@ -6567,19 +7644,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C161" s="15" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="D161" s="7" t="inlineStr">
-        <is>
-          <t>ราเชน</t>
-        </is>
-      </c>
-      <c r="E161" s="16" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
+      <c r="C161" s="16" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="D161" s="14" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E161" s="9" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
         </is>
       </c>
     </row>
@@ -6589,24 +7666,24 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C162" s="13" t="inlineStr">
+      <c r="C162" s="10" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="D162" s="5" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E162" s="13" t="inlineStr">
         <is>
           <t>ภูวเนตร</t>
         </is>
       </c>
-      <c r="D162" s="12" t="inlineStr">
-        <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="E162" s="4" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
     </row>
     <row r="163">
-      <c r="A163" s="1" t="inlineStr">
+      <c r="A163" s="3" t="inlineStr">
         <is>
           <t>23*</t>
         </is>
@@ -6618,17 +7695,17 @@
       </c>
       <c r="C163" s="16" t="inlineStr">
         <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="D163" s="12" t="inlineStr">
-        <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="E163" s="15" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="D163" s="15" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E163" s="17" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
     </row>
@@ -6638,19 +7715,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C164" s="11" t="inlineStr">
+      <c r="C164" s="12" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="D164" s="15" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E164" s="9" t="inlineStr">
         <is>
           <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="D164" s="9" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="E164" s="3" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
         </is>
       </c>
     </row>
@@ -6660,24 +7737,24 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C165" s="13" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="D165" s="11" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="E165" s="14" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
+      <c r="C165" s="4" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
+        </is>
+      </c>
+      <c r="D165" s="14" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E165" s="8" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="1" t="inlineStr">
+      <c r="A166" s="3" t="inlineStr">
         <is>
           <t>24*</t>
         </is>
@@ -6687,19 +7764,19 @@
           <t>08:00-16:00</t>
         </is>
       </c>
-      <c r="C166" s="15" t="inlineStr">
+      <c r="C166" s="10" t="inlineStr">
         <is>
           <t>ราเชนทร์</t>
         </is>
       </c>
-      <c r="D166" s="3" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="E166" s="13" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
+      <c r="D166" s="11" t="inlineStr">
+        <is>
+          <t>นที</t>
+        </is>
+      </c>
+      <c r="E166" s="12" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
         </is>
       </c>
     </row>
@@ -6709,19 +7786,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C167" s="14" t="inlineStr">
+      <c r="C167" s="7" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="D167" s="8" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E167" s="6" t="inlineStr">
         <is>
           <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="D167" s="12" t="inlineStr">
-        <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="E167" s="4" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
         </is>
       </c>
     </row>
@@ -6731,19 +7808,19 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C168" s="9" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="D168" s="4" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="E168" s="16" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
+      <c r="C168" s="7" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="D168" s="5" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E168" s="9" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
         </is>
       </c>
     </row>
@@ -6765,19 +7842,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C170" s="14" t="inlineStr">
+      <c r="C170" s="10" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="D170" s="8" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E170" s="6" t="inlineStr">
         <is>
           <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="D170" s="13" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="E170" s="12" t="inlineStr">
-        <is>
-          <t>วินัย</t>
         </is>
       </c>
     </row>
@@ -6789,17 +7866,17 @@
       </c>
       <c r="C171" s="16" t="inlineStr">
         <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="D171" s="11" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="E171" s="10" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="D171" s="14" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E171" s="11" t="inlineStr">
+        <is>
+          <t>นที</t>
         </is>
       </c>
     </row>
@@ -6821,19 +7898,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C173" s="14" t="inlineStr">
+      <c r="C173" s="6" t="inlineStr">
         <is>
           <t>พลกฤต</t>
         </is>
       </c>
-      <c r="D173" s="13" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="E173" s="3" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
+      <c r="D173" s="5" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E173" s="8" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์</t>
         </is>
       </c>
     </row>
@@ -6843,19 +7920,19 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C174" s="3" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
-        </is>
-      </c>
-      <c r="D174" s="9" t="inlineStr">
+      <c r="C174" s="12" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="D174" s="11" t="inlineStr">
         <is>
           <t>นที</t>
         </is>
       </c>
-      <c r="E174" s="16" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
+      <c r="E174" s="17" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
     </row>
@@ -6877,19 +7954,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C176" s="5" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="D176" s="16" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="E176" s="8" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
+      <c r="C176" s="7" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="D176" s="6" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="E176" s="10" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
         </is>
       </c>
     </row>
@@ -6899,19 +7976,19 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C177" s="14" t="inlineStr">
-        <is>
-          <t>พลกฤต</t>
-        </is>
-      </c>
-      <c r="D177" s="10" t="inlineStr">
-        <is>
-          <t>นฤชิต</t>
-        </is>
-      </c>
-      <c r="E177" s="11" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
+      <c r="C177" s="16" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="D177" s="7" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="E177" s="5" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
         </is>
       </c>
     </row>
@@ -6933,19 +8010,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C179" s="11" t="inlineStr">
+      <c r="C179" s="9" t="inlineStr">
         <is>
           <t>ชานนท์</t>
         </is>
       </c>
-      <c r="D179" s="16" t="inlineStr">
+      <c r="D179" s="12" t="inlineStr">
         <is>
           <t>ปรมะ</t>
         </is>
       </c>
-      <c r="E179" s="8" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์</t>
+      <c r="E179" s="4" t="inlineStr">
+        <is>
+          <t>รณยุทธ</t>
         </is>
       </c>
     </row>
@@ -6955,19 +8032,19 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C180" s="13" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="D180" s="5" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="E180" s="3" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
+      <c r="C180" s="9" t="inlineStr">
+        <is>
+          <t>ชานนท์</t>
+        </is>
+      </c>
+      <c r="D180" s="6" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="E180" s="12" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
         </is>
       </c>
     </row>
@@ -6989,19 +8066,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C182" s="11" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="D182" s="9" t="inlineStr">
-        <is>
-          <t>นที</t>
-        </is>
-      </c>
-      <c r="E182" s="6" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
+      <c r="C182" s="16" t="inlineStr">
+        <is>
+          <t>สัญญา</t>
+        </is>
+      </c>
+      <c r="D182" s="7" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+      <c r="E182" s="14" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
         </is>
       </c>
     </row>
@@ -7011,46 +8088,46 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C183" s="5" t="inlineStr">
+      <c r="C183" s="6" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="D183" s="10" t="inlineStr">
+        <is>
+          <t>ราเชนทร์</t>
+        </is>
+      </c>
+      <c r="E183" s="7" t="inlineStr">
+        <is>
+          <t>วินัย</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="3" t="inlineStr">
+        <is>
+          <t>30*</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>08:00-16:00</t>
+        </is>
+      </c>
+      <c r="C184" s="13" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="D184" s="14" t="inlineStr">
+        <is>
+          <t>สุเมธร์</t>
+        </is>
+      </c>
+      <c r="E184" s="4" t="inlineStr">
         <is>
           <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="D183" s="12" t="inlineStr">
-        <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="E183" s="4" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="inlineStr">
-        <is>
-          <t>30*</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>08:00-16:00</t>
-        </is>
-      </c>
-      <c r="C184" s="13" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="D184" s="16" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
-        </is>
-      </c>
-      <c r="E184" s="3" t="inlineStr">
-        <is>
-          <t>สัญญา</t>
         </is>
       </c>
     </row>
@@ -7060,19 +8137,19 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C185" s="12" t="inlineStr">
-        <is>
-          <t>วินัย</t>
-        </is>
-      </c>
-      <c r="D185" s="15" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
-        </is>
-      </c>
-      <c r="E185" s="16" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
+      <c r="C185" s="13" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
+        </is>
+      </c>
+      <c r="D185" s="5" t="inlineStr">
+        <is>
+          <t>ราเชน</t>
+        </is>
+      </c>
+      <c r="E185" s="11" t="inlineStr">
+        <is>
+          <t>นที</t>
         </is>
       </c>
     </row>
@@ -7082,24 +8159,24 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C186" s="13" t="inlineStr">
-        <is>
-          <t>ภูวเนตร</t>
-        </is>
-      </c>
-      <c r="D186" s="11" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="E186" s="15" t="inlineStr">
-        <is>
-          <t>ราเชนทร์</t>
+      <c r="C186" s="12" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="D186" s="15" t="inlineStr">
+        <is>
+          <t>นฤชิต</t>
+        </is>
+      </c>
+      <c r="E186" s="6" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
         </is>
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="1" t="inlineStr">
+      <c r="A187" s="3" t="inlineStr">
         <is>
           <t>31*</t>
         </is>
@@ -7109,19 +8186,19 @@
           <t>08:00-16:00</t>
         </is>
       </c>
-      <c r="C187" s="11" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="D187" s="4" t="inlineStr">
-        <is>
-          <t>สุเมธร์</t>
-        </is>
-      </c>
-      <c r="E187" s="5" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
+      <c r="C187" s="12" t="inlineStr">
+        <is>
+          <t>ปรมะ</t>
+        </is>
+      </c>
+      <c r="D187" s="17" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
+        </is>
+      </c>
+      <c r="E187" s="7" t="inlineStr">
+        <is>
+          <t>วินัย</t>
         </is>
       </c>
     </row>
@@ -7131,14 +8208,14 @@
           <t>16:00-24:00</t>
         </is>
       </c>
-      <c r="C188" s="11" t="inlineStr">
-        <is>
-          <t>ชานนท์</t>
-        </is>
-      </c>
-      <c r="D188" s="16" t="inlineStr">
-        <is>
-          <t>ปรมะ</t>
+      <c r="C188" s="6" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="D188" s="17" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์</t>
         </is>
       </c>
       <c r="E188" s="8" t="inlineStr">
@@ -7153,19 +8230,19 @@
           <t>24:00-8:00</t>
         </is>
       </c>
-      <c r="C189" s="5" t="inlineStr">
-        <is>
-          <t>รณยุทธ</t>
-        </is>
-      </c>
-      <c r="D189" s="6" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์</t>
-        </is>
-      </c>
-      <c r="E189" s="8" t="inlineStr">
+      <c r="C189" s="6" t="inlineStr">
+        <is>
+          <t>พลกฤต</t>
+        </is>
+      </c>
+      <c r="D189" s="8" t="inlineStr">
         <is>
           <t>วัฒพงษ์</t>
+        </is>
+      </c>
+      <c r="E189" s="13" t="inlineStr">
+        <is>
+          <t>ภูวเนตร</t>
         </is>
       </c>
     </row>
